--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_3/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.1269604576147638</v>
+        <v>1.138460054121037</v>
       </c>
       <c r="C2" t="n">
-        <v>1.2441314860150692</v>
+        <v>1.2560869235565697</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2317795942228909</v>
+        <v>1.224458835141611</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2937700521770392</v>
+        <v>1.2845266266919138</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2720546371066186</v>
+        <v>1.2560869235565697</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1315127030528411</v>
+        <v>1.13277722485152</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1269604576147638</v>
+        <v>1.1532452497716825</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2441314860150692</v>
+        <v>1.268569774626517</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2317795942228909</v>
+        <v>1.2259287736785265</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2937700521770392</v>
+        <v>1.2476465100869731</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2720546371066186</v>
+        <v>1.1833124779215676</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.6498769597155496</v>
+        <v>3.6863757293127053</v>
       </c>
       <c r="C10" t="n">
-        <v>3.874652027215582</v>
+        <v>3.8678933191624725</v>
       </c>
       <c r="D10" t="n">
-        <v>3.712806034614</v>
+        <v>3.725552307679276</v>
       </c>
       <c r="E10" t="n">
-        <v>3.50401234446042</v>
+        <v>3.528943154343741</v>
       </c>
       <c r="F10" t="n">
-        <v>4.0333583389518965</v>
+        <v>4.0016883694239676</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9863072136282574</v>
+        <v>3.9130901053617677</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6498769597155496</v>
+        <v>3.8867956683975464</v>
       </c>
       <c r="I10" t="n">
-        <v>3.874652027215582</v>
+        <v>3.444875209267591</v>
       </c>
       <c r="J10" t="n">
-        <v>3.712806034614</v>
+        <v>3.5094784932500964</v>
       </c>
       <c r="K10" t="n">
-        <v>3.50401234446042</v>
+        <v>3.9130901053617677</v>
       </c>
       <c r="L10" t="n">
-        <v>4.0333583389518965</v>
+        <v>3.528943154343741</v>
       </c>
     </row>
     <row r="11">
@@ -562,34 +562,34 @@
         <v>2.2015204978421927</v>
       </c>
       <c r="C13" t="n">
-        <v>1.9595937007415476</v>
+        <v>1.9607478179758058</v>
       </c>
       <c r="D13" t="n">
-        <v>2.050420286355244</v>
+        <v>2.055335537338784</v>
       </c>
       <c r="E13" t="n">
-        <v>2.1094086947068593</v>
+        <v>2.0982046455684533</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0518718606347375</v>
+        <v>2.044890581058405</v>
       </c>
       <c r="G13" t="n">
-        <v>2.243632369365675</v>
+        <v>2.210928703685374</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2015204978421927</v>
+        <v>2.2042003766458436</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9595937007415476</v>
+        <v>1.9222405609432176</v>
       </c>
       <c r="J13" t="n">
-        <v>2.050420286355244</v>
+        <v>2.2122793026655376</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1094086947068593</v>
+        <v>2.249379638947328</v>
       </c>
       <c r="L13" t="n">
-        <v>2.0518718606347375</v>
+        <v>2.173770239105697</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.8382248217196913</v>
+        <v>1.8198425735024943</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9764878689540188</v>
+        <v>1.968117359109411</v>
       </c>
       <c r="D19" t="n">
-        <v>1.8914776031608607</v>
+        <v>1.8642535945766001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9073250088735338</v>
+        <v>1.8979385841704695</v>
       </c>
       <c r="F19" t="n">
-        <v>1.938378589593819</v>
+        <v>1.907632934429663</v>
       </c>
       <c r="G19" t="n">
-        <v>2.014807823381438</v>
+        <v>1.9474213394092372</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8382248217196913</v>
+        <v>2.11399322709162</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9764878689540188</v>
+        <v>1.8642535945766001</v>
       </c>
       <c r="J19" t="n">
-        <v>1.8914776031608607</v>
+        <v>1.784102563953968</v>
       </c>
       <c r="K19" t="n">
-        <v>1.9073250088735338</v>
+        <v>2.045799897965173</v>
       </c>
       <c r="L19" t="n">
-        <v>1.938378589593819</v>
+        <v>2.067188950279199</v>
       </c>
     </row>
     <row r="20">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>3.1362504384315772</v>
+        <v>3.104887934047262</v>
       </c>
       <c r="C24" t="n">
-        <v>3.124885763146843</v>
+        <v>3.095439098629575</v>
       </c>
       <c r="D24" t="n">
-        <v>3.13148257239462</v>
+        <v>3.1067846295265213</v>
       </c>
       <c r="E24" t="n">
-        <v>3.095667248423095</v>
+        <v>3.0527049450034056</v>
       </c>
       <c r="F24" t="n">
-        <v>2.7601925779871</v>
+        <v>2.753549778242381</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1587482699449194</v>
+        <v>3.158885986878486</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1362504384315772</v>
+        <v>2.9778999549947995</v>
       </c>
       <c r="I24" t="n">
-        <v>3.124885763146843</v>
+        <v>2.8051883275300855</v>
       </c>
       <c r="J24" t="n">
-        <v>3.13148257239462</v>
+        <v>2.8207467759446403</v>
       </c>
       <c r="K24" t="n">
-        <v>3.095667248423095</v>
+        <v>3.049044627424735</v>
       </c>
       <c r="L24" t="n">
-        <v>2.7601925779871</v>
+        <v>2.834897680454867</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.884898059689715</v>
+        <v>2.972319213013646</v>
       </c>
       <c r="C26" t="n">
-        <v>2.805175639242789</v>
+        <v>2.921510335908786</v>
       </c>
       <c r="D26" t="n">
-        <v>2.462813739100792</v>
+        <v>2.5400392412191843</v>
       </c>
       <c r="E26" t="n">
-        <v>2.841338126556675</v>
+        <v>2.9430713002771816</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7620400147348976</v>
+        <v>2.8724093232189287</v>
       </c>
       <c r="G26" t="n">
-        <v>2.527696984784597</v>
+        <v>2.6674659603243085</v>
       </c>
       <c r="H26" t="n">
-        <v>2.884898059689715</v>
+        <v>2.8689651874349824</v>
       </c>
       <c r="I26" t="n">
-        <v>2.805175639242789</v>
+        <v>2.7159102896835843</v>
       </c>
       <c r="J26" t="n">
-        <v>2.462813739100792</v>
+        <v>2.702108375727527</v>
       </c>
       <c r="K26" t="n">
-        <v>2.841338126556675</v>
+        <v>2.909078378891178</v>
       </c>
       <c r="L26" t="n">
-        <v>2.7620400147348976</v>
+        <v>2.590922541635285</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.787440616162613</v>
+        <v>2.7598421942204086</v>
       </c>
       <c r="C31" t="n">
-        <v>2.8333657092646236</v>
+        <v>2.7890712926592256</v>
       </c>
       <c r="D31" t="n">
-        <v>3.118491627305188</v>
+        <v>3.107822297619097</v>
       </c>
       <c r="E31" t="n">
-        <v>3.063755080549601</v>
+        <v>3.0565631636119646</v>
       </c>
       <c r="F31" t="n">
-        <v>3.074923082661763</v>
+        <v>3.041698419152301</v>
       </c>
       <c r="G31" t="n">
-        <v>2.864557300288148</v>
+        <v>2.839724118343891</v>
       </c>
       <c r="H31" t="n">
-        <v>2.787440616162613</v>
+        <v>3.07724102123289</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8333657092646236</v>
+        <v>3.0454010342896907</v>
       </c>
       <c r="J31" t="n">
-        <v>3.118491627305188</v>
+        <v>3.1469144008999352</v>
       </c>
       <c r="K31" t="n">
-        <v>3.063755080549601</v>
+        <v>3.0546971283936246</v>
       </c>
       <c r="L31" t="n">
-        <v>3.074923082661763</v>
+        <v>2.7751491388521425</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2334301177109004</v>
+        <v>0.23583661376977566</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23199526979727955</v>
+        <v>0.2370412274263474</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22941489040718405</v>
+        <v>0.23281306741061036</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2492433698446661</v>
+        <v>0.25498574035862603</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2250155026864121</v>
+        <v>0.231650938876528</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2505511242519799</v>
+        <v>0.2542097644310939</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2334301177109004</v>
+        <v>0.2539006948171886</v>
       </c>
       <c r="I32" t="n">
-        <v>0.23199526979727955</v>
+        <v>0.26268342314534476</v>
       </c>
       <c r="J32" t="n">
-        <v>0.22941489040718405</v>
+        <v>0.2568675541570397</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2492433698446661</v>
+        <v>0.22169142395341426</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2250155026864121</v>
+        <v>0.2594202751217362</v>
       </c>
     </row>
     <row r="33">
@@ -1360,34 +1360,34 @@
         <v>3.0790788286179316</v>
       </c>
       <c r="C34" t="n">
-        <v>3.172094398483845</v>
+        <v>3.152640754122025</v>
       </c>
       <c r="D34" t="n">
-        <v>2.9720761437691223</v>
+        <v>2.9692855893414802</v>
       </c>
       <c r="E34" t="n">
-        <v>3.2026709657578007</v>
+        <v>3.200611551063052</v>
       </c>
       <c r="F34" t="n">
-        <v>3.233401260096165</v>
+        <v>3.210381425648965</v>
       </c>
       <c r="G34" t="n">
-        <v>3.22043288453904</v>
+        <v>3.1967202301353845</v>
       </c>
       <c r="H34" t="n">
-        <v>3.0790788286179316</v>
+        <v>2.9844521994534885</v>
       </c>
       <c r="I34" t="n">
-        <v>3.172094398483845</v>
+        <v>3.2340742802237354</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9720761437691223</v>
+        <v>3.2662141479606537</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2026709657578007</v>
+        <v>3.15642543679533</v>
       </c>
       <c r="L34" t="n">
-        <v>3.233401260096165</v>
+        <v>3.3072986015046126</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.035399531455762</v>
+        <v>3.0663729960624537</v>
       </c>
       <c r="C38" t="n">
-        <v>3.3692918172905886</v>
+        <v>3.377318578826229</v>
       </c>
       <c r="D38" t="n">
-        <v>3.0158228281845916</v>
+        <v>3.0494597422794927</v>
       </c>
       <c r="E38" t="n">
-        <v>3.0662771589648266</v>
+        <v>3.081756139218041</v>
       </c>
       <c r="F38" t="n">
-        <v>3.3543693987316456</v>
+        <v>3.400166368639592</v>
       </c>
       <c r="G38" t="n">
-        <v>3.311916956916572</v>
+        <v>3.3145506675952703</v>
       </c>
       <c r="H38" t="n">
-        <v>3.035399531455762</v>
+        <v>2.9933245888364364</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3692918172905886</v>
+        <v>3.3185297199072203</v>
       </c>
       <c r="J38" t="n">
-        <v>3.0158228281845916</v>
+        <v>3.2031694746317396</v>
       </c>
       <c r="K38" t="n">
-        <v>3.0662771589648266</v>
+        <v>3.0663729960624537</v>
       </c>
       <c r="L38" t="n">
-        <v>3.3543693987316456</v>
+        <v>3.375256722069375</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.3143960072212733</v>
+        <v>2.268566383315901</v>
       </c>
       <c r="C45" t="n">
-        <v>2.162755163009849</v>
+        <v>2.0961905677220902</v>
       </c>
       <c r="D45" t="n">
-        <v>2.377015254108697</v>
+        <v>2.3243736752771156</v>
       </c>
       <c r="E45" t="n">
-        <v>2.0791193350517854</v>
+        <v>2.00606772452461</v>
       </c>
       <c r="F45" t="n">
-        <v>2.136541056458087</v>
+        <v>2.106706574622121</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2604918951271147</v>
+        <v>2.212976311987335</v>
       </c>
       <c r="H45" t="n">
-        <v>2.3143960072212733</v>
+        <v>2.084628568221423</v>
       </c>
       <c r="I45" t="n">
-        <v>2.162755163009849</v>
+        <v>2.1897054429322336</v>
       </c>
       <c r="J45" t="n">
-        <v>2.377015254108697</v>
+        <v>2.3073452947595365</v>
       </c>
       <c r="K45" t="n">
-        <v>2.0791193350517854</v>
+        <v>2.3770010023042265</v>
       </c>
       <c r="L45" t="n">
-        <v>2.136541056458087</v>
+        <v>2.3087547921335547</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.9360399719836614</v>
+        <v>1.8779587728241514</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9995202025184924</v>
+        <v>1.9515026635997528</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9432576590237074</v>
+        <v>1.9155789555583354</v>
       </c>
       <c r="E51" t="n">
-        <v>2.2040420074534715</v>
+        <v>2.150805063881423</v>
       </c>
       <c r="F51" t="n">
-        <v>2.176230642976954</v>
+        <v>2.161316022974487</v>
       </c>
       <c r="G51" t="n">
-        <v>2.040388004899815</v>
+        <v>1.9977833597891428</v>
       </c>
       <c r="H51" t="n">
-        <v>1.9360399719836614</v>
+        <v>2.0498692522605984</v>
       </c>
       <c r="I51" t="n">
-        <v>1.9995202025184924</v>
+        <v>2.159996537133381</v>
       </c>
       <c r="J51" t="n">
-        <v>1.9432576590237074</v>
+        <v>1.9623263053583138</v>
       </c>
       <c r="K51" t="n">
-        <v>2.2040420074534715</v>
+        <v>2.175937472820163</v>
       </c>
       <c r="L51" t="n">
-        <v>2.176230642976954</v>
+        <v>2.1534232075267488</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1233229098501554</v>
+        <v>1.0783899934561492</v>
       </c>
       <c r="C59" t="n">
-        <v>1.1212944928747088</v>
+        <v>1.0891069123502006</v>
       </c>
       <c r="D59" t="n">
-        <v>1.140320097699486</v>
+        <v>1.1028063699845982</v>
       </c>
       <c r="E59" t="n">
-        <v>1.1016371158527876</v>
+        <v>1.051236288231463</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0685102743393162</v>
+        <v>1.026707338835318</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0000408257061537</v>
+        <v>0.967160578332908</v>
       </c>
       <c r="H59" t="n">
-        <v>1.1233229098501554</v>
+        <v>0.9725247522170309</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1212944928747088</v>
+        <v>1.0711436339442824</v>
       </c>
       <c r="J59" t="n">
-        <v>1.140320097699486</v>
+        <v>1.067231971359601</v>
       </c>
       <c r="K59" t="n">
-        <v>1.1016371158527876</v>
+        <v>1.015910850906131</v>
       </c>
       <c r="L59" t="n">
-        <v>1.0685102743393162</v>
+        <v>0.9307123821494714</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.5097889786866685</v>
       </c>
       <c r="C62" t="n">
-        <v>2.5438442433088517</v>
+        <v>2.5267678717707973</v>
       </c>
       <c r="D62" t="n">
-        <v>2.252063515667987</v>
+        <v>2.2787157830797997</v>
       </c>
       <c r="E62" t="n">
-        <v>2.2646898243030695</v>
+        <v>2.2661470256625003</v>
       </c>
       <c r="F62" t="n">
-        <v>2.2156062762704565</v>
+        <v>2.180745518175263</v>
       </c>
       <c r="G62" t="n">
-        <v>2.2883986945757684</v>
+        <v>2.2787157830797997</v>
       </c>
       <c r="H62" t="n">
-        <v>2.5097889786866685</v>
+        <v>2.5267678717707973</v>
       </c>
       <c r="I62" t="n">
-        <v>2.5438442433088517</v>
+        <v>2.4056706138064383</v>
       </c>
       <c r="J62" t="n">
-        <v>2.252063515667987</v>
+        <v>2.4975833183358547</v>
       </c>
       <c r="K62" t="n">
-        <v>2.2646898243030695</v>
+        <v>2.2901474683793457</v>
       </c>
       <c r="L62" t="n">
-        <v>2.2156062762704565</v>
+        <v>2.4631442194950757</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4195806587361742</v>
       </c>
       <c r="C65" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.46496925838203873</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.4513437855077173</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.45467473633736805</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.42833205155922943</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4360757759623421</v>
+        <v>0.45161949971568505</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4100394458211591</v>
       </c>
       <c r="I65" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.41744840268504474</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.40027131635499924</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.40777778319332375</v>
       </c>
       <c r="L65" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.45467473633736805</v>
       </c>
     </row>
     <row r="66">
@@ -2690,34 +2690,34 @@
         <v>2.360248794384463</v>
       </c>
       <c r="C69" t="n">
-        <v>2.6056458503769497</v>
+        <v>2.6041121392312716</v>
       </c>
       <c r="D69" t="n">
-        <v>2.579776675008933</v>
+        <v>2.538540969404214</v>
       </c>
       <c r="E69" t="n">
-        <v>2.7096063444183587</v>
+        <v>2.663073167152161</v>
       </c>
       <c r="F69" t="n">
-        <v>2.6641266810519983</v>
+        <v>2.6041121392312716</v>
       </c>
       <c r="G69" t="n">
-        <v>2.369782786224518</v>
+        <v>2.3484671856371753</v>
       </c>
       <c r="H69" t="n">
-        <v>2.360248794384463</v>
+        <v>2.3909013764253118</v>
       </c>
       <c r="I69" t="n">
-        <v>2.6056458503769497</v>
+        <v>2.6299915138142214</v>
       </c>
       <c r="J69" t="n">
-        <v>2.579776675008933</v>
+        <v>2.5415884374704105</v>
       </c>
       <c r="K69" t="n">
-        <v>2.7096063444183587</v>
+        <v>2.586613522882275</v>
       </c>
       <c r="L69" t="n">
-        <v>2.6641266810519983</v>
+        <v>2.4532365797856435</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.80614138851681</v>
+        <v>4.854202802401978</v>
       </c>
       <c r="C76" t="n">
-        <v>5.305839958528472</v>
+        <v>5.355744052957818</v>
       </c>
       <c r="D76" t="n">
-        <v>5.253162920955639</v>
+        <v>5.220887186559422</v>
       </c>
       <c r="E76" t="n">
-        <v>5.5175332488171245</v>
+        <v>5.477006179072249</v>
       </c>
       <c r="F76" t="n">
-        <v>5.424923650642166</v>
+        <v>5.355744052957818</v>
       </c>
       <c r="G76" t="n">
-        <v>4.825555321865401</v>
+        <v>4.829972171150748</v>
       </c>
       <c r="H76" t="n">
-        <v>4.80614138851681</v>
+        <v>4.9172443978463045</v>
       </c>
       <c r="I76" t="n">
-        <v>5.305839958528472</v>
+        <v>5.408968837109324</v>
       </c>
       <c r="J76" t="n">
-        <v>5.253162920955639</v>
+        <v>5.22715475803848</v>
       </c>
       <c r="K76" t="n">
-        <v>5.5175332488171245</v>
+        <v>5.319755544999865</v>
       </c>
       <c r="L76" t="n">
-        <v>5.424923650642166</v>
+        <v>5.045446017760248</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1.9526000286957383</v>
+        <v>1.9330740284087808</v>
       </c>
       <c r="C79" t="n">
-        <v>2.1556134990183624</v>
+        <v>2.1328012349328707</v>
       </c>
       <c r="D79" t="n">
-        <v>2.134212300684482</v>
+        <v>2.0790976060160204</v>
       </c>
       <c r="E79" t="n">
-        <v>2.2416185270185642</v>
+        <v>2.181091072865774</v>
       </c>
       <c r="F79" t="n">
-        <v>2.2039938527869705</v>
+        <v>2.1328012349328707</v>
       </c>
       <c r="G79" t="n">
-        <v>1.9604873636177045</v>
+        <v>1.923424739767498</v>
       </c>
       <c r="H79" t="n">
-        <v>1.9526000286957383</v>
+        <v>1.9581788861626803</v>
       </c>
       <c r="I79" t="n">
-        <v>2.1556134990183624</v>
+        <v>2.1539967745712287</v>
       </c>
       <c r="J79" t="n">
-        <v>2.134212300684482</v>
+        <v>2.0815935214403543</v>
       </c>
       <c r="K79" t="n">
-        <v>2.2416185270185642</v>
+        <v>2.118469643755782</v>
       </c>
       <c r="L79" t="n">
-        <v>2.2039938527869705</v>
+        <v>2.0092322170480212</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.4435825119908006</v>
+        <v>3.513149835465362</v>
       </c>
       <c r="C90" t="n">
-        <v>3.6556530831683522</v>
+        <v>3.686137761206093</v>
       </c>
       <c r="D90" t="n">
-        <v>3.502954776921329</v>
+        <v>3.550485473487337</v>
       </c>
       <c r="E90" t="n">
-        <v>3.3059623007467542</v>
+        <v>3.3631151495131997</v>
       </c>
       <c r="F90" t="n">
-        <v>3.8053891662390336</v>
+        <v>3.8136456696036687</v>
       </c>
       <c r="G90" t="n">
-        <v>3.760997414373897</v>
+        <v>3.7292107124348655</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4435825119908006</v>
+        <v>3.7041518731635548</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6556530831683522</v>
+        <v>3.2829976278336472</v>
       </c>
       <c r="J90" t="n">
-        <v>3.502954776921329</v>
+        <v>3.344565149204014</v>
       </c>
       <c r="K90" t="n">
-        <v>3.3059623007467542</v>
+        <v>3.7292107124348655</v>
       </c>
       <c r="L90" t="n">
-        <v>3.8053891662390336</v>
+        <v>3.3631151495131997</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3.108806416520137</v>
+        <v>3.1716105865508464</v>
       </c>
       <c r="C93" t="n">
-        <v>3.300260040801298</v>
+        <v>3.3277810780813044</v>
       </c>
       <c r="D93" t="n">
-        <v>3.162406664963916</v>
+        <v>3.205316551383525</v>
       </c>
       <c r="E93" t="n">
-        <v>2.984565282681004</v>
+        <v>3.036161880801956</v>
       </c>
       <c r="F93" t="n">
-        <v>3.435439173060746</v>
+        <v>3.442893000738352</v>
       </c>
       <c r="G93" t="n">
-        <v>3.3953630713386693</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="H93" t="n">
-        <v>3.108806416520137</v>
+        <v>3.344043905136055</v>
       </c>
       <c r="I93" t="n">
-        <v>3.300260040801298</v>
+        <v>2.9638331752733955</v>
       </c>
       <c r="J93" t="n">
-        <v>3.162406664963916</v>
+        <v>3.0194152630610303</v>
       </c>
       <c r="K93" t="n">
-        <v>2.984565282681004</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="L93" t="n">
-        <v>3.435439173060746</v>
+        <v>3.036161880801956</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.108806416520137</v>
+        <v>3.1716105865508464</v>
       </c>
       <c r="C94" t="n">
-        <v>3.300260040801298</v>
+        <v>3.3277810780813044</v>
       </c>
       <c r="D94" t="n">
-        <v>3.162406664963916</v>
+        <v>3.205316551383525</v>
       </c>
       <c r="E94" t="n">
-        <v>2.984565282681004</v>
+        <v>3.036161880801956</v>
       </c>
       <c r="F94" t="n">
-        <v>3.435439173060746</v>
+        <v>3.442893000738352</v>
       </c>
       <c r="G94" t="n">
-        <v>3.3953630713386693</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="H94" t="n">
-        <v>3.108806416520137</v>
+        <v>3.344043905136055</v>
       </c>
       <c r="I94" t="n">
-        <v>3.300260040801298</v>
+        <v>2.9638331752733955</v>
       </c>
       <c r="J94" t="n">
-        <v>3.162406664963916</v>
+        <v>3.0194152630610303</v>
       </c>
       <c r="K94" t="n">
-        <v>2.984565282681004</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="L94" t="n">
-        <v>3.435439173060746</v>
+        <v>3.036161880801956</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3.108806416520137</v>
+        <v>3.1716105865508464</v>
       </c>
       <c r="C97" t="n">
-        <v>3.300260040801298</v>
+        <v>3.3277810780813044</v>
       </c>
       <c r="D97" t="n">
-        <v>3.162406664963916</v>
+        <v>3.205316551383525</v>
       </c>
       <c r="E97" t="n">
-        <v>2.984565282681004</v>
+        <v>3.036161880801956</v>
       </c>
       <c r="F97" t="n">
-        <v>3.435439173060746</v>
+        <v>3.442893000738352</v>
       </c>
       <c r="G97" t="n">
-        <v>3.3953630713386693</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="H97" t="n">
-        <v>3.108806416520137</v>
+        <v>3.344043905136055</v>
       </c>
       <c r="I97" t="n">
-        <v>3.300260040801298</v>
+        <v>2.9638331752733955</v>
       </c>
       <c r="J97" t="n">
-        <v>3.162406664963916</v>
+        <v>3.0194152630610303</v>
       </c>
       <c r="K97" t="n">
-        <v>2.984565282681004</v>
+        <v>3.366666589519523</v>
       </c>
       <c r="L97" t="n">
-        <v>3.435439173060746</v>
+        <v>3.036161880801956</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.2888710869704076</v>
+        <v>1.3018899868387954</v>
       </c>
       <c r="C100" t="n">
-        <v>1.1472360423492018</v>
+        <v>1.1595067833530104</v>
       </c>
       <c r="D100" t="n">
-        <v>1.200410091939235</v>
+        <v>1.2154421266020405</v>
       </c>
       <c r="E100" t="n">
-        <v>1.2349446120880685</v>
+        <v>1.240793179569123</v>
       </c>
       <c r="F100" t="n">
-        <v>1.2012599101086607</v>
+        <v>1.209265402829665</v>
       </c>
       <c r="G100" t="n">
-        <v>1.3135253083042662</v>
+        <v>1.307453618425856</v>
       </c>
       <c r="H100" t="n">
-        <v>1.2888710869704076</v>
+        <v>1.303474758538098</v>
       </c>
       <c r="I100" t="n">
-        <v>1.1472360423492018</v>
+        <v>1.1367351523822828</v>
       </c>
       <c r="J100" t="n">
-        <v>1.200410091939235</v>
+        <v>1.308252307918065</v>
       </c>
       <c r="K100" t="n">
-        <v>1.2349446120880685</v>
+        <v>1.3301919429843552</v>
       </c>
       <c r="L100" t="n">
-        <v>1.2012599101086607</v>
+        <v>1.285479608640346</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.41246981795278054</v>
+        <v>0.41672208411724215</v>
       </c>
       <c r="C101" t="n">
-        <v>0.36714318935413315</v>
+        <v>0.3711466315830698</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3841601670611648</v>
+        <v>0.3890509806833717</v>
       </c>
       <c r="E101" t="n">
-        <v>0.39521204601389903</v>
+        <v>0.39716560152983904</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3844321293614906</v>
+        <v>0.3870738726101381</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4203597631056721</v>
+        <v>0.41850294745720074</v>
       </c>
       <c r="H101" t="n">
-        <v>0.41246981795278054</v>
+        <v>0.4172293538343915</v>
       </c>
       <c r="I101" t="n">
-        <v>0.36714318935413315</v>
+        <v>0.3638576581576637</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3841601670611648</v>
+        <v>0.4187586000492942</v>
       </c>
       <c r="K101" t="n">
-        <v>0.39521204601389903</v>
+        <v>0.425781259830092</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3844321293614906</v>
+        <v>0.4114692846694062</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7341881899170895</v>
+        <v>1.7517052423404942</v>
       </c>
       <c r="C104" t="n">
-        <v>1.543616903041667</v>
+        <v>1.560127300664408</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6151630877154632</v>
+        <v>1.6353888319704124</v>
       </c>
       <c r="E104" t="n">
-        <v>1.6616296099239296</v>
+        <v>1.6694989125687882</v>
       </c>
       <c r="F104" t="n">
-        <v>1.6163065260685254</v>
+        <v>1.627077991944035</v>
       </c>
       <c r="G104" t="n">
-        <v>1.7673606769881423</v>
+        <v>1.7591911610556152</v>
       </c>
       <c r="H104" t="n">
-        <v>1.7341881899170895</v>
+        <v>1.7538375675919708</v>
       </c>
       <c r="I104" t="n">
-        <v>1.543616903041667</v>
+        <v>1.5294878566627503</v>
       </c>
       <c r="J104" t="n">
-        <v>1.6151630877154632</v>
+        <v>1.7602658052918014</v>
       </c>
       <c r="K104" t="n">
-        <v>1.6616296099239296</v>
+        <v>1.789785790965842</v>
       </c>
       <c r="L104" t="n">
-        <v>1.6163065260685254</v>
+        <v>1.729624923873022</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.78328113391984</v>
+        <v>1.8014778801843283</v>
       </c>
       <c r="C106" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.9482563709995218</v>
       </c>
       <c r="D106" t="n">
-        <v>1.834942214409414</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="E106" t="n">
-        <v>1.8503159485115057</v>
+        <v>1.8787857956037517</v>
       </c>
       <c r="F106" t="n">
-        <v>1.8804413520991556</v>
+        <v>1.8883823166484728</v>
       </c>
       <c r="G106" t="n">
-        <v>1.9545861515181426</v>
+        <v>1.9277692023616513</v>
       </c>
       <c r="H106" t="n">
-        <v>1.78328113391984</v>
+        <v>2.0926601525402875</v>
       </c>
       <c r="I106" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="J106" t="n">
-        <v>1.834942214409414</v>
+        <v>1.7660985360714303</v>
       </c>
       <c r="K106" t="n">
-        <v>1.8503159485115057</v>
+        <v>2.025154987101176</v>
       </c>
       <c r="L106" t="n">
-        <v>1.8804413520991556</v>
+        <v>2.046328194708724</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.78328113391984</v>
+        <v>1.8014778801843283</v>
       </c>
       <c r="C107" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.9482563709995218</v>
       </c>
       <c r="D107" t="n">
-        <v>1.834942214409414</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="E107" t="n">
-        <v>1.8503159485115057</v>
+        <v>1.8787857956037517</v>
       </c>
       <c r="F107" t="n">
-        <v>1.8804413520991556</v>
+        <v>1.8883823166484728</v>
       </c>
       <c r="G107" t="n">
-        <v>1.9545861515181426</v>
+        <v>1.9277692023616513</v>
       </c>
       <c r="H107" t="n">
-        <v>1.78328113391984</v>
+        <v>2.0926601525402875</v>
       </c>
       <c r="I107" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="J107" t="n">
-        <v>1.834942214409414</v>
+        <v>1.7660985360714303</v>
       </c>
       <c r="K107" t="n">
-        <v>1.8503159485115057</v>
+        <v>2.025154987101176</v>
       </c>
       <c r="L107" t="n">
-        <v>1.8804413520991556</v>
+        <v>2.046328194708724</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78328113391984</v>
+        <v>1.8014778801843283</v>
       </c>
       <c r="C111" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.9482563709995218</v>
       </c>
       <c r="D111" t="n">
-        <v>1.834942214409414</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="E111" t="n">
-        <v>1.8503159485115057</v>
+        <v>1.8787857956037517</v>
       </c>
       <c r="F111" t="n">
-        <v>1.8804413520991556</v>
+        <v>1.8883823166484728</v>
       </c>
       <c r="G111" t="n">
-        <v>1.9545861515181426</v>
+        <v>1.9277692023616513</v>
       </c>
       <c r="H111" t="n">
-        <v>1.78328113391984</v>
+        <v>2.0926601525402875</v>
       </c>
       <c r="I111" t="n">
-        <v>1.9174115627650892</v>
+        <v>1.8454407334917007</v>
       </c>
       <c r="J111" t="n">
-        <v>1.834942214409414</v>
+        <v>1.7660985360714303</v>
       </c>
       <c r="K111" t="n">
-        <v>1.8503159485115057</v>
+        <v>2.025154987101176</v>
       </c>
       <c r="L111" t="n">
-        <v>1.8804413520991556</v>
+        <v>2.046328194708724</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>3.1171039196048245</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="C116" t="n">
-        <v>2.968338480665726</v>
+        <v>2.9074326097463747</v>
       </c>
       <c r="D116" t="n">
-        <v>3.0923972146718373</v>
+        <v>3.012142067562632</v>
       </c>
       <c r="E116" t="n">
-        <v>2.846518650082352</v>
+        <v>2.783266047271082</v>
       </c>
       <c r="F116" t="n">
-        <v>2.775690563911577</v>
+        <v>2.7679143320481</v>
       </c>
       <c r="G116" t="n">
-        <v>3.0716683456358456</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="H116" t="n">
-        <v>3.1171039196048245</v>
+        <v>2.663603334625799</v>
       </c>
       <c r="I116" t="n">
-        <v>2.968338480665726</v>
+        <v>3.0085303865263104</v>
       </c>
       <c r="J116" t="n">
-        <v>3.0923972146718373</v>
+        <v>2.848029899204801</v>
       </c>
       <c r="K116" t="n">
-        <v>2.846518650082352</v>
+        <v>2.9383310503408957</v>
       </c>
       <c r="L116" t="n">
-        <v>2.775690563911577</v>
+        <v>2.833556570036892</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0091686875405326</v>
+        <v>1.0193623106470027</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9610055763201039</v>
+        <v>0.9603030802169127</v>
       </c>
       <c r="D117" t="n">
-        <v>1.0011698419345654</v>
+        <v>0.9948878250298168</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9215661602091969</v>
+        <v>0.9192918003663468</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8986354243064201</v>
+        <v>0.9142212445206762</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9944588287316745</v>
+        <v>1.0193623106470027</v>
       </c>
       <c r="H117" t="n">
-        <v>1.0091686875405326</v>
+        <v>0.8797681081730475</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9610055763201039</v>
+        <v>0.993694914001608</v>
       </c>
       <c r="J117" t="n">
-        <v>1.0011698419345654</v>
+        <v>0.9406828125914206</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9215661602091969</v>
+        <v>0.9705086022907006</v>
       </c>
       <c r="L117" t="n">
-        <v>0.8986354243064201</v>
+        <v>0.9359023810401115</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>2.0764279509850496</v>
+        <v>2.055869258401039</v>
       </c>
       <c r="C120" t="n">
-        <v>1.9773293249781037</v>
+        <v>1.9367574813637074</v>
       </c>
       <c r="D120" t="n">
-        <v>2.059969823818696</v>
+        <v>2.006508651215539</v>
       </c>
       <c r="E120" t="n">
-        <v>1.896180249512038</v>
+        <v>1.854045153654686</v>
       </c>
       <c r="F120" t="n">
-        <v>1.8489988203287528</v>
+        <v>1.843818760372102</v>
       </c>
       <c r="G120" t="n">
-        <v>2.0461614926982827</v>
+        <v>2.055869258401039</v>
       </c>
       <c r="H120" t="n">
-        <v>2.0764279509850496</v>
+        <v>1.774333020971327</v>
       </c>
       <c r="I120" t="n">
-        <v>1.9773293249781037</v>
+        <v>2.0041027656091295</v>
       </c>
       <c r="J120" t="n">
-        <v>2.059969823818696</v>
+        <v>1.8971869531702057</v>
       </c>
       <c r="K120" t="n">
-        <v>1.896180249512038</v>
+        <v>1.9573401720108796</v>
       </c>
       <c r="L120" t="n">
-        <v>1.8489988203287528</v>
+        <v>1.8875456880718435</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.293015097021144</v>
+        <v>1.3062091286234008</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2883296622944285</v>
+        <v>1.302234055983225</v>
       </c>
       <c r="D126" t="n">
-        <v>1.291049398526274</v>
+        <v>1.307007057889079</v>
       </c>
       <c r="E126" t="n">
-        <v>1.276283436588922</v>
+        <v>1.284256034632311</v>
       </c>
       <c r="F126" t="n">
-        <v>1.1379737505299021</v>
+        <v>1.1584031156225267</v>
       </c>
       <c r="G126" t="n">
-        <v>1.3022905156677294</v>
+        <v>1.3289258098802645</v>
       </c>
       <c r="H126" t="n">
-        <v>1.293015097021144</v>
+        <v>1.2527859903371998</v>
       </c>
       <c r="I126" t="n">
-        <v>1.2883296622944285</v>
+        <v>1.1801271668286348</v>
       </c>
       <c r="J126" t="n">
-        <v>1.291049398526274</v>
+        <v>1.1866725197618135</v>
       </c>
       <c r="K126" t="n">
-        <v>1.276283436588922</v>
+        <v>1.2827161593335952</v>
       </c>
       <c r="L126" t="n">
-        <v>1.1379737505299021</v>
+        <v>1.1926257267831832</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.2778593137452627</v>
+        <v>1.26508072060781</v>
       </c>
       <c r="C127" t="n">
-        <v>1.216872799783986</v>
+        <v>1.1917851975041371</v>
       </c>
       <c r="D127" t="n">
-        <v>1.267730779751896</v>
+        <v>1.2347066332222927</v>
       </c>
       <c r="E127" t="n">
-        <v>1.1669326601143502</v>
+        <v>1.1408881033850973</v>
       </c>
       <c r="F127" t="n">
-        <v>1.137896627976047</v>
+        <v>1.1345952844569072</v>
       </c>
       <c r="G127" t="n">
-        <v>1.2592329628538295</v>
+        <v>1.26508072060781</v>
       </c>
       <c r="H127" t="n">
-        <v>1.2778593137452627</v>
+        <v>1.091837181569826</v>
       </c>
       <c r="I127" t="n">
-        <v>1.216872799783986</v>
+        <v>1.2332261696742246</v>
       </c>
       <c r="J127" t="n">
-        <v>1.267730779751896</v>
+        <v>1.1674354427143792</v>
       </c>
       <c r="K127" t="n">
-        <v>1.1669326601143502</v>
+        <v>1.2044507719367368</v>
       </c>
       <c r="L127" t="n">
-        <v>1.137896627976047</v>
+        <v>1.1615026828618906</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.7439767175582186</v>
       </c>
       <c r="C128" t="n">
-        <v>3.569131544884348</v>
+        <v>3.679977113446721</v>
       </c>
       <c r="D128" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.1994705478375582</v>
       </c>
       <c r="E128" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.7071356192525386</v>
       </c>
       <c r="F128" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.6181287603107304</v>
       </c>
       <c r="G128" t="n">
-        <v>3.2160849103691107</v>
+        <v>3.359979105409576</v>
       </c>
       <c r="H128" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.6137904765453976</v>
       </c>
       <c r="I128" t="n">
-        <v>3.569131544884348</v>
+        <v>3.421000290625734</v>
       </c>
       <c r="J128" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.4036151981084237</v>
       </c>
       <c r="K128" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.6643176387093432</v>
       </c>
       <c r="L128" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.2635638966395017</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.7439767175582186</v>
       </c>
       <c r="C132" t="n">
-        <v>3.569131544884348</v>
+        <v>3.679977113446721</v>
       </c>
       <c r="D132" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.1994705478375582</v>
       </c>
       <c r="E132" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.7071356192525386</v>
       </c>
       <c r="F132" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.6181287603107304</v>
       </c>
       <c r="G132" t="n">
-        <v>3.2160849103691107</v>
+        <v>3.359979105409576</v>
       </c>
       <c r="H132" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.6137904765453976</v>
       </c>
       <c r="I132" t="n">
-        <v>3.569131544884348</v>
+        <v>3.421000290625734</v>
       </c>
       <c r="J132" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.4036151981084237</v>
       </c>
       <c r="K132" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.6643176387093432</v>
       </c>
       <c r="L132" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.2635638966395017</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>1.2904763704307258</v>
+        <v>1.3035114852835614</v>
       </c>
       <c r="C133" t="n">
-        <v>1.1486649199634815</v>
+        <v>1.1609509441230519</v>
       </c>
       <c r="D133" t="n">
-        <v>1.2019051976062562</v>
+        <v>1.216955954604339</v>
       </c>
       <c r="E133" t="n">
-        <v>1.2364827303531418</v>
+        <v>1.242338582200134</v>
       </c>
       <c r="F133" t="n">
-        <v>1.2027560742205996</v>
+        <v>1.2107715377487596</v>
       </c>
       <c r="G133" t="n">
-        <v>1.31516129849246</v>
+        <v>1.3090820463501147</v>
       </c>
       <c r="H133" t="n">
-        <v>1.2904763704307258</v>
+        <v>1.3050982308092791</v>
       </c>
       <c r="I133" t="n">
-        <v>1.1486649199634815</v>
+        <v>1.138150951182744</v>
       </c>
       <c r="J133" t="n">
-        <v>1.2019051976062562</v>
+        <v>1.3098817306066914</v>
       </c>
       <c r="K133" t="n">
-        <v>1.2364827303531418</v>
+        <v>1.3318486913951997</v>
       </c>
       <c r="L133" t="n">
-        <v>1.2027560742205996</v>
+        <v>1.2870806680288203</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.7439767175582186</v>
       </c>
       <c r="C138" t="n">
-        <v>3.569131544884348</v>
+        <v>3.679977113446721</v>
       </c>
       <c r="D138" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.1994705478375582</v>
       </c>
       <c r="E138" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.7071356192525386</v>
       </c>
       <c r="F138" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.6181287603107304</v>
       </c>
       <c r="G138" t="n">
-        <v>3.2160849103691107</v>
+        <v>3.359979105409576</v>
       </c>
       <c r="H138" t="n">
-        <v>3.6705654093708024</v>
+        <v>3.6137904765453976</v>
       </c>
       <c r="I138" t="n">
-        <v>3.569131544884348</v>
+        <v>3.421000290625734</v>
       </c>
       <c r="J138" t="n">
-        <v>3.1335314917293204</v>
+        <v>3.4036151981084237</v>
       </c>
       <c r="K138" t="n">
-        <v>3.6151424514414536</v>
+        <v>3.6643176387093432</v>
       </c>
       <c r="L138" t="n">
-        <v>3.5142484509398417</v>
+        <v>3.2635638966395017</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.325292759124172</v>
+        <v>3.2594453777553762</v>
       </c>
       <c r="C153" t="n">
-        <v>3.304852854349258</v>
+        <v>3.276094075140112</v>
       </c>
       <c r="D153" t="n">
-        <v>3.2680944575073188</v>
+        <v>3.217657616104291</v>
       </c>
       <c r="E153" t="n">
-        <v>3.5505580048185608</v>
+        <v>3.524101196673346</v>
       </c>
       <c r="F153" t="n">
-        <v>3.2054236578867625</v>
+        <v>3.2015960961467913</v>
       </c>
       <c r="G153" t="n">
-        <v>3.5691874186405554</v>
+        <v>3.5133766059924723</v>
       </c>
       <c r="H153" t="n">
-        <v>3.325292759124172</v>
+        <v>3.509105023610308</v>
       </c>
       <c r="I153" t="n">
-        <v>3.304852854349258</v>
+        <v>3.6304891581418337</v>
       </c>
       <c r="J153" t="n">
-        <v>3.2680944575073188</v>
+        <v>3.550109326577312</v>
       </c>
       <c r="K153" t="n">
-        <v>3.5505580048185608</v>
+        <v>3.0639478558590527</v>
       </c>
       <c r="L153" t="n">
-        <v>3.2054236578867625</v>
+        <v>3.585389915185159</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.132194541868491</v>
+        <v>2.0899728677720857</v>
       </c>
       <c r="C154" t="n">
-        <v>2.1190883715086635</v>
+        <v>2.100648096771262</v>
       </c>
       <c r="D154" t="n">
-        <v>2.0955187014700885</v>
+        <v>2.063178343571211</v>
       </c>
       <c r="E154" t="n">
-        <v>2.2766357571642977</v>
+        <v>2.259671517920188</v>
       </c>
       <c r="F154" t="n">
-        <v>2.0553338676629505</v>
+        <v>2.0528796157092732</v>
       </c>
       <c r="G154" t="n">
-        <v>2.288581031564717</v>
+        <v>2.2527948561132574</v>
       </c>
       <c r="H154" t="n">
-        <v>2.132194541868491</v>
+        <v>2.2500558958772294</v>
       </c>
       <c r="I154" t="n">
-        <v>2.1190883715086635</v>
+        <v>2.3278880170964507</v>
       </c>
       <c r="J154" t="n">
-        <v>2.0955187014700885</v>
+        <v>2.2763480624058676</v>
       </c>
       <c r="K154" t="n">
-        <v>2.2766357571642977</v>
+        <v>1.9646188675889722</v>
       </c>
       <c r="L154" t="n">
-        <v>2.0553338676629505</v>
+        <v>2.2989701543275944</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>3.3640390931868955</v>
+        <v>3.2974244576782445</v>
       </c>
       <c r="C156" t="n">
-        <v>3.343361022501192</v>
+        <v>3.3142671457992265</v>
       </c>
       <c r="D156" t="n">
-        <v>3.3061743165668456</v>
+        <v>3.2551497847414614</v>
       </c>
       <c r="E156" t="n">
-        <v>3.5919291310709185</v>
+        <v>3.565164048015528</v>
       </c>
       <c r="F156" t="n">
-        <v>3.242773276358776</v>
+        <v>3.238901115843129</v>
       </c>
       <c r="G156" t="n">
-        <v>3.6107756149506876</v>
+        <v>3.5543144943304</v>
       </c>
       <c r="H156" t="n">
-        <v>3.3640390931868955</v>
+        <v>3.549993139440987</v>
       </c>
       <c r="I156" t="n">
-        <v>3.343361022501192</v>
+        <v>3.672791642741569</v>
       </c>
       <c r="J156" t="n">
-        <v>3.3061743165668456</v>
+        <v>3.591475224827722</v>
       </c>
       <c r="K156" t="n">
-        <v>3.5919291310709185</v>
+        <v>3.099648997314384</v>
       </c>
       <c r="L156" t="n">
-        <v>3.242773276358776</v>
+        <v>3.627166903096285</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.8992447591647</v>
+        <v>1.8428315484964413</v>
       </c>
       <c r="C157" t="n">
-        <v>1.8875704841959584</v>
+        <v>1.8522444213095117</v>
       </c>
       <c r="D157" t="n">
-        <v>1.866575883836098</v>
+        <v>1.819205502777982</v>
       </c>
       <c r="E157" t="n">
-        <v>2.0279052616522164</v>
+        <v>1.9924631686253427</v>
       </c>
       <c r="F157" t="n">
-        <v>1.8307813850192922</v>
+        <v>1.8101246094773957</v>
       </c>
       <c r="G157" t="n">
-        <v>2.0385454726443615</v>
+        <v>1.98639967874872</v>
       </c>
       <c r="H157" t="n">
-        <v>1.8992447591647</v>
+        <v>1.983984603217902</v>
       </c>
       <c r="I157" t="n">
-        <v>1.8875704841959584</v>
+        <v>2.0526130005913465</v>
       </c>
       <c r="J157" t="n">
-        <v>1.866575883836098</v>
+        <v>2.007167695546247</v>
       </c>
       <c r="K157" t="n">
-        <v>2.0279052616522164</v>
+        <v>1.732300780451628</v>
       </c>
       <c r="L157" t="n">
-        <v>1.8307813850192922</v>
+        <v>2.027114703150602</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.6405400823225333</v>
       </c>
       <c r="C159" t="n">
-        <v>2.720307881129185</v>
+        <v>2.7036249280306155</v>
       </c>
       <c r="D159" t="n">
-        <v>2.5487772876732553</v>
+        <v>2.54638417881563</v>
       </c>
       <c r="E159" t="n">
-        <v>2.746529571433539</v>
+        <v>2.7447634695081624</v>
       </c>
       <c r="F159" t="n">
-        <v>2.772883094178016</v>
+        <v>2.753141866710467</v>
       </c>
       <c r="G159" t="n">
-        <v>2.7617617434860717</v>
+        <v>2.741426371156803</v>
       </c>
       <c r="H159" t="n">
-        <v>2.6405400823225333</v>
+        <v>2.5593906798319397</v>
       </c>
       <c r="I159" t="n">
-        <v>2.720307881129185</v>
+        <v>2.773460259207551</v>
       </c>
       <c r="J159" t="n">
-        <v>2.5487772876732553</v>
+        <v>2.801022596427079</v>
       </c>
       <c r="K159" t="n">
-        <v>2.746529571433539</v>
+        <v>2.706870576113688</v>
       </c>
       <c r="L159" t="n">
-        <v>2.772883094178016</v>
+        <v>2.8362555840774264</v>
       </c>
     </row>
     <row r="160">
@@ -6300,34 +6300,34 @@
         <v>2.199060447166679</v>
       </c>
       <c r="C164" t="n">
-        <v>2.2654916339104796</v>
+        <v>2.2515979526342105</v>
       </c>
       <c r="D164" t="n">
-        <v>2.1226397430896498</v>
+        <v>2.1206467451155615</v>
       </c>
       <c r="E164" t="n">
-        <v>2.2873292429633363</v>
+        <v>2.285858420794886</v>
       </c>
       <c r="F164" t="n">
-        <v>2.309276643004283</v>
+        <v>2.292836009213856</v>
       </c>
       <c r="G164" t="n">
-        <v>2.300014703528548</v>
+        <v>2.283079261697129</v>
       </c>
       <c r="H164" t="n">
-        <v>2.199060447166679</v>
+        <v>2.131478651108006</v>
       </c>
       <c r="I164" t="n">
-        <v>2.2654916339104796</v>
+        <v>2.309757310120997</v>
       </c>
       <c r="J164" t="n">
-        <v>2.1226397430896498</v>
+        <v>2.3327114194021648</v>
       </c>
       <c r="K164" t="n">
-        <v>2.2873292429633363</v>
+        <v>2.254300951302055</v>
       </c>
       <c r="L164" t="n">
-        <v>2.309276643004283</v>
+        <v>2.3620537005877784</v>
       </c>
     </row>
     <row r="165">
@@ -6338,34 +6338,34 @@
         <v>4.847938258101806</v>
       </c>
       <c r="C165" t="n">
-        <v>4.994389117222717</v>
+        <v>4.963759805012641</v>
       </c>
       <c r="D165" t="n">
-        <v>4.679465010591286</v>
+        <v>4.675071347315975</v>
       </c>
       <c r="E165" t="n">
-        <v>5.042531213784554</v>
+        <v>5.039288713074544</v>
       </c>
       <c r="F165" t="n">
-        <v>5.090915350046682</v>
+        <v>5.054671154193521</v>
       </c>
       <c r="G165" t="n">
-        <v>5.070496943273693</v>
+        <v>5.033161918455174</v>
       </c>
       <c r="H165" t="n">
-        <v>4.847938258101806</v>
+        <v>4.69895082345161</v>
       </c>
       <c r="I165" t="n">
-        <v>4.994389117222717</v>
+        <v>5.091975004640322</v>
       </c>
       <c r="J165" t="n">
-        <v>4.679465010591286</v>
+        <v>5.142578481551653</v>
       </c>
       <c r="K165" t="n">
-        <v>5.042531213784554</v>
+        <v>4.969718700171855</v>
       </c>
       <c r="L165" t="n">
-        <v>5.090915350046682</v>
+        <v>5.20726500152567</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9505440773572057</v>
+        <v>0.9601455326840463</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9662049761032</v>
+        <v>0.9703142982566517</v>
       </c>
       <c r="D167" t="n">
-        <v>1.063435658300694</v>
+        <v>1.0812073609439632</v>
       </c>
       <c r="E167" t="n">
-        <v>1.044769969054501</v>
+        <v>1.0633743744676825</v>
       </c>
       <c r="F167" t="n">
-        <v>1.0485783652592755</v>
+        <v>1.0582029490806353</v>
       </c>
       <c r="G167" t="n">
-        <v>0.9768416088403581</v>
+        <v>0.9879363508511092</v>
       </c>
       <c r="H167" t="n">
-        <v>0.9505440773572057</v>
+        <v>1.0705681744109494</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9662049761032</v>
+        <v>1.059491084101854</v>
       </c>
       <c r="J167" t="n">
-        <v>1.063435658300694</v>
+        <v>1.094807453154642</v>
       </c>
       <c r="K167" t="n">
-        <v>1.044769969054501</v>
+        <v>1.0627251832267948</v>
       </c>
       <c r="L167" t="n">
-        <v>1.0485783652592755</v>
+        <v>0.9654707989394791</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.3143960072212733</v>
+        <v>2.268566383315901</v>
       </c>
       <c r="C168" t="n">
-        <v>2.162755163009849</v>
+        <v>2.0961905677220902</v>
       </c>
       <c r="D168" t="n">
-        <v>2.377015254108697</v>
+        <v>2.3243736752771156</v>
       </c>
       <c r="E168" t="n">
-        <v>2.0791193350517854</v>
+        <v>2.00606772452461</v>
       </c>
       <c r="F168" t="n">
-        <v>2.136541056458087</v>
+        <v>2.106706574622121</v>
       </c>
       <c r="G168" t="n">
-        <v>2.2604918951271147</v>
+        <v>2.212976311987335</v>
       </c>
       <c r="H168" t="n">
-        <v>2.3143960072212733</v>
+        <v>2.084628568221423</v>
       </c>
       <c r="I168" t="n">
-        <v>2.162755163009849</v>
+        <v>2.1897054429322336</v>
       </c>
       <c r="J168" t="n">
-        <v>2.377015254108697</v>
+        <v>2.3073452947595365</v>
       </c>
       <c r="K168" t="n">
-        <v>2.0791193350517854</v>
+        <v>2.3770010023042265</v>
       </c>
       <c r="L168" t="n">
-        <v>2.136541056458087</v>
+        <v>2.3087547921335547</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.3114977016143388</v>
+        <v>2.288611585756771</v>
       </c>
       <c r="C171" t="n">
-        <v>2.1218228681036915</v>
+        <v>2.117251316641254</v>
       </c>
       <c r="D171" t="n">
-        <v>2.2361071078852293</v>
+        <v>2.2117057501803656</v>
       </c>
       <c r="E171" t="n">
-        <v>2.1539517004385362</v>
+        <v>2.166517663605056</v>
       </c>
       <c r="F171" t="n">
-        <v>2.3097466756901976</v>
+        <v>2.3234352558859075</v>
       </c>
       <c r="G171" t="n">
-        <v>2.4056746983090433</v>
+        <v>2.400883096833701</v>
       </c>
       <c r="H171" t="n">
-        <v>2.3114977016143388</v>
+        <v>2.3305275476858776</v>
       </c>
       <c r="I171" t="n">
-        <v>2.1218228681036915</v>
+        <v>2.3477270149605975</v>
       </c>
       <c r="J171" t="n">
-        <v>2.2361071078852293</v>
+        <v>2.127872979479425</v>
       </c>
       <c r="K171" t="n">
-        <v>2.1539517004385362</v>
+        <v>2.117251316641254</v>
       </c>
       <c r="L171" t="n">
-        <v>2.3097466756901976</v>
+        <v>2.320610410667716</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.0657700867939761</v>
+        <v>1.0765354412060364</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9783160678554778</v>
+        <v>0.9959296258437682</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0310094899887068</v>
+        <v>1.0403598585301372</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9931298175737588</v>
+        <v>1.0191039245737767</v>
       </c>
       <c r="F175" t="n">
-        <v>1.0649627353309628</v>
+        <v>1.0929160779729727</v>
       </c>
       <c r="G175" t="n">
-        <v>1.1091925941454706</v>
+        <v>1.129346613474967</v>
       </c>
       <c r="H175" t="n">
-        <v>1.0657700867939761</v>
+        <v>1.0962522069734373</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9783160678554778</v>
+        <v>1.1043426300956192</v>
       </c>
       <c r="J175" t="n">
-        <v>1.0310094899887068</v>
+        <v>1.0009259286506733</v>
       </c>
       <c r="K175" t="n">
-        <v>0.9931298175737588</v>
+        <v>0.9959296258437682</v>
       </c>
       <c r="L175" t="n">
-        <v>1.0649627353309628</v>
+        <v>1.091587304662451</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.3088590783449534</v>
+        <v>1.3220798771161146</v>
       </c>
       <c r="C176" t="n">
-        <v>1.201457877988753</v>
+        <v>1.2230888709773804</v>
       </c>
       <c r="D176" t="n">
-        <v>1.2661700187991678</v>
+        <v>1.2776530909016486</v>
       </c>
       <c r="E176" t="n">
-        <v>1.2196504610264587</v>
+        <v>1.2515489409801832</v>
       </c>
       <c r="F176" t="n">
-        <v>1.3078675799862793</v>
+        <v>1.3421967347828285</v>
       </c>
       <c r="G176" t="n">
-        <v>1.3621857232336936</v>
+        <v>1.3869366254136404</v>
       </c>
       <c r="H176" t="n">
-        <v>1.3088590783449534</v>
+        <v>1.3462937935977586</v>
       </c>
       <c r="I176" t="n">
-        <v>1.201457877988753</v>
+        <v>1.3562295422947162</v>
       </c>
       <c r="J176" t="n">
-        <v>1.2661700187991678</v>
+        <v>1.229224768736202</v>
       </c>
       <c r="K176" t="n">
-        <v>1.2196504610264587</v>
+        <v>1.2230888709773804</v>
       </c>
       <c r="L176" t="n">
-        <v>1.3078675799862793</v>
+        <v>1.3405648846942502</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>4.847643917177681</v>
+        <v>4.8001179964210365</v>
       </c>
       <c r="C177" t="n">
-        <v>4.123173374484558</v>
+        <v>4.051054996272795</v>
       </c>
       <c r="D177" t="n">
-        <v>4.746787585430882</v>
+        <v>4.645275482177951</v>
       </c>
       <c r="E177" t="n">
-        <v>4.773749447194091</v>
+        <v>4.7404892030790124</v>
       </c>
       <c r="F177" t="n">
-        <v>4.356115555716903</v>
+        <v>4.233049148190063</v>
       </c>
       <c r="G177" t="n">
-        <v>4.135584474664006</v>
+        <v>4.132207698574573</v>
       </c>
       <c r="H177" t="n">
-        <v>4.847643917177681</v>
+        <v>4.581145027736397</v>
       </c>
       <c r="I177" t="n">
-        <v>4.123173374484558</v>
+        <v>4.254285182134682</v>
       </c>
       <c r="J177" t="n">
-        <v>4.746787585430882</v>
+        <v>4.575652048238687</v>
       </c>
       <c r="K177" t="n">
-        <v>4.773749447194091</v>
+        <v>4.309535639578326</v>
       </c>
       <c r="L177" t="n">
-        <v>4.356115555716903</v>
+        <v>4.468886386891101</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.624509445916031</v>
+        <v>2.6512901545478273</v>
       </c>
       <c r="C178" t="n">
-        <v>2.91320404740453</v>
+        <v>2.920144257828922</v>
       </c>
       <c r="D178" t="n">
-        <v>2.607582763901805</v>
+        <v>2.6366663813494218</v>
       </c>
       <c r="E178" t="n">
-        <v>2.6512072905408375</v>
+        <v>2.6645909421711145</v>
       </c>
       <c r="F178" t="n">
-        <v>2.90030161790291</v>
+        <v>2.9398992322769537</v>
       </c>
       <c r="G178" t="n">
-        <v>2.8635957960197436</v>
+        <v>2.865872991651628</v>
       </c>
       <c r="H178" t="n">
-        <v>2.624509445916031</v>
+        <v>2.588130022648533</v>
       </c>
       <c r="I178" t="n">
-        <v>2.91320404740453</v>
+        <v>2.869313415315889</v>
       </c>
       <c r="J178" t="n">
-        <v>2.607582763901805</v>
+        <v>2.7695690323207827</v>
       </c>
       <c r="K178" t="n">
-        <v>2.6512072905408375</v>
+        <v>2.6512901545478273</v>
       </c>
       <c r="L178" t="n">
-        <v>2.90030161790291</v>
+        <v>2.91836150650462</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>2.674677940015607</v>
+        <v>2.7019705720565828</v>
       </c>
       <c r="C179" t="n">
-        <v>2.968891048375511</v>
+        <v>2.9759639235560797</v>
       </c>
       <c r="D179" t="n">
-        <v>2.6574276980507485</v>
+        <v>2.6870672598835474</v>
       </c>
       <c r="E179" t="n">
-        <v>2.7018861240726513</v>
+        <v>2.715525609283138</v>
       </c>
       <c r="F179" t="n">
-        <v>2.955741984037301</v>
+        <v>2.9960965218379965</v>
       </c>
       <c r="G179" t="n">
-        <v>2.918334516438425</v>
+        <v>2.9206552415290434</v>
       </c>
       <c r="H179" t="n">
-        <v>2.674677940015607</v>
+        <v>2.637603110265811</v>
       </c>
       <c r="I179" t="n">
-        <v>2.968891048375511</v>
+        <v>2.9241614301973393</v>
       </c>
       <c r="J179" t="n">
-        <v>2.6574276980507485</v>
+        <v>2.822510395466785</v>
       </c>
       <c r="K179" t="n">
-        <v>2.7018861240726513</v>
+        <v>2.7019705720565828</v>
       </c>
       <c r="L179" t="n">
-        <v>2.955741984037301</v>
+        <v>2.9741470942636328</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>3.035399531455762</v>
+        <v>3.0663729960624537</v>
       </c>
       <c r="C184" t="n">
-        <v>3.3692918172905886</v>
+        <v>3.377318578826229</v>
       </c>
       <c r="D184" t="n">
-        <v>3.0158228281845916</v>
+        <v>3.0494597422794927</v>
       </c>
       <c r="E184" t="n">
-        <v>3.0662771589648266</v>
+        <v>3.081756139218041</v>
       </c>
       <c r="F184" t="n">
-        <v>3.3543693987316456</v>
+        <v>3.400166368639592</v>
       </c>
       <c r="G184" t="n">
-        <v>3.311916956916572</v>
+        <v>3.3145506675952703</v>
       </c>
       <c r="H184" t="n">
-        <v>3.035399531455762</v>
+        <v>2.9933245888364364</v>
       </c>
       <c r="I184" t="n">
-        <v>3.3692918172905886</v>
+        <v>3.3185297199072203</v>
       </c>
       <c r="J184" t="n">
-        <v>3.0158228281845916</v>
+        <v>3.2031694746317396</v>
       </c>
       <c r="K184" t="n">
-        <v>3.0662771589648266</v>
+        <v>3.0663729960624537</v>
       </c>
       <c r="L184" t="n">
-        <v>3.3543693987316456</v>
+        <v>3.375256722069375</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>3.465429717240732</v>
+        <v>3.4307754200683247</v>
       </c>
       <c r="C187" t="n">
-        <v>3.8466250879649655</v>
+        <v>3.7786732340963782</v>
       </c>
       <c r="D187" t="n">
-        <v>3.443079549304526</v>
+        <v>3.4118522246754384</v>
       </c>
       <c r="E187" t="n">
-        <v>3.5006818304663283</v>
+        <v>3.447986669152944</v>
       </c>
       <c r="F187" t="n">
-        <v>3.829588585128562</v>
+        <v>3.804236215441189</v>
       </c>
       <c r="G187" t="n">
-        <v>3.781121834076243</v>
+        <v>3.708446093661498</v>
       </c>
       <c r="H187" t="n">
-        <v>3.465429717240732</v>
+        <v>3.349046067407062</v>
       </c>
       <c r="I187" t="n">
-        <v>3.8466250879649655</v>
+        <v>3.7128980096171023</v>
       </c>
       <c r="J187" t="n">
-        <v>3.443079549304526</v>
+        <v>3.583828553796695</v>
       </c>
       <c r="K187" t="n">
-        <v>3.5006818304663283</v>
+        <v>3.4307754200683247</v>
       </c>
       <c r="L187" t="n">
-        <v>3.829588585128562</v>
+        <v>3.776366349875118</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>1.7381426801815947</v>
+        <v>1.7558788299793662</v>
       </c>
       <c r="C195" t="n">
-        <v>1.7318442586917981</v>
+        <v>1.7505353166448128</v>
       </c>
       <c r="D195" t="n">
-        <v>1.7355002791313876</v>
+        <v>1.7569514507984396</v>
       </c>
       <c r="E195" t="n">
-        <v>1.71565105330535</v>
+        <v>1.7263682622250849</v>
       </c>
       <c r="F195" t="n">
-        <v>1.5297274945042663</v>
+        <v>1.5571897812774904</v>
       </c>
       <c r="G195" t="n">
-        <v>1.7506112128873024</v>
+        <v>1.78641585412982</v>
       </c>
       <c r="H195" t="n">
-        <v>1.7381426801815947</v>
+        <v>1.6840644815016</v>
       </c>
       <c r="I195" t="n">
-        <v>1.7318442586917981</v>
+        <v>1.5863924570039976</v>
       </c>
       <c r="J195" t="n">
-        <v>1.7355002791313876</v>
+        <v>1.5951910838075203</v>
       </c>
       <c r="K195" t="n">
-        <v>1.71565105330535</v>
+        <v>1.7242982763563803</v>
       </c>
       <c r="L195" t="n">
-        <v>1.5297274945042663</v>
+        <v>1.6031937152011042</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>3.1143206298693435</v>
+        <v>3.052650914426386</v>
       </c>
       <c r="C200" t="n">
-        <v>2.910268165215532</v>
+        <v>2.8206968508524097</v>
       </c>
       <c r="D200" t="n">
-        <v>3.1985829651827054</v>
+        <v>3.127746879036445</v>
       </c>
       <c r="E200" t="n">
-        <v>2.797725288545637</v>
+        <v>2.699424852060218</v>
       </c>
       <c r="F200" t="n">
-        <v>2.874993677801529</v>
+        <v>2.834847504902291</v>
       </c>
       <c r="G200" t="n">
-        <v>3.0417856411267805</v>
+        <v>2.97784724840973</v>
       </c>
       <c r="H200" t="n">
-        <v>3.1143206298693435</v>
+        <v>2.8051386778106675</v>
       </c>
       <c r="I200" t="n">
-        <v>2.910268165215532</v>
+        <v>2.9465332695801933</v>
       </c>
       <c r="J200" t="n">
-        <v>3.1985829651827054</v>
+        <v>3.104832979870661</v>
       </c>
       <c r="K200" t="n">
-        <v>2.797725288545637</v>
+        <v>3.1985637875274833</v>
       </c>
       <c r="L200" t="n">
-        <v>2.874993677801529</v>
+        <v>3.10672964177984</v>
       </c>
     </row>
     <row r="201">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8231633005403155</v>
+        <v>0.831562926056033</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7577558276586664</v>
+        <v>0.7714612578176538</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8389379643173445</v>
+        <v>0.8402570035880086</v>
       </c>
       <c r="E208" t="n">
-        <v>0.797947913306382</v>
+        <v>0.7999870522970156</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8301740131703235</v>
+        <v>0.819099452862521</v>
       </c>
       <c r="G208" t="n">
-        <v>0.8321563811456814</v>
+        <v>0.820082765503807</v>
       </c>
       <c r="H208" t="n">
-        <v>0.8231633005403155</v>
+        <v>0.8486073835175844</v>
       </c>
       <c r="I208" t="n">
-        <v>0.7577558276586664</v>
+        <v>0.8305519073287654</v>
       </c>
       <c r="J208" t="n">
-        <v>0.8389379643173445</v>
+        <v>0.8402570035880086</v>
       </c>
       <c r="K208" t="n">
-        <v>0.797947913306382</v>
+        <v>0.7397173188288221</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8301740131703235</v>
+        <v>0.7754017518394616</v>
       </c>
     </row>
     <row r="209">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4031820247544402</v>
+        <v>0.40738183751229895</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3711457115062856</v>
+        <v>0.3779380909510728</v>
       </c>
       <c r="D213" t="n">
-        <v>0.41090839068604623</v>
+        <v>0.4116410573133173</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3908316310072075</v>
+        <v>0.3919128488525783</v>
       </c>
       <c r="F213" t="n">
-        <v>0.4066158431854645</v>
+        <v>0.40127599458416424</v>
       </c>
       <c r="G213" t="n">
-        <v>0.4075867989284969</v>
+        <v>0.4017577184538852</v>
       </c>
       <c r="H213" t="n">
-        <v>0.4031820247544402</v>
+        <v>0.4157319000060893</v>
       </c>
       <c r="I213" t="n">
-        <v>0.3711457115062856</v>
+        <v>0.4068865404590416</v>
       </c>
       <c r="J213" t="n">
-        <v>0.41090839068604623</v>
+        <v>0.4116410573133173</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3908316310072075</v>
+        <v>0.362386767305029</v>
       </c>
       <c r="L213" t="n">
-        <v>0.4066158431854645</v>
+        <v>0.3798685349920594</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8231633005403155</v>
+        <v>0.831562926056033</v>
       </c>
       <c r="C214" t="n">
-        <v>0.7577558276586664</v>
+        <v>0.7714612578176538</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8389379643173445</v>
+        <v>0.8402570035880086</v>
       </c>
       <c r="E214" t="n">
-        <v>0.797947913306382</v>
+        <v>0.7999870522970156</v>
       </c>
       <c r="F214" t="n">
-        <v>0.8301740131703235</v>
+        <v>0.819099452862521</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8321563811456814</v>
+        <v>0.820082765503807</v>
       </c>
       <c r="H214" t="n">
-        <v>0.8231633005403155</v>
+        <v>0.8486073835175844</v>
       </c>
       <c r="I214" t="n">
-        <v>0.7577558276586664</v>
+        <v>0.8305519073287654</v>
       </c>
       <c r="J214" t="n">
-        <v>0.8389379643173445</v>
+        <v>0.8402570035880086</v>
       </c>
       <c r="K214" t="n">
-        <v>0.797947913306382</v>
+        <v>0.7397173188288221</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8301740131703235</v>
+        <v>0.7754017518394616</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7655346702880681</v>
+        <v>0.742568630179426</v>
       </c>
       <c r="C221" t="n">
-        <v>0.7906355556290358</v>
+        <v>0.7716488139521384</v>
       </c>
       <c r="D221" t="n">
-        <v>0.7683886349522288</v>
+        <v>0.7574441258315547</v>
       </c>
       <c r="E221" t="n">
-        <v>0.8715060618031414</v>
+        <v>0.8504555015697102</v>
       </c>
       <c r="F221" t="n">
-        <v>0.8605090968422486</v>
+        <v>0.8546116676200814</v>
       </c>
       <c r="G221" t="n">
-        <v>0.8067952011291896</v>
+        <v>0.7899487860657027</v>
       </c>
       <c r="H221" t="n">
-        <v>0.7655346702880681</v>
+        <v>0.8105442061483475</v>
       </c>
       <c r="I221" t="n">
-        <v>0.7906355556290358</v>
+        <v>0.8540899262444187</v>
       </c>
       <c r="J221" t="n">
-        <v>0.7683886349522288</v>
+        <v>0.7759286186797579</v>
       </c>
       <c r="K221" t="n">
-        <v>0.8715060618031414</v>
+        <v>0.8603931736575184</v>
       </c>
       <c r="L221" t="n">
-        <v>0.8605090968422486</v>
+        <v>0.8514907486520511</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.1236850896277693</v>
+        <v>1.1353901426447253</v>
       </c>
       <c r="C222" t="n">
-        <v>1.1605292610138778</v>
+        <v>1.1798538496476143</v>
       </c>
       <c r="D222" t="n">
-        <v>1.1278742631086192</v>
+        <v>1.1581348297267804</v>
       </c>
       <c r="E222" t="n">
-        <v>1.2792345078243166</v>
+        <v>1.3003495623117125</v>
       </c>
       <c r="F222" t="n">
-        <v>1.2630926842893166</v>
+        <v>1.3067043553544055</v>
       </c>
       <c r="G222" t="n">
-        <v>1.1842490916197999</v>
+        <v>1.20783457372344</v>
       </c>
       <c r="H222" t="n">
-        <v>1.1236850896277693</v>
+        <v>1.2393250461122505</v>
       </c>
       <c r="I222" t="n">
-        <v>1.1605292610138778</v>
+        <v>1.305906610888962</v>
       </c>
       <c r="J222" t="n">
-        <v>1.1278742631086192</v>
+        <v>1.1863976866785557</v>
       </c>
       <c r="K222" t="n">
-        <v>1.2792345078243166</v>
+        <v>1.3155442991626443</v>
       </c>
       <c r="L222" t="n">
-        <v>1.2630926842893166</v>
+        <v>1.3019324588746977</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.1236850896277693</v>
+        <v>1.1353901426447253</v>
       </c>
       <c r="C224" t="n">
-        <v>1.1605292610138778</v>
+        <v>1.1798538496476143</v>
       </c>
       <c r="D224" t="n">
-        <v>1.1278742631086192</v>
+        <v>1.1581348297267804</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2792345078243166</v>
+        <v>1.3003495623117125</v>
       </c>
       <c r="F224" t="n">
-        <v>1.2630926842893166</v>
+        <v>1.3067043553544055</v>
       </c>
       <c r="G224" t="n">
-        <v>1.1842490916197999</v>
+        <v>1.20783457372344</v>
       </c>
       <c r="H224" t="n">
-        <v>1.1236850896277693</v>
+        <v>1.2393250461122505</v>
       </c>
       <c r="I224" t="n">
-        <v>1.1605292610138778</v>
+        <v>1.305906610888962</v>
       </c>
       <c r="J224" t="n">
-        <v>1.1278742631086192</v>
+        <v>1.1863976866785557</v>
       </c>
       <c r="K224" t="n">
-        <v>1.2792345078243166</v>
+        <v>1.3155442991626443</v>
       </c>
       <c r="L224" t="n">
-        <v>1.2630926842893166</v>
+        <v>1.3019324588746977</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.796869699405172</v>
+        <v>3.7596454866659057</v>
       </c>
       <c r="C230" t="n">
-        <v>3.2294352304839022</v>
+        <v>3.172949215900161</v>
       </c>
       <c r="D230" t="n">
-        <v>3.717874963705706</v>
+        <v>3.6383666013859868</v>
       </c>
       <c r="E230" t="n">
-        <v>3.7389925783072093</v>
+        <v>3.7129418173121884</v>
       </c>
       <c r="F230" t="n">
-        <v>3.411884916299392</v>
+        <v>3.315494355908284</v>
       </c>
       <c r="G230" t="n">
-        <v>3.2391561033476552</v>
+        <v>3.236511276492652</v>
       </c>
       <c r="H230" t="n">
-        <v>3.796869699405172</v>
+        <v>3.5881370499918774</v>
       </c>
       <c r="I230" t="n">
-        <v>3.2294352304839022</v>
+        <v>3.332127271856204</v>
       </c>
       <c r="J230" t="n">
-        <v>3.717874963705706</v>
+        <v>3.583834727508907</v>
       </c>
       <c r="K230" t="n">
-        <v>3.7389925783072093</v>
+        <v>3.3754016524274943</v>
       </c>
       <c r="L230" t="n">
-        <v>3.411884916299392</v>
+        <v>3.5002115671791736</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.7708547412489377</v>
+        <v>3.7338855771190462</v>
       </c>
       <c r="C238" t="n">
-        <v>3.207308155013688</v>
+        <v>3.15120916485326</v>
       </c>
       <c r="D238" t="n">
-        <v>3.6924012526573473</v>
+        <v>3.6134376566537183</v>
       </c>
       <c r="E238" t="n">
-        <v>3.7133741759990206</v>
+        <v>3.687501906632862</v>
       </c>
       <c r="F238" t="n">
-        <v>3.38850775290995</v>
+        <v>3.2927776303515186</v>
       </c>
       <c r="G238" t="n">
-        <v>3.216962423510999</v>
+        <v>3.2143357181785683</v>
       </c>
       <c r="H238" t="n">
-        <v>3.7708547412489377</v>
+        <v>3.563552262363006</v>
       </c>
       <c r="I238" t="n">
-        <v>3.207308155013688</v>
+        <v>3.3092965827856347</v>
       </c>
       <c r="J238" t="n">
-        <v>3.6924012526573473</v>
+        <v>3.559279418041845</v>
       </c>
       <c r="K238" t="n">
-        <v>3.7133741759990206</v>
+        <v>3.3522744608986033</v>
       </c>
       <c r="L238" t="n">
-        <v>3.38850775290995</v>
+        <v>3.476229217331245</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.14412499686928</v>
+        <v>2.1874406533716897</v>
       </c>
       <c r="C242" t="n">
-        <v>2.1402532877614253</v>
+        <v>2.209179193426762</v>
       </c>
       <c r="D242" t="n">
-        <v>2.176568112757564</v>
+        <v>2.236967610178093</v>
       </c>
       <c r="E242" t="n">
-        <v>2.1027325774865786</v>
+        <v>2.132361211742426</v>
       </c>
       <c r="F242" t="n">
-        <v>2.039502237987996</v>
+        <v>2.0826059085411583</v>
       </c>
       <c r="G242" t="n">
-        <v>1.9088122511205476</v>
+        <v>1.9618193605483463</v>
       </c>
       <c r="H242" t="n">
-        <v>2.14412499686928</v>
+        <v>1.9727002219223277</v>
       </c>
       <c r="I242" t="n">
-        <v>2.1402532877614253</v>
+        <v>2.172741906646117</v>
       </c>
       <c r="J242" t="n">
-        <v>2.176568112757564</v>
+        <v>2.16480736551357</v>
       </c>
       <c r="K242" t="n">
-        <v>2.1027325774865786</v>
+        <v>2.0607059681177025</v>
       </c>
       <c r="L242" t="n">
-        <v>2.039502237987996</v>
+        <v>1.8878866770502418</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>1.6887087094393392</v>
+        <v>1.6549345352505522</v>
       </c>
       <c r="C243" t="n">
-        <v>1.6856593588182716</v>
+        <v>1.671381089184536</v>
       </c>
       <c r="D243" t="n">
-        <v>1.7142608448987415</v>
+        <v>1.6924047500965826</v>
       </c>
       <c r="E243" t="n">
-        <v>1.6561081198196121</v>
+        <v>1.6132635212305453</v>
       </c>
       <c r="F243" t="n">
-        <v>1.6063080264631278</v>
+        <v>1.5756205481730954</v>
       </c>
       <c r="G243" t="n">
-        <v>1.5033768450339562</v>
+        <v>1.4842380325565507</v>
       </c>
       <c r="H243" t="n">
-        <v>1.6887087094393392</v>
+        <v>1.4924700790961083</v>
       </c>
       <c r="I243" t="n">
-        <v>1.6856593588182716</v>
+        <v>1.6438140216295054</v>
       </c>
       <c r="J243" t="n">
-        <v>1.7142608448987415</v>
+        <v>1.637811049104798</v>
       </c>
       <c r="K243" t="n">
-        <v>1.6561081198196121</v>
+        <v>1.5590518848492048</v>
       </c>
       <c r="L243" t="n">
-        <v>1.6063080264631278</v>
+        <v>1.4283033716476172</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>0.5332166621634186</v>
+        <v>0.538713741154794</v>
       </c>
       <c r="C245" t="n">
-        <v>0.5322538172684743</v>
+        <v>0.5440674179378694</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5412848531454699</v>
+        <v>0.5509110330667202</v>
       </c>
       <c r="E245" t="n">
-        <v>0.5229228930341284</v>
+        <v>0.5251490064886984</v>
       </c>
       <c r="F245" t="n">
-        <v>0.5071983104542307</v>
+        <v>0.5128954783810759</v>
       </c>
       <c r="G245" t="n">
-        <v>0.47469737012780694</v>
+        <v>0.48314867219911894</v>
       </c>
       <c r="H245" t="n">
-        <v>0.5332166621634186</v>
+        <v>0.4858283652590103</v>
       </c>
       <c r="I245" t="n">
-        <v>0.5322538172684743</v>
+        <v>0.5350937952483233</v>
       </c>
       <c r="J245" t="n">
-        <v>0.5412848531454699</v>
+        <v>0.5331397096226071</v>
       </c>
       <c r="K245" t="n">
-        <v>0.5229228930341284</v>
+        <v>0.5075020525898883</v>
       </c>
       <c r="L245" t="n">
-        <v>0.5071983104542307</v>
+        <v>0.4649408399274247</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8343986460643114</v>
+        <v>0.8093666866823821</v>
       </c>
       <c r="C250" t="n">
-        <v>0.8328919480675687</v>
+        <v>0.8174100821045921</v>
       </c>
       <c r="D250" t="n">
-        <v>0.847024072292175</v>
+        <v>0.8276919696426638</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8182905466108363</v>
+        <v>0.7889869497020537</v>
       </c>
       <c r="F250" t="n">
-        <v>0.7936840942142458</v>
+        <v>0.7705771771512804</v>
       </c>
       <c r="G250" t="n">
-        <v>0.7428253297972522</v>
+        <v>0.72588540094512</v>
       </c>
       <c r="H250" t="n">
-        <v>0.8343986460643114</v>
+        <v>0.729911387526715</v>
       </c>
       <c r="I250" t="n">
-        <v>0.8328919480675687</v>
+        <v>0.8039280587052878</v>
       </c>
       <c r="J250" t="n">
-        <v>0.847024072292175</v>
+        <v>0.8009922289917384</v>
       </c>
       <c r="K250" t="n">
-        <v>0.8182905466108363</v>
+        <v>0.7624740625859765</v>
       </c>
       <c r="L250" t="n">
-        <v>0.7936840942142458</v>
+        <v>0.6985298468695553</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.9673880191529745</v>
+        <v>1.9872606254070448</v>
       </c>
       <c r="C253" t="n">
-        <v>1.9940834585607237</v>
+        <v>2.0007045786539592</v>
       </c>
       <c r="D253" t="n">
-        <v>1.765360680408768</v>
+        <v>1.8042959749459515</v>
       </c>
       <c r="E253" t="n">
-        <v>1.7752582648454436</v>
+        <v>1.7943439841858508</v>
       </c>
       <c r="F253" t="n">
-        <v>1.7367823670082423</v>
+        <v>1.7267227400808585</v>
       </c>
       <c r="G253" t="n">
-        <v>1.7938433123208568</v>
+        <v>1.8042959749459515</v>
       </c>
       <c r="H253" t="n">
-        <v>1.9673880191529745</v>
+        <v>2.0007045786539592</v>
       </c>
       <c r="I253" t="n">
-        <v>1.9940834585607237</v>
+        <v>1.9048193011900114</v>
       </c>
       <c r="J253" t="n">
-        <v>1.765360680408768</v>
+        <v>1.9775961363092573</v>
       </c>
       <c r="K253" t="n">
-        <v>1.7752582648454436</v>
+        <v>1.8133476276031086</v>
       </c>
       <c r="L253" t="n">
-        <v>1.7367823670082423</v>
+        <v>1.9503271245787992</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.9595498465103467</v>
+        <v>1.9795452531073914</v>
       </c>
       <c r="C254" t="n">
-        <v>1.9861389299472294</v>
+        <v>1.9929370113361218</v>
       </c>
       <c r="D254" t="n">
-        <v>1.758327394826645</v>
+        <v>1.7972909475190013</v>
       </c>
       <c r="E254" t="n">
-        <v>1.7681855467900085</v>
+        <v>1.7873775945263155</v>
       </c>
       <c r="F254" t="n">
-        <v>1.7298629388615043</v>
+        <v>1.7200188842163198</v>
       </c>
       <c r="G254" t="n">
-        <v>1.786696550503202</v>
+        <v>1.7972909475190013</v>
       </c>
       <c r="H254" t="n">
-        <v>1.9595498465103467</v>
+        <v>1.9929370113361218</v>
       </c>
       <c r="I254" t="n">
-        <v>1.9861389299472294</v>
+        <v>1.8974240004003946</v>
       </c>
       <c r="J254" t="n">
-        <v>1.758327394826645</v>
+        <v>1.9699182855759862</v>
       </c>
       <c r="K254" t="n">
-        <v>1.7681855467900085</v>
+        <v>1.8063074578957325</v>
       </c>
       <c r="L254" t="n">
-        <v>1.7298629388615043</v>
+        <v>1.9427551434909354</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.2260395540263884</v>
+        <v>2.248524802046857</v>
       </c>
       <c r="C260" t="n">
-        <v>2.256244629718244</v>
+        <v>2.2637362252123783</v>
       </c>
       <c r="D260" t="n">
-        <v>1.9974517804600378</v>
+        <v>2.0415058790128757</v>
       </c>
       <c r="E260" t="n">
-        <v>2.0086505954527416</v>
+        <v>2.0302455049241757</v>
       </c>
       <c r="F260" t="n">
-        <v>1.9651162902579973</v>
+        <v>1.953734129128061</v>
       </c>
       <c r="G260" t="n">
-        <v>2.029679009975434</v>
+        <v>2.0415058790128757</v>
       </c>
       <c r="H260" t="n">
-        <v>2.2260395540263884</v>
+        <v>2.2637362252123783</v>
       </c>
       <c r="I260" t="n">
-        <v>2.256244629718244</v>
+        <v>2.155244957498225</v>
       </c>
       <c r="J260" t="n">
-        <v>1.9974517804600378</v>
+        <v>2.2375897273225562</v>
       </c>
       <c r="K260" t="n">
-        <v>2.0086505954527416</v>
+        <v>2.0517475479912273</v>
       </c>
       <c r="L260" t="n">
-        <v>1.9651162902579973</v>
+        <v>2.2067356720369373</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.05413399097670082</v>
+        <v>0.05469207335790393</v>
       </c>
       <c r="C265" t="n">
-        <v>0.05970192784493967</v>
+        <v>0.060608448600083645</v>
       </c>
       <c r="D265" t="n">
-        <v>0.057287992610261636</v>
+        <v>0.05883237683304089</v>
       </c>
       <c r="E265" t="n">
-        <v>0.05910253340303167</v>
+        <v>0.05926656416587832</v>
       </c>
       <c r="F265" t="n">
-        <v>0.05578103183041384</v>
+        <v>0.055832811874555445</v>
       </c>
       <c r="G265" t="n">
-        <v>0.05684220145031454</v>
+        <v>0.05886831600557904</v>
       </c>
       <c r="H265" t="n">
-        <v>0.05413399097670082</v>
+        <v>0.053448382292059296</v>
       </c>
       <c r="I265" t="n">
-        <v>0.05970192784493967</v>
+        <v>0.05441413513091923</v>
       </c>
       <c r="J265" t="n">
-        <v>0.057287992610261636</v>
+        <v>0.052175112797364503</v>
       </c>
       <c r="K265" t="n">
-        <v>0.05910253340303167</v>
+        <v>0.05315357599968876</v>
       </c>
       <c r="L265" t="n">
-        <v>0.05578103183041384</v>
+        <v>0.05926656416587832</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4195806587361742</v>
       </c>
       <c r="C266" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.46496925838203873</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.4513437855077173</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.45467473633736805</v>
       </c>
       <c r="F266" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.42833205155922943</v>
       </c>
       <c r="G266" t="n">
-        <v>0.4360757759623421</v>
+        <v>0.45161949971568505</v>
       </c>
       <c r="H266" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4100394458211591</v>
       </c>
       <c r="I266" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.41744840268504474</v>
       </c>
       <c r="J266" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.40027131635499924</v>
       </c>
       <c r="K266" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.40777778319332375</v>
       </c>
       <c r="L266" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.45467473633736805</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.5731132225152207</v>
+        <v>2.5221604854357116</v>
       </c>
       <c r="C268" t="n">
-        <v>2.4045210455082024</v>
+        <v>2.330515456252132</v>
       </c>
       <c r="D268" t="n">
-        <v>2.6427324284105107</v>
+        <v>2.5842062547898403</v>
       </c>
       <c r="E268" t="n">
-        <v>2.3115358977100593</v>
+        <v>2.2303181353275585</v>
       </c>
       <c r="F268" t="n">
-        <v>2.375376567219136</v>
+        <v>2.3422070061502924</v>
       </c>
       <c r="G268" t="n">
-        <v>2.5131833820105483</v>
+        <v>2.460356218953315</v>
       </c>
       <c r="H268" t="n">
-        <v>2.5731132225152207</v>
+        <v>2.3176609863597473</v>
       </c>
       <c r="I268" t="n">
-        <v>2.4045210455082024</v>
+        <v>2.434483991089859</v>
       </c>
       <c r="J268" t="n">
-        <v>2.6427324284105107</v>
+        <v>2.56527433867389</v>
       </c>
       <c r="K268" t="n">
-        <v>2.3115358977100593</v>
+        <v>2.6427165834529442</v>
       </c>
       <c r="L268" t="n">
-        <v>2.375376567219136</v>
+        <v>2.56684139820859</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.2587419762085228</v>
+        <v>1.2715862820882016</v>
       </c>
       <c r="C269" t="n">
-        <v>1.3882095386490556</v>
+        <v>1.4091415279537298</v>
       </c>
       <c r="D269" t="n">
-        <v>1.3320798952786679</v>
+        <v>1.3678480030182865</v>
       </c>
       <c r="E269" t="n">
-        <v>1.3742722151537234</v>
+        <v>1.377942823389779</v>
       </c>
       <c r="F269" t="n">
-        <v>1.2970395305120876</v>
+        <v>1.2981083603376649</v>
       </c>
       <c r="G269" t="n">
-        <v>1.321714207555965</v>
+        <v>1.3686835858730457</v>
       </c>
       <c r="H269" t="n">
-        <v>1.2587419762085228</v>
+        <v>1.2426705653967782</v>
       </c>
       <c r="I269" t="n">
-        <v>1.3882095386490556</v>
+        <v>1.2651242407903909</v>
       </c>
       <c r="J269" t="n">
-        <v>1.3320798952786679</v>
+        <v>1.2130671526268857</v>
       </c>
       <c r="K269" t="n">
-        <v>1.3742722151537234</v>
+        <v>1.2358163429430324</v>
       </c>
       <c r="L269" t="n">
-        <v>1.2970395305120876</v>
+        <v>1.377942823389779</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4195806587361742</v>
       </c>
       <c r="C272" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.46496925838203873</v>
       </c>
       <c r="D272" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.4513437855077173</v>
       </c>
       <c r="E272" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.45467473633736805</v>
       </c>
       <c r="F272" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.42833205155922943</v>
       </c>
       <c r="G272" t="n">
-        <v>0.4360757759623421</v>
+        <v>0.45161949971568505</v>
       </c>
       <c r="H272" t="n">
-        <v>0.4152992234429479</v>
+        <v>0.4100394458211591</v>
       </c>
       <c r="I272" t="n">
-        <v>0.45801471173115094</v>
+        <v>0.41744840268504474</v>
       </c>
       <c r="J272" t="n">
-        <v>0.4394957477620094</v>
+        <v>0.40027131635499924</v>
       </c>
       <c r="K272" t="n">
-        <v>0.4534163430949359</v>
+        <v>0.40777778319332375</v>
       </c>
       <c r="L272" t="n">
-        <v>0.4279348110873214</v>
+        <v>0.45467473633736805</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7834690276824974</v>
+        <v>0.7914636095976249</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7191798193122524</v>
+        <v>0.7322026069968098</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7579158137969286</v>
+        <v>0.7648674975254682</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7300697046936546</v>
+        <v>0.7492402384771059</v>
       </c>
       <c r="F274" t="n">
-        <v>0.7828755273829835</v>
+        <v>0.8035065739133586</v>
       </c>
       <c r="G274" t="n">
-        <v>0.8153897862361082</v>
+        <v>0.8302901260606812</v>
       </c>
       <c r="H274" t="n">
-        <v>0.7834690276824974</v>
+        <v>0.8059592796950029</v>
       </c>
       <c r="I274" t="n">
-        <v>0.7191798193122524</v>
+        <v>0.8119073193436377</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7579158137969286</v>
+        <v>0.735875864469658</v>
       </c>
       <c r="K274" t="n">
-        <v>0.7300697046936546</v>
+        <v>0.7322026069968098</v>
       </c>
       <c r="L274" t="n">
-        <v>0.7828755273829835</v>
+        <v>0.8025296662515872</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5.878263952758375</v>
+        <v>5.995829231813543</v>
       </c>
       <c r="C275" t="n">
-        <v>6.4894320091877224</v>
+        <v>6.6153245049725085</v>
       </c>
       <c r="D275" t="n">
-        <v>6.42500412284998</v>
+        <v>6.4487515836141</v>
       </c>
       <c r="E275" t="n">
-        <v>6.74834845311877</v>
+        <v>6.765105432977617</v>
       </c>
       <c r="F275" t="n">
-        <v>6.635080111922654</v>
+        <v>6.6153245049725085</v>
       </c>
       <c r="G275" t="n">
-        <v>5.902008619292102</v>
+        <v>5.965899965757843</v>
       </c>
       <c r="H275" t="n">
-        <v>5.878263952758375</v>
+        <v>6.073697144665932</v>
       </c>
       <c r="I275" t="n">
-        <v>6.4894320091877224</v>
+        <v>6.68106685848824</v>
       </c>
       <c r="J275" t="n">
-        <v>6.42500412284998</v>
+        <v>6.456493181939578</v>
       </c>
       <c r="K275" t="n">
-        <v>6.74834845311877</v>
+        <v>6.5708721083983725</v>
       </c>
       <c r="L275" t="n">
-        <v>6.635080111922654</v>
+        <v>6.232049618086595</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7640598553279846</v>
+        <v>0.7721025906472266</v>
       </c>
       <c r="C280" t="n">
-        <v>0.848106020903999</v>
+        <v>0.8503976611786045</v>
       </c>
       <c r="D280" t="n">
-        <v>0.7591320779747359</v>
+        <v>0.7678438892176005</v>
       </c>
       <c r="E280" t="n">
-        <v>0.771832260694382</v>
+        <v>0.7759760152755996</v>
       </c>
       <c r="F280" t="n">
-        <v>0.8443498033625733</v>
+        <v>0.8561506591759499</v>
       </c>
       <c r="G280" t="n">
-        <v>0.8336638273599385</v>
+        <v>0.8345929084844051</v>
       </c>
       <c r="H280" t="n">
-        <v>0.7640598553279846</v>
+        <v>0.7537092430230836</v>
       </c>
       <c r="I280" t="n">
-        <v>0.848106020903999</v>
+        <v>0.8355948207117574</v>
       </c>
       <c r="J280" t="n">
-        <v>0.7591320779747359</v>
+        <v>0.8065474920438903</v>
       </c>
       <c r="K280" t="n">
-        <v>0.771832260694382</v>
+        <v>0.7721025906472266</v>
       </c>
       <c r="L280" t="n">
-        <v>0.8443498033625733</v>
+        <v>0.8498784924585713</v>
       </c>
     </row>
     <row r="281">
@@ -10784,34 +10784,34 @@
         <v>4.247668890003477</v>
       </c>
       <c r="C282" t="n">
-        <v>4.689302603753373</v>
+        <v>4.6865424298533815</v>
       </c>
       <c r="D282" t="n">
-        <v>4.642746625552175</v>
+        <v>4.568535964256111</v>
       </c>
       <c r="E282" t="n">
-        <v>4.876397183519592</v>
+        <v>4.792652821528214</v>
       </c>
       <c r="F282" t="n">
-        <v>4.794548798862541</v>
+        <v>4.6865424298533815</v>
       </c>
       <c r="G282" t="n">
-        <v>4.264826928864847</v>
+        <v>4.226465882477696</v>
       </c>
       <c r="H282" t="n">
-        <v>4.247668890003477</v>
+        <v>4.302833421574459</v>
       </c>
       <c r="I282" t="n">
-        <v>4.689302603753373</v>
+        <v>4.733116763275469</v>
       </c>
       <c r="J282" t="n">
-        <v>4.642746625552175</v>
+        <v>4.574020401036192</v>
       </c>
       <c r="K282" t="n">
-        <v>4.876397183519592</v>
+        <v>4.655050695397004</v>
       </c>
       <c r="L282" t="n">
-        <v>4.794548798862541</v>
+        <v>4.415016215479782</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.681242635906275</v>
+        <v>1.613992930470024</v>
       </c>
       <c r="C284" t="n">
-        <v>1.784780763668044</v>
+        <v>1.6934661389234942</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7102296524345417</v>
+        <v>1.6311454740973224</v>
       </c>
       <c r="E284" t="n">
-        <v>1.6140530256964831</v>
+        <v>1.5450647794394252</v>
       </c>
       <c r="F284" t="n">
-        <v>1.8578856438663396</v>
+        <v>1.7520451555811902</v>
       </c>
       <c r="G284" t="n">
-        <v>1.8362124864326608</v>
+        <v>1.7132544889892722</v>
       </c>
       <c r="H284" t="n">
-        <v>1.681242635906275</v>
+        <v>1.701742088060229</v>
       </c>
       <c r="I284" t="n">
-        <v>1.784780763668044</v>
+        <v>1.50825760648819</v>
       </c>
       <c r="J284" t="n">
-        <v>1.7102296524345417</v>
+        <v>1.536542635277795</v>
       </c>
       <c r="K284" t="n">
-        <v>1.6140530256964831</v>
+        <v>1.7132544889892722</v>
       </c>
       <c r="L284" t="n">
-        <v>1.8578856438663396</v>
+        <v>1.5450647794394252</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>4.024390991358708</v>
       </c>
       <c r="C299" t="n">
-        <v>4.27223023819175</v>
+        <v>4.22255249387618</v>
       </c>
       <c r="D299" t="n">
-        <v>4.09377722133606</v>
+        <v>4.0671597921071</v>
       </c>
       <c r="E299" t="n">
-        <v>3.863559201665585</v>
+        <v>3.852522933685263</v>
       </c>
       <c r="F299" t="n">
-        <v>4.4472214113937</v>
+        <v>4.368615628645444</v>
       </c>
       <c r="G299" t="n">
-        <v>4.3953423680791825</v>
+        <v>4.271893514047426</v>
       </c>
       <c r="H299" t="n">
-        <v>4.024390991358708</v>
+        <v>4.243188058333776</v>
       </c>
       <c r="I299" t="n">
-        <v>4.27223023819175</v>
+        <v>3.76074653711877</v>
       </c>
       <c r="J299" t="n">
-        <v>4.09377722133606</v>
+        <v>3.8312734972449576</v>
       </c>
       <c r="K299" t="n">
-        <v>3.863559201665585</v>
+        <v>4.271893514047426</v>
       </c>
       <c r="L299" t="n">
-        <v>4.4472214113937</v>
+        <v>3.852522933685263</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>1.1703492496463974</v>
+        <v>1.1826687154321491</v>
       </c>
       <c r="C302" t="n">
-        <v>1.2424243728605189</v>
+        <v>1.2409034670091375</v>
       </c>
       <c r="D302" t="n">
-        <v>1.1905277368669869</v>
+        <v>1.1952374053905266</v>
       </c>
       <c r="E302" t="n">
-        <v>1.1235771132434471</v>
+        <v>1.1321609552694503</v>
       </c>
       <c r="F302" t="n">
-        <v>1.2933142562469493</v>
+        <v>1.283827800241291</v>
       </c>
       <c r="G302" t="n">
-        <v>1.278227104042829</v>
+        <v>1.255403569277863</v>
       </c>
       <c r="H302" t="n">
-        <v>1.1703492496463974</v>
+        <v>1.246967747682085</v>
       </c>
       <c r="I302" t="n">
-        <v>1.2424243728605189</v>
+        <v>1.105190148191473</v>
       </c>
       <c r="J302" t="n">
-        <v>1.1905277368669869</v>
+        <v>1.1259162728435939</v>
       </c>
       <c r="K302" t="n">
-        <v>1.1235771132434471</v>
+        <v>1.255403569277863</v>
       </c>
       <c r="L302" t="n">
-        <v>1.2933142562469493</v>
+        <v>1.1321609552694503</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.9992063050178768</v>
+        <v>2.019400308098865</v>
       </c>
       <c r="C305" t="n">
-        <v>2.1223259983984186</v>
+        <v>2.1188358251985626</v>
       </c>
       <c r="D305" t="n">
-        <v>2.03367546786761</v>
+        <v>2.040861276874954</v>
       </c>
       <c r="E305" t="n">
-        <v>1.9193095135052696</v>
+        <v>1.9331585862176295</v>
       </c>
       <c r="F305" t="n">
-        <v>2.209256780605965</v>
+        <v>2.19212888742544</v>
       </c>
       <c r="G305" t="n">
-        <v>2.1834847046035626</v>
+        <v>2.143594669841063</v>
       </c>
       <c r="H305" t="n">
-        <v>1.9992063050178768</v>
+        <v>2.1291905509975573</v>
       </c>
       <c r="I305" t="n">
-        <v>2.1223259983984186</v>
+        <v>1.887106081900695</v>
       </c>
       <c r="J305" t="n">
-        <v>2.03367546786761</v>
+        <v>1.9224958254206246</v>
       </c>
       <c r="K305" t="n">
-        <v>1.9193095135052696</v>
+        <v>2.143594669841063</v>
       </c>
       <c r="L305" t="n">
-        <v>2.209256780605965</v>
+        <v>1.9331585862176295</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.8576200219121657</v>
       </c>
       <c r="C310" t="n">
-        <v>3.033604511363232</v>
+        <v>2.9983295798010587</v>
       </c>
       <c r="D310" t="n">
-        <v>2.906889459313759</v>
+        <v>2.887989084360175</v>
       </c>
       <c r="E310" t="n">
-        <v>2.74341736531794</v>
+        <v>2.735580785717331</v>
       </c>
       <c r="F310" t="n">
-        <v>3.1578613942738474</v>
+        <v>3.1020453815897375</v>
       </c>
       <c r="G310" t="n">
-        <v>3.1210233750029706</v>
+        <v>3.0333654119171922</v>
       </c>
       <c r="H310" t="n">
-        <v>2.8576200219121657</v>
+        <v>3.0129823812520367</v>
       </c>
       <c r="I310" t="n">
-        <v>3.033604511363232</v>
+        <v>2.670412647499524</v>
       </c>
       <c r="J310" t="n">
-        <v>2.906889459313759</v>
+        <v>2.7204920890284274</v>
       </c>
       <c r="K310" t="n">
-        <v>2.74341736531794</v>
+        <v>3.0333654119171922</v>
       </c>
       <c r="L310" t="n">
-        <v>3.1578613942738474</v>
+        <v>2.735580785717331</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8710687421818726</v>
+        <v>0.8800488323074589</v>
       </c>
       <c r="C312" t="n">
-        <v>0.7753463216742741</v>
+        <v>0.783800936375699</v>
       </c>
       <c r="D312" t="n">
-        <v>0.811283393241285</v>
+        <v>0.8216119910797562</v>
       </c>
       <c r="E312" t="n">
-        <v>0.834623152610555</v>
+        <v>0.838748742100953</v>
       </c>
       <c r="F312" t="n">
-        <v>0.8118577331046027</v>
+        <v>0.8174366624434527</v>
       </c>
       <c r="G312" t="n">
-        <v>0.8877310149133043</v>
+        <v>0.8838097241885544</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8710687421818726</v>
+        <v>0.8811201029198333</v>
       </c>
       <c r="I312" t="n">
-        <v>0.7753463216742741</v>
+        <v>0.7684078175652642</v>
       </c>
       <c r="J312" t="n">
-        <v>0.811283393241285</v>
+        <v>0.8843496206176693</v>
       </c>
       <c r="K312" t="n">
-        <v>0.834623152610555</v>
+        <v>0.8991803286010861</v>
       </c>
       <c r="L312" t="n">
-        <v>0.8118577331046027</v>
+        <v>0.86895577965534</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.341010603391186</v>
       </c>
       <c r="C314" t="n">
-        <v>2.4177692937789126</v>
+        <v>2.432688349788896</v>
       </c>
       <c r="D314" t="n">
-        <v>2.3497380481429566</v>
+        <v>2.3879068654160425</v>
       </c>
       <c r="E314" t="n">
-        <v>2.6650718913006597</v>
+        <v>2.6811331181684794</v>
       </c>
       <c r="F314" t="n">
-        <v>2.6314430922694103</v>
+        <v>2.6942357842358877</v>
       </c>
       <c r="G314" t="n">
-        <v>2.46718560754125</v>
+        <v>2.490380564378227</v>
       </c>
       <c r="H314" t="n">
-        <v>2.341010603391186</v>
+        <v>2.555309373427321</v>
       </c>
       <c r="I314" t="n">
-        <v>2.4177692937789126</v>
+        <v>2.69259095028652</v>
       </c>
       <c r="J314" t="n">
-        <v>2.3497380481429566</v>
+        <v>2.446180797275373</v>
       </c>
       <c r="K314" t="n">
-        <v>2.6650718913006597</v>
+        <v>2.7124624725002975</v>
       </c>
       <c r="L314" t="n">
-        <v>2.6314430922694103</v>
+        <v>2.684396822422057</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.4820648425149874</v>
+        <v>3.5168854909401372</v>
       </c>
       <c r="C315" t="n">
-        <v>3.0994180329703607</v>
+        <v>3.13225589277522</v>
       </c>
       <c r="D315" t="n">
-        <v>3.243075137612862</v>
+        <v>3.283357905304662</v>
       </c>
       <c r="E315" t="n">
-        <v>3.336374956096679</v>
+        <v>3.3518404585628483</v>
       </c>
       <c r="F315" t="n">
-        <v>3.245371039817669</v>
+        <v>3.2666722940500894</v>
       </c>
       <c r="G315" t="n">
-        <v>3.548671656954439</v>
+        <v>3.531914913858567</v>
       </c>
       <c r="H315" t="n">
-        <v>3.4820648425149874</v>
+        <v>3.5211665443717424</v>
       </c>
       <c r="I315" t="n">
-        <v>3.0994180329703607</v>
+        <v>3.070741310609599</v>
       </c>
       <c r="J315" t="n">
-        <v>3.243075137612862</v>
+        <v>3.53407246904012</v>
       </c>
       <c r="K315" t="n">
-        <v>3.336374956096679</v>
+        <v>3.593339523108577</v>
       </c>
       <c r="L315" t="n">
-        <v>3.245371039817669</v>
+        <v>3.4725550009829136</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.7341881899170895</v>
+        <v>1.7517052423404942</v>
       </c>
       <c r="C316" t="n">
-        <v>1.543616903041667</v>
+        <v>1.560127300664408</v>
       </c>
       <c r="D316" t="n">
-        <v>1.6151630877154632</v>
+        <v>1.6353888319704124</v>
       </c>
       <c r="E316" t="n">
-        <v>1.6616296099239296</v>
+        <v>1.6694989125687882</v>
       </c>
       <c r="F316" t="n">
-        <v>1.6163065260685254</v>
+        <v>1.627077991944035</v>
       </c>
       <c r="G316" t="n">
-        <v>1.7673606769881423</v>
+        <v>1.7591911610556152</v>
       </c>
       <c r="H316" t="n">
-        <v>1.7341881899170895</v>
+        <v>1.7538375675919708</v>
       </c>
       <c r="I316" t="n">
-        <v>1.543616903041667</v>
+        <v>1.5294878566627503</v>
       </c>
       <c r="J316" t="n">
-        <v>1.6151630877154632</v>
+        <v>1.7602658052918014</v>
       </c>
       <c r="K316" t="n">
-        <v>1.6616296099239296</v>
+        <v>1.789785790965842</v>
       </c>
       <c r="L316" t="n">
-        <v>1.6163065260685254</v>
+        <v>1.729624923873022</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.93025859957192</v>
+        <v>3.969561185567639</v>
       </c>
       <c r="C319" t="n">
-        <v>3.498359430019033</v>
+        <v>3.53542401288199</v>
       </c>
       <c r="D319" t="n">
-        <v>3.6605073498443845</v>
+        <v>3.7059751114443964</v>
       </c>
       <c r="E319" t="n">
-        <v>3.765816248592424</v>
+        <v>3.783272392235189</v>
       </c>
       <c r="F319" t="n">
-        <v>3.6630987689569885</v>
+        <v>3.6871418127873175</v>
       </c>
       <c r="G319" t="n">
-        <v>4.0054387059399765</v>
+        <v>3.9865251197111222</v>
       </c>
       <c r="H319" t="n">
-        <v>3.93025859957192</v>
+        <v>3.974393274522261</v>
       </c>
       <c r="I319" t="n">
-        <v>3.498359430019033</v>
+        <v>3.465991585144405</v>
       </c>
       <c r="J319" t="n">
-        <v>3.6605073498443845</v>
+        <v>3.9889603844720813</v>
       </c>
       <c r="K319" t="n">
-        <v>3.765816248592424</v>
+        <v>4.055855993674926</v>
       </c>
       <c r="L319" t="n">
-        <v>3.6630987689569885</v>
+        <v>3.919524699385557</v>
       </c>
     </row>
     <row r="320">
@@ -12342,34 +12342,34 @@
         <v>2.123276844659445</v>
       </c>
       <c r="C323" t="n">
-        <v>1.9545640600319747</v>
+        <v>1.9698158418930043</v>
       </c>
       <c r="D323" t="n">
-        <v>2.1639661930646383</v>
+        <v>2.145475926570023</v>
       </c>
       <c r="E323" t="n">
-        <v>2.0582359860499935</v>
+        <v>2.04265237295483</v>
       </c>
       <c r="F323" t="n">
-        <v>2.141360357107202</v>
+        <v>2.091453150737291</v>
       </c>
       <c r="G323" t="n">
-        <v>2.1464736997658322</v>
+        <v>2.0939638987479148</v>
       </c>
       <c r="H323" t="n">
-        <v>2.123276844659445</v>
+        <v>2.166797425873351</v>
       </c>
       <c r="I323" t="n">
-        <v>1.9545640600319747</v>
+        <v>2.1206953531260195</v>
       </c>
       <c r="J323" t="n">
-        <v>2.1639661930646383</v>
+        <v>2.145475926570023</v>
       </c>
       <c r="K323" t="n">
-        <v>2.0582359860499935</v>
+        <v>1.8887622396924573</v>
       </c>
       <c r="L323" t="n">
-        <v>2.141360357107202</v>
+        <v>1.9798773290647635</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.2983645162692439</v>
+        <v>1.2853808711065515</v>
       </c>
       <c r="C327" t="n">
-        <v>1.2624849948034078</v>
+        <v>1.2634085478018908</v>
       </c>
       <c r="D327" t="n">
-        <v>1.1084031057141646</v>
+        <v>1.0984411897041253</v>
       </c>
       <c r="E327" t="n">
-        <v>1.2787601245920268</v>
+        <v>1.2727325971975296</v>
       </c>
       <c r="F327" t="n">
-        <v>1.2430715655974607</v>
+        <v>1.2421747912836896</v>
       </c>
       <c r="G327" t="n">
-        <v>1.137604173534666</v>
+        <v>1.1535469355770678</v>
       </c>
       <c r="H327" t="n">
-        <v>1.2983645162692439</v>
+        <v>1.2406853731098961</v>
       </c>
       <c r="I327" t="n">
-        <v>1.2624849948034078</v>
+        <v>1.1744967090735905</v>
       </c>
       <c r="J327" t="n">
-        <v>1.1084031057141646</v>
+        <v>1.1685280647550056</v>
       </c>
       <c r="K327" t="n">
-        <v>1.2787601245920268</v>
+        <v>1.2580323420192518</v>
       </c>
       <c r="L327" t="n">
-        <v>1.2430715655974607</v>
+        <v>1.1204456974054735</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.420114787728165</v>
       </c>
       <c r="C329" t="n">
-        <v>2.4052388296129603</v>
+        <v>2.432476325986234</v>
       </c>
       <c r="D329" t="n">
-        <v>2.378486436300743</v>
+        <v>2.3890876747696113</v>
       </c>
       <c r="E329" t="n">
-        <v>2.584060578898082</v>
+        <v>2.6166198328480696</v>
       </c>
       <c r="F329" t="n">
-        <v>2.3328752555996473</v>
+        <v>2.3771621115348918</v>
       </c>
       <c r="G329" t="n">
-        <v>2.5976188798186874</v>
+        <v>2.6086569012781022</v>
       </c>
       <c r="H329" t="n">
-        <v>2.420114787728165</v>
+        <v>2.6054852820325007</v>
       </c>
       <c r="I329" t="n">
-        <v>2.4052388296129603</v>
+        <v>2.6956121302933025</v>
       </c>
       <c r="J329" t="n">
-        <v>2.378486436300743</v>
+        <v>2.635930682543943</v>
       </c>
       <c r="K329" t="n">
-        <v>2.584060578898082</v>
+        <v>2.2749592815385435</v>
       </c>
       <c r="L329" t="n">
-        <v>2.3328752555996473</v>
+        <v>2.6621262662442606</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2.514482970685044</v>
+        <v>2.4893381409781936</v>
       </c>
       <c r="C331" t="n">
-        <v>2.7036111304389183</v>
+        <v>2.6921612227826133</v>
       </c>
       <c r="D331" t="n">
-        <v>2.587326733043864</v>
+        <v>2.550087378439313</v>
       </c>
       <c r="E331" t="n">
-        <v>2.609004185835941</v>
+        <v>2.5961646219302636</v>
       </c>
       <c r="F331" t="n">
-        <v>2.651481960576738</v>
+        <v>2.6094253930560685</v>
       </c>
       <c r="G331" t="n">
-        <v>2.7560284798875188</v>
+        <v>2.6638514162332902</v>
       </c>
       <c r="H331" t="n">
-        <v>2.514482970685044</v>
+        <v>2.8917028574843004</v>
       </c>
       <c r="I331" t="n">
-        <v>2.7036111304389183</v>
+        <v>2.550087378439313</v>
       </c>
       <c r="J331" t="n">
-        <v>2.587326733043864</v>
+        <v>2.4404498633746865</v>
       </c>
       <c r="K331" t="n">
-        <v>2.609004185835941</v>
+        <v>2.798422121212685</v>
       </c>
       <c r="L331" t="n">
-        <v>2.651481960576738</v>
+        <v>2.827679917738572</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.6206126532850706</v>
       </c>
       <c r="C333" t="n">
-        <v>1.7425078867636832</v>
+        <v>1.752654840459109</v>
       </c>
       <c r="D333" t="n">
-        <v>1.6675612802465138</v>
+        <v>1.660161713047688</v>
       </c>
       <c r="E333" t="n">
-        <v>1.6815326432246689</v>
+        <v>1.6901589892717164</v>
       </c>
       <c r="F333" t="n">
-        <v>1.7089100484530582</v>
+        <v>1.698792036395781</v>
       </c>
       <c r="G333" t="n">
-        <v>1.7762914600701762</v>
+        <v>1.7342245477035183</v>
       </c>
       <c r="H333" t="n">
-        <v>1.6206126532850706</v>
+        <v>1.8825607350145461</v>
       </c>
       <c r="I333" t="n">
-        <v>1.7425078867636832</v>
+        <v>1.660161713047688</v>
       </c>
       <c r="J333" t="n">
-        <v>1.6675612802465138</v>
+        <v>1.5887853334134425</v>
       </c>
       <c r="K333" t="n">
-        <v>1.6815326432246689</v>
+        <v>1.8218329700632874</v>
       </c>
       <c r="L333" t="n">
-        <v>1.7089100484530582</v>
+        <v>1.8408804246764483</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2.2229171045021316</v>
+        <v>2.2455999320990916</v>
       </c>
       <c r="C338" t="n">
-        <v>2.390114984209927</v>
+        <v>2.428564026542749</v>
       </c>
       <c r="D338" t="n">
-        <v>2.287314297559913</v>
+        <v>2.300401038173076</v>
       </c>
       <c r="E338" t="n">
-        <v>2.3064781499921363</v>
+        <v>2.341966727121197</v>
       </c>
       <c r="F338" t="n">
-        <v>2.3440304313690032</v>
+        <v>2.3539290982629444</v>
       </c>
       <c r="G338" t="n">
-        <v>2.436454300888701</v>
+        <v>2.4030261140276106</v>
       </c>
       <c r="H338" t="n">
-        <v>2.2229171045021316</v>
+        <v>2.608567969743881</v>
       </c>
       <c r="I338" t="n">
-        <v>2.390114984209927</v>
+        <v>2.300401038173076</v>
       </c>
       <c r="J338" t="n">
-        <v>2.287314297559913</v>
+        <v>2.201498445418886</v>
       </c>
       <c r="K338" t="n">
-        <v>2.3064781499921363</v>
+        <v>2.5244206168433307</v>
       </c>
       <c r="L338" t="n">
-        <v>2.3440304313690032</v>
+        <v>2.550813698928227</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7427683252201659</v>
+        <v>0.7504257306348067</v>
       </c>
       <c r="C341" t="n">
-        <v>0.7073193126811661</v>
+        <v>0.7069479939328294</v>
       </c>
       <c r="D341" t="n">
-        <v>0.7368810149738299</v>
+        <v>0.7324083058591836</v>
       </c>
       <c r="E341" t="n">
-        <v>0.6782911141113576</v>
+        <v>0.6767566484959008</v>
       </c>
       <c r="F341" t="n">
-        <v>0.6614136341490322</v>
+        <v>0.6730238485527708</v>
       </c>
       <c r="G341" t="n">
-        <v>0.7319415751172583</v>
+        <v>0.7504257306348067</v>
       </c>
       <c r="H341" t="n">
-        <v>0.7427683252201659</v>
+        <v>0.6476604230599058</v>
       </c>
       <c r="I341" t="n">
-        <v>0.7073193126811661</v>
+        <v>0.7315301184663638</v>
       </c>
       <c r="J341" t="n">
-        <v>0.7368810149738299</v>
+        <v>0.6925041072849454</v>
       </c>
       <c r="K341" t="n">
-        <v>0.6782911141113576</v>
+        <v>0.7144610109227071</v>
       </c>
       <c r="L341" t="n">
-        <v>0.6614136341490322</v>
+        <v>0.6889848886497539</v>
       </c>
     </row>
     <row r="342">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>3.1171039196048245</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="C345" t="n">
-        <v>2.968338480665726</v>
+        <v>2.9074326097463747</v>
       </c>
       <c r="D345" t="n">
-        <v>3.0923972146718373</v>
+        <v>3.012142067562632</v>
       </c>
       <c r="E345" t="n">
-        <v>2.846518650082352</v>
+        <v>2.783266047271082</v>
       </c>
       <c r="F345" t="n">
-        <v>2.775690563911577</v>
+        <v>2.7679143320481</v>
       </c>
       <c r="G345" t="n">
-        <v>3.0716683456358456</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="H345" t="n">
-        <v>3.1171039196048245</v>
+        <v>2.663603334625799</v>
       </c>
       <c r="I345" t="n">
-        <v>2.968338480665726</v>
+        <v>3.0085303865263104</v>
       </c>
       <c r="J345" t="n">
-        <v>3.0923972146718373</v>
+        <v>2.848029899204801</v>
       </c>
       <c r="K345" t="n">
-        <v>2.846518650082352</v>
+        <v>2.9383310503408957</v>
       </c>
       <c r="L345" t="n">
-        <v>2.775690563911577</v>
+        <v>2.833556570036892</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>3.1171039196048245</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="C348" t="n">
-        <v>2.968338480665726</v>
+        <v>2.9074326097463747</v>
       </c>
       <c r="D348" t="n">
-        <v>3.0923972146718373</v>
+        <v>3.012142067562632</v>
       </c>
       <c r="E348" t="n">
-        <v>2.846518650082352</v>
+        <v>2.783266047271082</v>
       </c>
       <c r="F348" t="n">
-        <v>2.775690563911577</v>
+        <v>2.7679143320481</v>
       </c>
       <c r="G348" t="n">
-        <v>3.0716683456358456</v>
+        <v>3.0862415045592324</v>
       </c>
       <c r="H348" t="n">
-        <v>3.1171039196048245</v>
+        <v>2.663603334625799</v>
       </c>
       <c r="I348" t="n">
-        <v>2.968338480665726</v>
+        <v>3.0085303865263104</v>
       </c>
       <c r="J348" t="n">
-        <v>3.0923972146718373</v>
+        <v>2.848029899204801</v>
       </c>
       <c r="K348" t="n">
-        <v>2.846518650082352</v>
+        <v>2.9383310503408957</v>
       </c>
       <c r="L348" t="n">
-        <v>2.775690563911577</v>
+        <v>2.833556570036892</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>4.68741194545219</v>
+        <v>4.641001926190287</v>
       </c>
       <c r="C351" t="n">
-        <v>4.463702722552116</v>
+        <v>4.372114211466567</v>
       </c>
       <c r="D351" t="n">
-        <v>4.65025870743941</v>
+        <v>4.529573306841215</v>
       </c>
       <c r="E351" t="n">
-        <v>4.280513536757547</v>
+        <v>4.185396077203591</v>
       </c>
       <c r="F351" t="n">
-        <v>4.174004281450943</v>
+        <v>4.162310605825238</v>
       </c>
       <c r="G351" t="n">
-        <v>4.619087225563587</v>
+        <v>4.641001926190287</v>
       </c>
       <c r="H351" t="n">
-        <v>4.68741194545219</v>
+        <v>4.005450703823218</v>
       </c>
       <c r="I351" t="n">
-        <v>4.463702722552116</v>
+        <v>4.524142163937593</v>
       </c>
       <c r="J351" t="n">
-        <v>4.65025870743941</v>
+        <v>4.282786110072979</v>
       </c>
       <c r="K351" t="n">
-        <v>4.280513536757547</v>
+        <v>4.418578404921163</v>
       </c>
       <c r="L351" t="n">
-        <v>4.174004281450943</v>
+        <v>4.26102153058449</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.0538414318659113</v>
+        <v>3.08437984618457</v>
       </c>
       <c r="C353" t="n">
-        <v>2.9080952287301707</v>
+        <v>2.905678811069666</v>
       </c>
       <c r="D353" t="n">
-        <v>3.0296361563552994</v>
+        <v>3.010325106868705</v>
       </c>
       <c r="E353" t="n">
-        <v>2.788747765362457</v>
+        <v>2.7815871473735334</v>
       </c>
       <c r="F353" t="n">
-        <v>2.7193571548256408</v>
+        <v>2.766244692491703</v>
       </c>
       <c r="G353" t="n">
-        <v>3.009327985459971</v>
+        <v>3.08437984618457</v>
       </c>
       <c r="H353" t="n">
-        <v>3.0538414318659113</v>
+        <v>2.661996616730469</v>
       </c>
       <c r="I353" t="n">
-        <v>2.9080952287301707</v>
+        <v>3.006715604442268</v>
       </c>
       <c r="J353" t="n">
-        <v>3.0296361563552994</v>
+        <v>2.8463119329648587</v>
       </c>
       <c r="K353" t="n">
-        <v>2.788747765362457</v>
+        <v>2.936558613349391</v>
       </c>
       <c r="L353" t="n">
-        <v>2.7193571548256408</v>
+        <v>2.8318473342849604</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>3.6333487302642187</v>
+        <v>3.5977276642812366</v>
       </c>
       <c r="C356" t="n">
-        <v>3.5329433262910945</v>
+        <v>3.536228044068547</v>
       </c>
       <c r="D356" t="n">
-        <v>3.101759918962809</v>
+        <v>3.074491261397443</v>
       </c>
       <c r="E356" t="n">
-        <v>3.5784877180326986</v>
+        <v>3.5623256710115525</v>
       </c>
       <c r="F356" t="n">
-        <v>3.4786167042433958</v>
+        <v>3.4767956416115386</v>
       </c>
       <c r="G356" t="n">
-        <v>3.1834763101291683</v>
+        <v>3.2287299550363673</v>
       </c>
       <c r="H356" t="n">
-        <v>3.6333487302642187</v>
+        <v>3.4726268220126233</v>
       </c>
       <c r="I356" t="n">
-        <v>3.5329433262910945</v>
+        <v>3.2873675008121808</v>
       </c>
       <c r="J356" t="n">
-        <v>3.101759918962809</v>
+        <v>3.270661513298346</v>
       </c>
       <c r="K356" t="n">
-        <v>3.5784877180326986</v>
+        <v>3.521180267407286</v>
       </c>
       <c r="L356" t="n">
-        <v>3.4786167042433958</v>
+        <v>3.136080964399541</v>
       </c>
     </row>
     <row r="357">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>0.511871279372437</v>
+        <v>0.517148302871122</v>
       </c>
       <c r="C357" t="n">
-        <v>0.49772602484194445</v>
+        <v>0.5083081606513621</v>
       </c>
       <c r="D357" t="n">
-        <v>0.436980299964265</v>
+        <v>0.4419367129450113</v>
       </c>
       <c r="E357" t="n">
-        <v>0.5041423828080346</v>
+        <v>0.512059512821937</v>
       </c>
       <c r="F357" t="n">
-        <v>0.4900724139182509</v>
+        <v>0.49976516659115555</v>
       </c>
       <c r="G357" t="n">
-        <v>0.4484926200847124</v>
+        <v>0.4641074512819732</v>
       </c>
       <c r="H357" t="n">
-        <v>0.511871279372437</v>
+        <v>0.49916592779885915</v>
       </c>
       <c r="I357" t="n">
-        <v>0.49772602484194445</v>
+        <v>0.4725361902283793</v>
       </c>
       <c r="J357" t="n">
-        <v>0.436980299964265</v>
+        <v>0.4701348208372662</v>
       </c>
       <c r="K357" t="n">
-        <v>0.5041423828080346</v>
+        <v>0.506145147525156</v>
       </c>
       <c r="L357" t="n">
-        <v>0.4900724139182509</v>
+        <v>0.450789803938555</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.8716328406481018</v>
+        <v>2.9003491690545826</v>
       </c>
       <c r="C362" t="n">
-        <v>2.7922769965404</v>
+        <v>2.850770549151822</v>
       </c>
       <c r="D362" t="n">
-        <v>2.4514893307397627</v>
+        <v>2.4785361782076776</v>
       </c>
       <c r="E362" t="n">
-        <v>2.828273202999509</v>
+        <v>2.871809448613259</v>
       </c>
       <c r="F362" t="n">
-        <v>2.7493397164785702</v>
+        <v>2.8028584404081665</v>
       </c>
       <c r="G362" t="n">
-        <v>2.516074232964521</v>
+        <v>2.602877459337162</v>
       </c>
       <c r="H362" t="n">
-        <v>2.8716328406481018</v>
+        <v>2.7994976989658125</v>
       </c>
       <c r="I362" t="n">
-        <v>2.7922769965404</v>
+        <v>2.6501487853062606</v>
       </c>
       <c r="J362" t="n">
-        <v>2.4514893307397627</v>
+        <v>2.6366810630311597</v>
       </c>
       <c r="K362" t="n">
-        <v>2.828273202999509</v>
+        <v>2.838639612458389</v>
       </c>
       <c r="L362" t="n">
-        <v>2.7493397164785702</v>
+        <v>2.5281874193780234</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.9265419557873162</v>
+        <v>3.965807375345189</v>
       </c>
       <c r="C364" t="n">
-        <v>4.0552881553312625</v>
+        <v>4.121114780741981</v>
       </c>
       <c r="D364" t="n">
-        <v>3.941180367905143</v>
+        <v>4.045252355878333</v>
       </c>
       <c r="E364" t="n">
-        <v>4.470085091123724</v>
+        <v>4.541994589393167</v>
       </c>
       <c r="F364" t="n">
-        <v>4.413680011143453</v>
+        <v>4.564191263620759</v>
       </c>
       <c r="G364" t="n">
-        <v>4.1381733968620305</v>
+        <v>4.218848729399425</v>
       </c>
       <c r="H364" t="n">
-        <v>3.9265419557873162</v>
+        <v>4.328841887664607</v>
       </c>
       <c r="I364" t="n">
-        <v>4.0552881553312625</v>
+        <v>4.561404819766907</v>
       </c>
       <c r="J364" t="n">
-        <v>3.941180367905143</v>
+        <v>4.143971767239956</v>
       </c>
       <c r="K364" t="n">
-        <v>4.470085091123724</v>
+        <v>4.595068327843537</v>
       </c>
       <c r="L364" t="n">
-        <v>4.413680011143453</v>
+        <v>4.547523493184134</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7.915984673811942</v>
+        <v>7.837608587932616</v>
       </c>
       <c r="C366" t="n">
-        <v>8.739016270674467</v>
+        <v>8.647398407718024</v>
       </c>
       <c r="D366" t="n">
-        <v>8.652254232611114</v>
+        <v>8.429658157207118</v>
       </c>
       <c r="E366" t="n">
-        <v>9.087687003807215</v>
+        <v>8.843188554877749</v>
       </c>
       <c r="F366" t="n">
-        <v>8.93515379670007</v>
+        <v>8.647398407718024</v>
       </c>
       <c r="G366" t="n">
-        <v>7.94796051189549</v>
+        <v>7.798485747104522</v>
       </c>
       <c r="H366" t="n">
-        <v>7.915984673811942</v>
+        <v>7.939395713432798</v>
       </c>
       <c r="I366" t="n">
-        <v>8.739016270674467</v>
+        <v>8.733335283933885</v>
       </c>
       <c r="J366" t="n">
-        <v>8.652254232611114</v>
+        <v>8.43977779457073</v>
       </c>
       <c r="K366" t="n">
-        <v>9.087687003807215</v>
+        <v>8.589291268292666</v>
       </c>
       <c r="L366" t="n">
-        <v>8.93515379670007</v>
+        <v>8.146390385498663</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.9388155759531127</v>
       </c>
       <c r="C381" t="n">
-        <v>1.9268980671443428</v>
+        <v>1.9487187189936885</v>
       </c>
       <c r="D381" t="n">
-        <v>1.9054660437086113</v>
+        <v>1.913958965768366</v>
       </c>
       <c r="E381" t="n">
-        <v>2.070156723548255</v>
+        <v>2.0962407708916904</v>
       </c>
       <c r="F381" t="n">
-        <v>1.868925765524571</v>
+        <v>1.9044050934195287</v>
       </c>
       <c r="G381" t="n">
-        <v>2.0810186236290384</v>
+        <v>2.089861463663625</v>
       </c>
       <c r="H381" t="n">
-        <v>1.9388155759531127</v>
+        <v>2.087320598732116</v>
       </c>
       <c r="I381" t="n">
-        <v>1.9268980671443428</v>
+        <v>2.1595235116293336</v>
       </c>
       <c r="J381" t="n">
-        <v>1.9054660437086113</v>
+        <v>2.11171118426427</v>
       </c>
       <c r="K381" t="n">
-        <v>2.070156723548255</v>
+        <v>1.822527804082596</v>
       </c>
       <c r="L381" t="n">
-        <v>1.868925765524571</v>
+        <v>2.1326971333427585</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>1.4411163230034096</v>
+        <v>1.4267051597733755</v>
       </c>
       <c r="C382" t="n">
-        <v>1.4322580712507063</v>
+        <v>1.4339925291597173</v>
       </c>
       <c r="D382" t="n">
-        <v>1.416327706758436</v>
+        <v>1.4084140678072816</v>
       </c>
       <c r="E382" t="n">
-        <v>1.5387418393387173</v>
+        <v>1.542548740092657</v>
       </c>
       <c r="F382" t="n">
-        <v>1.3891674177700317</v>
+        <v>1.4013837142527918</v>
       </c>
       <c r="G382" t="n">
-        <v>1.5468154600066109</v>
+        <v>1.537854435667345</v>
       </c>
       <c r="H382" t="n">
-        <v>1.4411163230034096</v>
+        <v>1.5359847038821086</v>
       </c>
       <c r="I382" t="n">
-        <v>1.4322580712507063</v>
+        <v>1.5891162495839157</v>
       </c>
       <c r="J382" t="n">
-        <v>1.416327706758436</v>
+        <v>1.5539328649450874</v>
       </c>
       <c r="K382" t="n">
-        <v>1.5387418393387173</v>
+        <v>1.34113314033844</v>
       </c>
       <c r="L382" t="n">
-        <v>1.3891674177700317</v>
+        <v>1.5693756755993713</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.424942768574084</v>
+        <v>2.4009334342317667</v>
       </c>
       <c r="C387" t="n">
-        <v>2.4100371338331223</v>
+        <v>2.4131969973705196</v>
       </c>
       <c r="D387" t="n">
-        <v>2.3832313711339865</v>
+        <v>2.3701522360639697</v>
       </c>
       <c r="E387" t="n">
-        <v>2.5892156215608835</v>
+        <v>2.595881019038887</v>
       </c>
       <c r="F387" t="n">
-        <v>2.3375291989196367</v>
+        <v>2.358321192496337</v>
       </c>
       <c r="G387" t="n">
-        <v>2.6028009704618076</v>
+        <v>2.5879812000973303</v>
       </c>
       <c r="H387" t="n">
-        <v>2.424942768574084</v>
+        <v>2.5848347184816522</v>
       </c>
       <c r="I387" t="n">
-        <v>2.4100371338331223</v>
+        <v>2.674247239081315</v>
       </c>
       <c r="J387" t="n">
-        <v>2.3832313711339865</v>
+        <v>2.6150388147407053</v>
       </c>
       <c r="K387" t="n">
-        <v>2.5892156215608835</v>
+        <v>2.2569284020156486</v>
       </c>
       <c r="L387" t="n">
-        <v>2.3375291989196367</v>
+        <v>2.6410267774002576</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.4777912828317148</v>
+        <v>0.4827682753612118</v>
       </c>
       <c r="C389" t="n">
-        <v>0.47485439605789087</v>
+        <v>0.48523417430779103</v>
       </c>
       <c r="D389" t="n">
-        <v>0.46957280347216823</v>
+        <v>0.4765789384386853</v>
       </c>
       <c r="E389" t="n">
-        <v>0.510158288841156</v>
+        <v>0.5219674084822352</v>
       </c>
       <c r="F389" t="n">
-        <v>0.46056801384435764</v>
+        <v>0.4742000084702679</v>
       </c>
       <c r="G389" t="n">
-        <v>0.5128350370775302</v>
+        <v>0.5203789504634891</v>
       </c>
       <c r="H389" t="n">
-        <v>0.4777912828317148</v>
+        <v>0.5197462709058642</v>
       </c>
       <c r="I389" t="n">
-        <v>0.47485439605789087</v>
+        <v>0.5377249152739909</v>
       </c>
       <c r="J389" t="n">
-        <v>0.46957280347216823</v>
+        <v>0.5258195669214586</v>
       </c>
       <c r="K389" t="n">
-        <v>0.510158288841156</v>
+        <v>0.4538124284163939</v>
       </c>
       <c r="L389" t="n">
-        <v>0.46056801384435764</v>
+        <v>0.5310451028461219</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.5545629139288044</v>
+        <v>1.570265569625055</v>
       </c>
       <c r="C394" t="n">
-        <v>1.7161921300270668</v>
+        <v>1.7325070312106379</v>
       </c>
       <c r="D394" t="n">
-        <v>1.6991535615775375</v>
+        <v>1.6888827528784385</v>
       </c>
       <c r="E394" t="n">
-        <v>1.7846650507356818</v>
+        <v>1.7717336044067147</v>
       </c>
       <c r="F394" t="n">
-        <v>1.754710158617731</v>
+        <v>1.7325070312106379</v>
       </c>
       <c r="G394" t="n">
-        <v>1.5608424172470616</v>
+        <v>1.5624273050257147</v>
       </c>
       <c r="H394" t="n">
-        <v>1.5545629139288044</v>
+        <v>1.590658629167494</v>
       </c>
       <c r="I394" t="n">
-        <v>1.7161921300270668</v>
+        <v>1.7497244919155097</v>
       </c>
       <c r="J394" t="n">
-        <v>1.6991535615775375</v>
+        <v>1.6909102231138922</v>
       </c>
       <c r="K394" t="n">
-        <v>1.7846650507356818</v>
+        <v>1.7208652607183565</v>
       </c>
       <c r="L394" t="n">
-        <v>1.754710158617731</v>
+        <v>1.6321300299135462</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.436911975630403</v>
+        <v>4.349052332548614</v>
       </c>
       <c r="C395" t="n">
-        <v>4.570946184830368</v>
+        <v>4.452955052000569</v>
       </c>
       <c r="D395" t="n">
-        <v>4.2827225182453885</v>
+        <v>4.193974606400353</v>
       </c>
       <c r="E395" t="n">
-        <v>4.615006614933867</v>
+        <v>4.520711520068726</v>
       </c>
       <c r="F395" t="n">
-        <v>4.65928856370935</v>
+        <v>4.534511003038003</v>
       </c>
       <c r="G395" t="n">
-        <v>4.640601305598551</v>
+        <v>4.515215214420468</v>
       </c>
       <c r="H395" t="n">
-        <v>4.436911975630403</v>
+        <v>4.2153967215055035</v>
       </c>
       <c r="I395" t="n">
-        <v>4.570946184830368</v>
+        <v>4.567976032739562</v>
       </c>
       <c r="J395" t="n">
-        <v>4.2827225182453885</v>
+        <v>4.613372066595502</v>
       </c>
       <c r="K395" t="n">
-        <v>4.615006614933867</v>
+        <v>4.458300736188747</v>
       </c>
       <c r="L395" t="n">
-        <v>4.65928856370935</v>
+        <v>4.671401902290563</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>5.319789945398045</v>
+        <v>5.1091051950852515</v>
       </c>
       <c r="C397" t="n">
-        <v>5.480494922724093</v>
+        <v>5.231166251872855</v>
       </c>
       <c r="D397" t="n">
-        <v>5.134919132186422</v>
+        <v>4.926925640616248</v>
       </c>
       <c r="E397" t="n">
-        <v>5.5333227079814735</v>
+        <v>5.310764034685641</v>
       </c>
       <c r="F397" t="n">
-        <v>5.58641609075587</v>
+        <v>5.326975154887661</v>
       </c>
       <c r="G397" t="n">
-        <v>5.564010352631944</v>
+        <v>5.304307178894062</v>
       </c>
       <c r="H397" t="n">
-        <v>5.319789945398045</v>
+        <v>4.952091546014609</v>
       </c>
       <c r="I397" t="n">
-        <v>5.480494922724093</v>
+        <v>5.366288629186951</v>
       </c>
       <c r="J397" t="n">
-        <v>5.134919132186422</v>
+        <v>5.4196182041552365</v>
       </c>
       <c r="K397" t="n">
-        <v>5.5333227079814735</v>
+        <v>5.237446163165873</v>
       </c>
       <c r="L397" t="n">
-        <v>5.58641609075587</v>
+        <v>5.487789500416884</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>4.841798380872605</v>
+        <v>4.890216364681332</v>
       </c>
       <c r="C398" t="n">
-        <v>4.9880637610853205</v>
+        <v>5.00704797307476</v>
       </c>
       <c r="D398" t="n">
-        <v>4.673538503459031</v>
+        <v>4.715841908772363</v>
       </c>
       <c r="E398" t="n">
-        <v>5.036144886045064</v>
+        <v>5.083235556857119</v>
       </c>
       <c r="F398" t="n">
-        <v>5.0844677441636446</v>
+        <v>5.098752145824203</v>
       </c>
       <c r="G398" t="n">
-        <v>5.0640751971487905</v>
+        <v>5.077055331426109</v>
       </c>
       <c r="H398" t="n">
-        <v>4.841798380872605</v>
+        <v>4.7399296340612205</v>
       </c>
       <c r="I398" t="n">
-        <v>4.9880637610853205</v>
+        <v>5.136381317279864</v>
       </c>
       <c r="J398" t="n">
-        <v>4.673538503459031</v>
+        <v>5.187426099149355</v>
       </c>
       <c r="K398" t="n">
-        <v>5.036144886045064</v>
+        <v>5.013058834820846</v>
       </c>
       <c r="L398" t="n">
-        <v>5.0844677441636446</v>
+        <v>5.252676740083689</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>5.721073724846795</v>
+        <v>5.778284462095263</v>
       </c>
       <c r="C400" t="n">
-        <v>5.893901041840296</v>
+        <v>5.916332805382695</v>
       </c>
       <c r="D400" t="n">
-        <v>5.522257688346891</v>
+        <v>5.572243433636439</v>
       </c>
       <c r="E400" t="n">
-        <v>5.950713746341777</v>
+        <v>6.006356129249035</v>
       </c>
       <c r="F400" t="n">
-        <v>6.00781208298129</v>
+        <v>6.024690546020605</v>
       </c>
       <c r="G400" t="n">
-        <v>5.9837162293888975</v>
+        <v>5.999053568806482</v>
       </c>
       <c r="H400" t="n">
-        <v>5.721073724846795</v>
+        <v>5.600705513508624</v>
       </c>
       <c r="I400" t="n">
-        <v>5.893901041840296</v>
+        <v>6.069153211990586</v>
       </c>
       <c r="J400" t="n">
-        <v>5.522257688346891</v>
+        <v>6.129467776408994</v>
       </c>
       <c r="K400" t="n">
-        <v>5.950713746341777</v>
+        <v>5.92343524552871</v>
       </c>
       <c r="L400" t="n">
-        <v>6.00781208298129</v>
+        <v>6.2065679978584365</v>
       </c>
     </row>
     <row r="401">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>3.9612950614525775</v>
+        <v>4.000908012067104</v>
       </c>
       <c r="C403" t="n">
-        <v>4.080961409102867</v>
+        <v>4.096493254769226</v>
       </c>
       <c r="D403" t="n">
-        <v>3.8236340171447214</v>
+        <v>3.8582443535049333</v>
       </c>
       <c r="E403" t="n">
-        <v>4.1202987602004555</v>
+        <v>4.158825775795569</v>
       </c>
       <c r="F403" t="n">
-        <v>4.1598338841693945</v>
+        <v>4.171520601645551</v>
       </c>
       <c r="G403" t="n">
-        <v>4.143149815683704</v>
+        <v>4.153769452803015</v>
       </c>
       <c r="H403" t="n">
-        <v>3.9612950614525775</v>
+        <v>3.8779516150888367</v>
       </c>
       <c r="I403" t="n">
-        <v>4.080961409102867</v>
+        <v>4.202306735087769</v>
       </c>
       <c r="J403" t="n">
-        <v>3.8236340171447214</v>
+        <v>4.244068788446153</v>
       </c>
       <c r="K403" t="n">
-        <v>4.1202987602004555</v>
+        <v>4.101411013642439</v>
       </c>
       <c r="L403" t="n">
-        <v>4.1598338841693945</v>
+        <v>4.297453300017494</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.5513690121571162</v>
+        <v>1.5671993081995357</v>
       </c>
       <c r="C406" t="n">
-        <v>1.4240681461908764</v>
+        <v>1.449854933609244</v>
       </c>
       <c r="D406" t="n">
-        <v>1.5007703761135744</v>
+        <v>1.514535600184619</v>
       </c>
       <c r="E406" t="n">
-        <v>1.445631513892371</v>
+        <v>1.4835916259163648</v>
       </c>
       <c r="F406" t="n">
-        <v>1.5501938055556566</v>
+        <v>1.59104591986357</v>
       </c>
       <c r="G406" t="n">
-        <v>1.6145762021223713</v>
+        <v>1.644080783232399</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5513690121571162</v>
+        <v>1.5959025914244573</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4240681461908764</v>
+        <v>1.6076804716825568</v>
       </c>
       <c r="J406" t="n">
-        <v>1.5007703761135744</v>
+        <v>1.457128453832382</v>
       </c>
       <c r="K406" t="n">
-        <v>1.445631513892371</v>
+        <v>1.449854933609244</v>
       </c>
       <c r="L406" t="n">
-        <v>1.5501938055556566</v>
+        <v>1.5891115175826096</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.883608661297035</v>
+        <v>6.8167775092456075</v>
       </c>
       <c r="C407" t="n">
-        <v>6.318759591418182</v>
+        <v>6.3063698735616915</v>
       </c>
       <c r="D407" t="n">
-        <v>6.659096500367094</v>
+        <v>6.587708507956938</v>
       </c>
       <c r="E407" t="n">
-        <v>6.414438816356645</v>
+        <v>6.453112871821261</v>
       </c>
       <c r="F407" t="n">
-        <v>6.878394129952636</v>
+        <v>6.920502061198005</v>
       </c>
       <c r="G407" t="n">
-        <v>7.164066474294148</v>
+        <v>7.151185460512342</v>
       </c>
       <c r="H407" t="n">
-        <v>6.883608661297035</v>
+        <v>6.941626910662164</v>
       </c>
       <c r="I407" t="n">
-        <v>6.318759591418182</v>
+        <v>6.992856635452074</v>
       </c>
       <c r="J407" t="n">
-        <v>6.659096500367094</v>
+        <v>6.3380071827480355</v>
       </c>
       <c r="K407" t="n">
-        <v>6.414438816356645</v>
+        <v>6.3063698735616915</v>
       </c>
       <c r="L407" t="n">
-        <v>6.878394129952636</v>
+        <v>6.91208807716056</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>2.580853382881924</v>
+        <v>2.5550448490531044</v>
       </c>
       <c r="C410" t="n">
-        <v>2.3690759991658856</v>
+        <v>2.363735333860216</v>
       </c>
       <c r="D410" t="n">
-        <v>2.4966776258706314</v>
+        <v>2.469185867881057</v>
       </c>
       <c r="E410" t="n">
-        <v>2.40494876060602</v>
+        <v>2.4187371204564774</v>
       </c>
       <c r="F410" t="n">
-        <v>2.578898312289953</v>
+        <v>2.5939225859055783</v>
       </c>
       <c r="G410" t="n">
-        <v>2.686004696828478</v>
+        <v>2.680386671080831</v>
       </c>
       <c r="H410" t="n">
-        <v>2.580853382881924</v>
+        <v>2.6018405409418426</v>
       </c>
       <c r="I410" t="n">
-        <v>2.3690759991658856</v>
+        <v>2.6210423183601805</v>
       </c>
       <c r="J410" t="n">
-        <v>2.4966776258706314</v>
+        <v>2.375593538673976</v>
       </c>
       <c r="K410" t="n">
-        <v>2.40494876060602</v>
+        <v>2.363735333860216</v>
       </c>
       <c r="L410" t="n">
-        <v>2.578898312289953</v>
+        <v>2.5907688807207268</v>
       </c>
     </row>
     <row r="411">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>0.5221196889849277</v>
+        <v>0.5275023661909578</v>
       </c>
       <c r="C411" t="n">
-        <v>0.4792760534443502</v>
+        <v>0.4880055166634464</v>
       </c>
       <c r="D411" t="n">
-        <v>0.5050905077217402</v>
+        <v>0.5097763306797672</v>
       </c>
       <c r="E411" t="n">
-        <v>0.48653329446795257</v>
+        <v>0.49936092304115065</v>
       </c>
       <c r="F411" t="n">
-        <v>0.5217241683187039</v>
+        <v>0.5355288782067565</v>
       </c>
       <c r="G411" t="n">
-        <v>0.5433923314753063</v>
+        <v>0.5533798406027338</v>
       </c>
       <c r="H411" t="n">
-        <v>0.5221196889849277</v>
+        <v>0.5371635814169843</v>
       </c>
       <c r="I411" t="n">
-        <v>0.4792760534443502</v>
+        <v>0.5411278887468534</v>
       </c>
       <c r="J411" t="n">
-        <v>0.5050905077217402</v>
+        <v>0.49045370503882996</v>
       </c>
       <c r="K411" t="n">
-        <v>0.48653329446795257</v>
+        <v>0.4880055166634464</v>
       </c>
       <c r="L411" t="n">
-        <v>0.5217241683187039</v>
+        <v>0.5348777792846009</v>
       </c>
     </row>
     <row r="412">
@@ -15800,34 +15800,34 @@
         <v>2.5967401616654735</v>
       </c>
       <c r="C414" t="n">
-        <v>2.3836591547104047</v>
+        <v>2.402308701257164</v>
       </c>
       <c r="D414" t="n">
-        <v>2.512046249830104</v>
+        <v>2.509480063381187</v>
       </c>
       <c r="E414" t="n">
-        <v>2.4197527356008552</v>
+        <v>2.458208052014469</v>
       </c>
       <c r="F414" t="n">
-        <v>2.5947730563821074</v>
+        <v>2.636252337241137</v>
       </c>
       <c r="G414" t="n">
-        <v>2.7025387482058716</v>
+        <v>2.7241274141109035</v>
       </c>
       <c r="H414" t="n">
-        <v>2.5967401616654735</v>
+        <v>2.6442995039468595</v>
       </c>
       <c r="I414" t="n">
-        <v>2.3836591547104047</v>
+        <v>2.6638146316817166</v>
       </c>
       <c r="J414" t="n">
-        <v>2.512046249830104</v>
+        <v>2.4143604179605154</v>
       </c>
       <c r="K414" t="n">
-        <v>2.4197527356008552</v>
+        <v>2.402308701257164</v>
       </c>
       <c r="L414" t="n">
-        <v>2.5947730563821074</v>
+        <v>2.6330471673144364</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.949322995305739</v>
+        <v>6.880517817134394</v>
       </c>
       <c r="C416" t="n">
-        <v>6.379081596741609</v>
+        <v>6.365337612622589</v>
       </c>
       <c r="D416" t="n">
-        <v>6.7226675302081285</v>
+        <v>6.649306905148168</v>
       </c>
       <c r="E416" t="n">
-        <v>6.475674222899501</v>
+        <v>6.513452731928636</v>
       </c>
       <c r="F416" t="n">
-        <v>6.944058683465189</v>
+        <v>6.985212245963088</v>
       </c>
       <c r="G416" t="n">
-        <v>7.232458197344774</v>
+        <v>7.218052651410775</v>
       </c>
       <c r="H416" t="n">
-        <v>6.949322995305739</v>
+        <v>7.006534623424475</v>
       </c>
       <c r="I416" t="n">
-        <v>6.379081596741609</v>
+        <v>7.058243371979901</v>
       </c>
       <c r="J416" t="n">
-        <v>6.7226675302081285</v>
+        <v>6.397270746606732</v>
       </c>
       <c r="K416" t="n">
-        <v>6.475674222899501</v>
+        <v>6.365337612622589</v>
       </c>
       <c r="L416" t="n">
-        <v>6.944058683465189</v>
+        <v>6.976719586931133</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.5262076284718449</v>
+        <v>1.5417811757011495</v>
       </c>
       <c r="C420" t="n">
-        <v>1.694089631630954</v>
+        <v>1.698125510453714</v>
       </c>
       <c r="D420" t="n">
-        <v>1.5163644056726175</v>
+        <v>1.5332771429771754</v>
       </c>
       <c r="E420" t="n">
-        <v>1.5417329885323854</v>
+        <v>1.5495158643939002</v>
       </c>
       <c r="F420" t="n">
-        <v>1.6865865965926023</v>
+        <v>1.7096134449893543</v>
       </c>
       <c r="G420" t="n">
-        <v>1.6652413865555074</v>
+        <v>1.6665656238716704</v>
       </c>
       <c r="H420" t="n">
-        <v>1.5262076284718449</v>
+        <v>1.5050522261178316</v>
       </c>
       <c r="I420" t="n">
-        <v>1.694089631630954</v>
+        <v>1.6685663028365492</v>
       </c>
       <c r="J420" t="n">
-        <v>1.5163644056726175</v>
+        <v>1.6105628391945217</v>
       </c>
       <c r="K420" t="n">
-        <v>1.5417329885323854</v>
+        <v>1.5417811757011495</v>
       </c>
       <c r="L420" t="n">
-        <v>1.6865865965926023</v>
+        <v>1.6970888029367905</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.9035056042178242</v>
+        <v>1.9229291307914755</v>
       </c>
       <c r="C423" t="n">
-        <v>2.1128901780458627</v>
+        <v>2.1179237775468427</v>
       </c>
       <c r="D423" t="n">
-        <v>1.891229011300611</v>
+        <v>1.9123227928027546</v>
       </c>
       <c r="E423" t="n">
-        <v>1.9228690311404955</v>
+        <v>1.9325759330999355</v>
       </c>
       <c r="F423" t="n">
-        <v>2.103532297127363</v>
+        <v>2.1322516759019137</v>
       </c>
       <c r="G423" t="n">
-        <v>2.0769102791457734</v>
+        <v>2.0785618848025704</v>
       </c>
       <c r="H423" t="n">
-        <v>1.9035056042178242</v>
+        <v>1.8771203167974828</v>
       </c>
       <c r="I423" t="n">
-        <v>2.1128901780458627</v>
+        <v>2.081057157104217</v>
       </c>
       <c r="J423" t="n">
-        <v>1.891229011300611</v>
+        <v>2.008714498053826</v>
       </c>
       <c r="K423" t="n">
-        <v>1.9228690311404955</v>
+        <v>1.9229291307914755</v>
       </c>
       <c r="L423" t="n">
-        <v>2.103532297127363</v>
+        <v>2.1166307827199367</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.0624467409841283</v>
+        <v>3.032125486122899</v>
       </c>
       <c r="C425" t="n">
-        <v>3.2927902840580274</v>
+        <v>3.2791730950393436</v>
       </c>
       <c r="D425" t="n">
-        <v>3.1511648374029773</v>
+        <v>3.106120781553519</v>
       </c>
       <c r="E425" t="n">
-        <v>3.1775663065836763</v>
+        <v>3.1622449303862292</v>
       </c>
       <c r="F425" t="n">
-        <v>3.2293009670827972</v>
+        <v>3.178397144275659</v>
       </c>
       <c r="G425" t="n">
-        <v>3.3566305815909074</v>
+        <v>3.2446904811539996</v>
       </c>
       <c r="H425" t="n">
-        <v>3.0624467409841283</v>
+        <v>3.522223754233382</v>
       </c>
       <c r="I425" t="n">
-        <v>3.2927902840580274</v>
+        <v>3.106120781553519</v>
       </c>
       <c r="J425" t="n">
-        <v>3.1511648374029773</v>
+        <v>2.9725773716847392</v>
       </c>
       <c r="K425" t="n">
-        <v>3.1775663065836763</v>
+        <v>3.408603634428231</v>
       </c>
       <c r="L425" t="n">
-        <v>3.2293009670827972</v>
+        <v>3.444240942616134</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.3380119723061017</v>
+        <v>2.361628254854648</v>
       </c>
       <c r="C428" t="n">
-        <v>2.595192008625104</v>
+        <v>2.601109190448636</v>
       </c>
       <c r="D428" t="n">
-        <v>2.322933045742412</v>
+        <v>2.3486021754877027</v>
       </c>
       <c r="E428" t="n">
-        <v>2.361795418947796</v>
+        <v>2.3734758890372345</v>
       </c>
       <c r="F428" t="n">
-        <v>2.583698037935243</v>
+        <v>2.618705870974295</v>
       </c>
       <c r="G428" t="n">
-        <v>2.5509991077981384</v>
+        <v>2.552767233076983</v>
       </c>
       <c r="H428" t="n">
-        <v>2.3380119723061017</v>
+        <v>2.3053685686721077</v>
       </c>
       <c r="I428" t="n">
-        <v>2.595192008625104</v>
+        <v>2.5558317794904535</v>
       </c>
       <c r="J428" t="n">
-        <v>2.322933045742412</v>
+        <v>2.466984788247256</v>
       </c>
       <c r="K428" t="n">
-        <v>2.361795418947796</v>
+        <v>2.361628254854648</v>
       </c>
       <c r="L428" t="n">
-        <v>2.583698037935243</v>
+        <v>2.599521210388578</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>8.213729131531034</v>
+        <v>8.051081029916556</v>
       </c>
       <c r="C429" t="n">
-        <v>9.067717470554038</v>
+        <v>8.882927043040004</v>
       </c>
       <c r="D429" t="n">
-        <v>8.977692046185853</v>
+        <v>8.6592562153035</v>
       </c>
       <c r="E429" t="n">
-        <v>9.429502779148581</v>
+        <v>9.084049913869412</v>
       </c>
       <c r="F429" t="n">
-        <v>9.271232330383489</v>
+        <v>8.882927043040004</v>
       </c>
       <c r="G429" t="n">
-        <v>8.246907678937882</v>
+        <v>8.010892602784269</v>
       </c>
       <c r="H429" t="n">
-        <v>8.213729131531034</v>
+        <v>8.155640524819889</v>
       </c>
       <c r="I429" t="n">
-        <v>9.067717470554038</v>
+        <v>8.971204576436746</v>
       </c>
       <c r="J429" t="n">
-        <v>8.977692046185853</v>
+        <v>8.669651480580367</v>
       </c>
       <c r="K429" t="n">
-        <v>9.429502779148581</v>
+        <v>8.823237243188233</v>
       </c>
       <c r="L429" t="n">
-        <v>9.271232330383489</v>
+        <v>8.368273097481044</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.5770492872118946</v>
       </c>
       <c r="C446" t="n">
-        <v>1.473719915518517</v>
+        <v>1.4572180320570685</v>
       </c>
       <c r="D446" t="n">
-        <v>1.619718579053667</v>
+        <v>1.61584508823228</v>
       </c>
       <c r="E446" t="n">
-        <v>1.4167297451003604</v>
+        <v>1.394566938101268</v>
       </c>
       <c r="F446" t="n">
-        <v>1.455857398506146</v>
+        <v>1.4645284909036675</v>
       </c>
       <c r="G446" t="n">
-        <v>1.5403185629578602</v>
+        <v>1.5384044924157065</v>
       </c>
       <c r="H446" t="n">
-        <v>1.5770492872118946</v>
+        <v>1.449180425926002</v>
       </c>
       <c r="I446" t="n">
-        <v>1.473719915518517</v>
+        <v>1.522227179851237</v>
       </c>
       <c r="J446" t="n">
-        <v>1.619718579053667</v>
+        <v>1.6040073939266946</v>
       </c>
       <c r="K446" t="n">
-        <v>1.4167297451003604</v>
+        <v>1.6524302590195947</v>
       </c>
       <c r="L446" t="n">
-        <v>1.455857398506146</v>
+        <v>1.604987240425951</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7394562981667684</v>
+        <v>0.7470017705970416</v>
       </c>
       <c r="C447" t="n">
-        <v>0.6910066046132043</v>
+        <v>0.6902412365418408</v>
       </c>
       <c r="D447" t="n">
-        <v>0.7594633308236209</v>
+        <v>0.7653781982007685</v>
       </c>
       <c r="E447" t="n">
-        <v>0.6642847127921777</v>
+        <v>0.6605652597069225</v>
       </c>
       <c r="F447" t="n">
-        <v>0.6826311208455026</v>
+        <v>0.6937039854530944</v>
       </c>
       <c r="G447" t="n">
-        <v>0.7222337765841419</v>
+        <v>0.7286968701914571</v>
       </c>
       <c r="H447" t="n">
-        <v>0.7394562981667684</v>
+        <v>0.6864340593914785</v>
       </c>
       <c r="I447" t="n">
-        <v>0.6910066046132043</v>
+        <v>0.7210341539864836</v>
       </c>
       <c r="J447" t="n">
-        <v>0.7594633308236209</v>
+        <v>0.7597710312734164</v>
       </c>
       <c r="K447" t="n">
-        <v>0.6642847127921777</v>
+        <v>0.7827075154119225</v>
       </c>
       <c r="L447" t="n">
-        <v>0.6826311208455026</v>
+        <v>0.7602351556833464</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.8262450793721126</v>
       </c>
       <c r="C449" t="n">
-        <v>1.7065882251825655</v>
+        <v>1.6874788138812096</v>
       </c>
       <c r="D449" t="n">
-        <v>1.875656714695251</v>
+        <v>1.8711711582767465</v>
       </c>
       <c r="E449" t="n">
-        <v>1.64059281264683</v>
+        <v>1.6149279729012551</v>
       </c>
       <c r="F449" t="n">
-        <v>1.6859031812441385</v>
+        <v>1.6959444272293864</v>
       </c>
       <c r="G449" t="n">
-        <v>1.7837103881772067</v>
+        <v>1.781493867782109</v>
       </c>
       <c r="H449" t="n">
-        <v>1.8262450793721126</v>
+        <v>1.6781711538316355</v>
       </c>
       <c r="I449" t="n">
-        <v>1.7065882251825655</v>
+        <v>1.7627603141082362</v>
       </c>
       <c r="J449" t="n">
-        <v>1.875656714695251</v>
+        <v>1.8574629430979386</v>
       </c>
       <c r="K449" t="n">
-        <v>1.64059281264683</v>
+        <v>1.9135372965262638</v>
       </c>
       <c r="L449" t="n">
-        <v>1.6859031812441385</v>
+        <v>1.8585976190160074</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>1.2973560277463745</v>
+        <v>1.271408907191447</v>
       </c>
       <c r="C450" t="n">
-        <v>1.2123523539254704</v>
+        <v>1.174801574497915</v>
       </c>
       <c r="D450" t="n">
-        <v>1.3324578241324976</v>
+        <v>1.3026858795593483</v>
       </c>
       <c r="E450" t="n">
-        <v>1.1654695191822375</v>
+        <v>1.1242925894290225</v>
       </c>
       <c r="F450" t="n">
-        <v>1.197657794722637</v>
+        <v>1.1806952282781686</v>
       </c>
       <c r="G450" t="n">
-        <v>1.2671395805491483</v>
+        <v>1.2402536752536275</v>
       </c>
       <c r="H450" t="n">
-        <v>1.2973560277463745</v>
+        <v>1.1683216983707705</v>
       </c>
       <c r="I450" t="n">
-        <v>1.2123523539254704</v>
+        <v>1.227211610268297</v>
       </c>
       <c r="J450" t="n">
-        <v>1.3324578241324976</v>
+        <v>1.2931423921726357</v>
       </c>
       <c r="K450" t="n">
-        <v>1.1654695191822375</v>
+        <v>1.332180653367177</v>
       </c>
       <c r="L450" t="n">
-        <v>1.197657794722637</v>
+        <v>1.2939323393080469</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.872346926129497</v>
+        <v>2.843907847652967</v>
       </c>
       <c r="C452" t="n">
-        <v>2.6841487476901396</v>
+        <v>2.6278150154933555</v>
       </c>
       <c r="D452" t="n">
-        <v>2.950062321745645</v>
+        <v>2.913868681390076</v>
       </c>
       <c r="E452" t="n">
-        <v>2.5803501269700546</v>
+        <v>2.514835707104115</v>
       </c>
       <c r="F452" t="n">
-        <v>2.6516149859050993</v>
+        <v>2.640998034852594</v>
       </c>
       <c r="G452" t="n">
-        <v>2.8054476961808197</v>
+        <v>2.7742193248636022</v>
       </c>
       <c r="H452" t="n">
-        <v>2.872346926129497</v>
+        <v>2.6133207245806758</v>
       </c>
       <c r="I452" t="n">
-        <v>2.6841487476901396</v>
+        <v>2.7450466246004632</v>
       </c>
       <c r="J452" t="n">
-        <v>2.950062321745645</v>
+        <v>2.892521655646011</v>
       </c>
       <c r="K452" t="n">
-        <v>2.5803501269700546</v>
+        <v>2.9798430647866225</v>
       </c>
       <c r="L452" t="n">
-        <v>2.6516149859050993</v>
+        <v>2.8942886220758663</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>1.2509468995442645</v>
+        <v>1.2637116638253283</v>
       </c>
       <c r="C453" t="n">
-        <v>1.1689839842442558</v>
+        <v>1.1676892020938352</v>
       </c>
       <c r="D453" t="n">
-        <v>1.2847930315377554</v>
+        <v>1.2947992821099688</v>
       </c>
       <c r="E453" t="n">
-        <v>1.1237782461819212</v>
+        <v>1.117486003737661</v>
       </c>
       <c r="F453" t="n">
-        <v>1.1548150800407693</v>
+        <v>1.1735471750736746</v>
       </c>
       <c r="G453" t="n">
-        <v>1.2218113576203766</v>
+        <v>1.2327450489413905</v>
       </c>
       <c r="H453" t="n">
-        <v>1.2509468995442645</v>
+        <v>1.161248555818905</v>
       </c>
       <c r="I453" t="n">
-        <v>1.1689839842442558</v>
+        <v>1.2197819419904274</v>
       </c>
       <c r="J453" t="n">
-        <v>1.2847930315377554</v>
+        <v>1.285313572000544</v>
       </c>
       <c r="K453" t="n">
-        <v>1.1237782461819212</v>
+        <v>1.3241154914522322</v>
       </c>
       <c r="L453" t="n">
-        <v>1.1548150800407693</v>
+        <v>1.2860987367128391</v>
       </c>
     </row>
     <row r="454">
@@ -17396,34 +17396,34 @@
         <v>2.54325812044532</v>
       </c>
       <c r="C456" t="n">
-        <v>2.341174176184355</v>
+        <v>2.359442739780708</v>
       </c>
       <c r="D456" t="n">
-        <v>2.5919957666959363</v>
+        <v>2.5698481506043707</v>
       </c>
       <c r="E456" t="n">
-        <v>2.4653522683491675</v>
+        <v>2.4466862377513023</v>
       </c>
       <c r="F456" t="n">
-        <v>2.5649185270920607</v>
+        <v>2.505139743092099</v>
       </c>
       <c r="G456" t="n">
-        <v>2.5710432819830165</v>
+        <v>2.5081471136488274</v>
       </c>
       <c r="H456" t="n">
-        <v>2.54325812044532</v>
+        <v>2.5953870135084944</v>
       </c>
       <c r="I456" t="n">
-        <v>2.341174176184355</v>
+        <v>2.540166013393072</v>
       </c>
       <c r="J456" t="n">
-        <v>2.5919957666959363</v>
+        <v>2.5698481506043707</v>
       </c>
       <c r="K456" t="n">
-        <v>2.4653522683491675</v>
+        <v>2.262356845161559</v>
       </c>
       <c r="L456" t="n">
-        <v>2.5649185270920607</v>
+        <v>2.3714943754483295</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.6772169828611099</v>
+        <v>1.6436726432038875</v>
       </c>
       <c r="C458" t="n">
-        <v>1.5439475280018835</v>
+        <v>1.524875298109545</v>
       </c>
       <c r="D458" t="n">
-        <v>1.7093582772657443</v>
+        <v>1.6608574129301885</v>
       </c>
       <c r="E458" t="n">
-        <v>1.6258399648740194</v>
+        <v>1.5812595674681624</v>
       </c>
       <c r="F458" t="n">
-        <v>1.6915014951532517</v>
+        <v>1.6190372617004793</v>
       </c>
       <c r="G458" t="n">
-        <v>1.6955406223013736</v>
+        <v>1.620980883809589</v>
       </c>
       <c r="H458" t="n">
-        <v>1.6772169828611099</v>
+        <v>1.6773628277587442</v>
       </c>
       <c r="I458" t="n">
-        <v>1.5439475280018835</v>
+        <v>1.641674257066523</v>
       </c>
       <c r="J458" t="n">
-        <v>1.7093582772657443</v>
+        <v>1.6608574129301885</v>
       </c>
       <c r="K458" t="n">
-        <v>1.6258399648740194</v>
+        <v>1.462130023556552</v>
       </c>
       <c r="L458" t="n">
-        <v>1.6915014951532517</v>
+        <v>1.532664104009145</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.014126950667989</v>
       </c>
       <c r="C460" t="n">
-        <v>2.04145658948231</v>
+        <v>2.027752656431965</v>
       </c>
       <c r="D460" t="n">
-        <v>1.807300079824471</v>
+        <v>1.8286887505638858</v>
       </c>
       <c r="E460" t="n">
-        <v>1.8174327996369068</v>
+        <v>1.8186022160920363</v>
       </c>
       <c r="F460" t="n">
-        <v>1.7780428358724534</v>
+        <v>1.750066781711522</v>
       </c>
       <c r="G460" t="n">
-        <v>1.8364593691977957</v>
+        <v>1.8286887505638858</v>
       </c>
       <c r="H460" t="n">
-        <v>2.014126950667989</v>
+        <v>2.027752656431965</v>
       </c>
       <c r="I460" t="n">
-        <v>2.04145658948231</v>
+        <v>1.930571079419207</v>
       </c>
       <c r="J460" t="n">
-        <v>1.807300079824471</v>
+        <v>2.004331804672831</v>
       </c>
       <c r="K460" t="n">
-        <v>1.8174327996369068</v>
+        <v>1.8378627750133119</v>
       </c>
       <c r="L460" t="n">
-        <v>1.7780428358724534</v>
+        <v>1.976694135641298</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>1.7147614524167374</v>
+        <v>1.7320822751684215</v>
       </c>
       <c r="C461" t="n">
-        <v>1.5785087634012946</v>
+        <v>1.6068950752562228</v>
       </c>
       <c r="D461" t="n">
-        <v>1.7476222290717809</v>
+        <v>1.7501913768614188</v>
       </c>
       <c r="E461" t="n">
-        <v>1.6622343608807941</v>
+        <v>1.6663121337308455</v>
       </c>
       <c r="F461" t="n">
-        <v>1.7293657232388426</v>
+        <v>1.706121809244446</v>
       </c>
       <c r="G461" t="n">
-        <v>1.7334952661696532</v>
+        <v>1.7081699746250245</v>
       </c>
       <c r="H461" t="n">
-        <v>1.7147614524167374</v>
+        <v>1.7675845826113894</v>
       </c>
       <c r="I461" t="n">
-        <v>1.5785087634012946</v>
+        <v>1.7299764001197717</v>
       </c>
       <c r="J461" t="n">
-        <v>1.7476222290717809</v>
+        <v>1.7501913768614188</v>
       </c>
       <c r="K461" t="n">
-        <v>1.6622343608807941</v>
+        <v>1.540774866738319</v>
       </c>
       <c r="L461" t="n">
-        <v>1.7293657232388426</v>
+        <v>1.6151028243473848</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>2.097198258646985</v>
+        <v>2.076226276060515</v>
       </c>
       <c r="C466" t="n">
-        <v>1.9305576441542642</v>
+        <v>1.9261658790398977</v>
       </c>
       <c r="D466" t="n">
-        <v>2.1373878508970425</v>
+        <v>2.0979334393459292</v>
       </c>
       <c r="E466" t="n">
-        <v>2.032956247173194</v>
+        <v>1.997388395325529</v>
       </c>
       <c r="F466" t="n">
-        <v>2.1150596651381104</v>
+        <v>2.0451077765164385</v>
       </c>
       <c r="G466" t="n">
-        <v>2.120110204518558</v>
+        <v>2.0475628878248555</v>
       </c>
       <c r="H466" t="n">
-        <v>2.097198258646985</v>
+        <v>2.1187824667395643</v>
       </c>
       <c r="I466" t="n">
-        <v>1.9305576441542642</v>
+        <v>2.0737019888642374</v>
       </c>
       <c r="J466" t="n">
-        <v>2.1373878508970425</v>
+        <v>2.0979334393459292</v>
       </c>
       <c r="K466" t="n">
-        <v>2.032956247173194</v>
+        <v>1.846908377088887</v>
       </c>
       <c r="L466" t="n">
-        <v>2.1150596651381104</v>
+        <v>1.936004409561622</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>3.122044957080739</v>
+        <v>3.090824507509932</v>
       </c>
       <c r="C468" t="n">
-        <v>3.2244127472522033</v>
+        <v>3.211866174279337</v>
       </c>
       <c r="D468" t="n">
-        <v>3.13368415035735</v>
+        <v>3.152741406035321</v>
       </c>
       <c r="E468" t="n">
-        <v>3.55422322583239</v>
+        <v>3.5398865505039763</v>
       </c>
       <c r="F468" t="n">
-        <v>3.5093748076850715</v>
+        <v>3.5571859345119763</v>
       </c>
       <c r="G468" t="n">
-        <v>3.2903158888081347</v>
+        <v>3.28803691459419</v>
       </c>
       <c r="H468" t="n">
-        <v>3.122044957080739</v>
+        <v>3.3737620941220667</v>
       </c>
       <c r="I468" t="n">
-        <v>3.2244127472522033</v>
+        <v>3.55501426853399</v>
       </c>
       <c r="J468" t="n">
-        <v>3.13368415035735</v>
+        <v>3.2296801847315253</v>
       </c>
       <c r="K468" t="n">
-        <v>3.55422322583239</v>
+        <v>3.5812505392159335</v>
       </c>
       <c r="L468" t="n">
-        <v>3.5093748076850715</v>
+        <v>3.544195602790032</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.4743445788372926</v>
       </c>
       <c r="C471" t="n">
-        <v>1.4986354683561378</v>
+        <v>1.4899591538002441</v>
       </c>
       <c r="D471" t="n">
-        <v>1.649445444041944</v>
+        <v>1.6602401999940013</v>
       </c>
       <c r="E471" t="n">
-        <v>1.6204939641411913</v>
+        <v>1.632856885651763</v>
       </c>
       <c r="F471" t="n">
-        <v>1.626400989846075</v>
+        <v>1.6249159405296825</v>
       </c>
       <c r="G471" t="n">
-        <v>1.5151334532330862</v>
+        <v>1.5170185701347612</v>
       </c>
       <c r="H471" t="n">
-        <v>1.4743445788372926</v>
+        <v>1.6439032735029324</v>
       </c>
       <c r="I471" t="n">
-        <v>1.4986354683561378</v>
+        <v>1.6268939270126646</v>
       </c>
       <c r="J471" t="n">
-        <v>1.649445444041944</v>
+        <v>1.6811237239390113</v>
       </c>
       <c r="K471" t="n">
-        <v>1.6204939641411913</v>
+        <v>1.6318600247030317</v>
       </c>
       <c r="L471" t="n">
-        <v>1.626400989846075</v>
+        <v>1.4825217532002402</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5.884155549657701</v>
+        <v>6.001838660650855</v>
       </c>
       <c r="C473" t="n">
-        <v>6.077089350715724</v>
+        <v>6.236880331053393</v>
       </c>
       <c r="D473" t="n">
-        <v>5.9060920767268525</v>
+        <v>6.122070409303794</v>
       </c>
       <c r="E473" t="n">
-        <v>6.698687112615819</v>
+        <v>6.87383832421113</v>
       </c>
       <c r="F473" t="n">
-        <v>6.614160761406044</v>
+        <v>6.90743069139095</v>
       </c>
       <c r="G473" t="n">
-        <v>6.2012977914836</v>
+        <v>6.38479053848228</v>
       </c>
       <c r="H473" t="n">
-        <v>5.884155549657701</v>
+        <v>6.551253789770574</v>
       </c>
       <c r="I473" t="n">
-        <v>6.077089350715724</v>
+        <v>6.903213697254587</v>
       </c>
       <c r="J473" t="n">
-        <v>5.9060920767268525</v>
+        <v>6.271472012455362</v>
       </c>
       <c r="K473" t="n">
-        <v>6.698687112615819</v>
+        <v>6.954159929662019</v>
       </c>
       <c r="L473" t="n">
-        <v>6.614160761406044</v>
+        <v>6.882205747381994</v>
       </c>
     </row>
     <row r="474">
@@ -18118,34 +18118,34 @@
         <v>1.9488175233309086</v>
       </c>
       <c r="C475" t="n">
-        <v>2.0127167131418555</v>
+        <v>2.025136356923773</v>
       </c>
       <c r="D475" t="n">
-        <v>1.9560828459405177</v>
+        <v>1.9878571829891634</v>
       </c>
       <c r="E475" t="n">
-        <v>2.218588328980538</v>
+        <v>2.2319587939928955</v>
       </c>
       <c r="F475" t="n">
-        <v>2.1905934139871</v>
+        <v>2.242866350412131</v>
       </c>
       <c r="G475" t="n">
-        <v>2.0538542364230215</v>
+        <v>2.073163306732795</v>
       </c>
       <c r="H475" t="n">
-        <v>1.9488175233309086</v>
+        <v>2.127214493284698</v>
       </c>
       <c r="I475" t="n">
-        <v>2.0127167131418555</v>
+        <v>2.2414970780052257</v>
       </c>
       <c r="J475" t="n">
-        <v>1.9560828459405177</v>
+        <v>2.0363683940859194</v>
       </c>
       <c r="K475" t="n">
-        <v>2.218588328980538</v>
+        <v>2.258039493767619</v>
       </c>
       <c r="L475" t="n">
-        <v>2.1905934139871</v>
+        <v>2.2346757248906575</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.858276065025636</v>
+        <v>4.810645907525385</v>
       </c>
       <c r="C482" t="n">
-        <v>4.1322165694199215</v>
+        <v>4.059940016789245</v>
       </c>
       <c r="D482" t="n">
-        <v>4.757198529030164</v>
+        <v>4.655463783250557</v>
       </c>
       <c r="E482" t="n">
-        <v>4.784219525190499</v>
+        <v>4.750886332682565</v>
       </c>
       <c r="F482" t="n">
-        <v>4.3656696536297135</v>
+        <v>4.242333329363465</v>
       </c>
       <c r="G482" t="n">
-        <v>4.144654890380087</v>
+        <v>4.1412707081396976</v>
       </c>
       <c r="H482" t="n">
-        <v>4.858276065025636</v>
+        <v>4.591192673990946</v>
       </c>
       <c r="I482" t="n">
-        <v>4.1322165694199215</v>
+        <v>4.26361593947095</v>
       </c>
       <c r="J482" t="n">
-        <v>4.757198529030164</v>
+        <v>4.585687646956093</v>
       </c>
       <c r="K482" t="n">
-        <v>4.784219525190499</v>
+        <v>4.318987575582467</v>
       </c>
       <c r="L482" t="n">
-        <v>4.3656696536297135</v>
+        <v>4.4786878206582905</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>2.146725535684336</v>
       </c>
       <c r="C484" t="n">
-        <v>1.825901762234432</v>
+        <v>1.811726964513065</v>
       </c>
       <c r="D484" t="n">
-        <v>2.1020624237694747</v>
+        <v>2.0774763256476163</v>
       </c>
       <c r="E484" t="n">
-        <v>2.114002186286184</v>
+        <v>2.1200581384610158</v>
       </c>
       <c r="F484" t="n">
-        <v>1.9290576328662465</v>
+        <v>1.8931190247826903</v>
       </c>
       <c r="G484" t="n">
-        <v>1.8313978807894165</v>
+        <v>1.8480203594777114</v>
       </c>
       <c r="H484" t="n">
-        <v>2.146725535684336</v>
+        <v>2.048795679824457</v>
       </c>
       <c r="I484" t="n">
-        <v>1.825901762234432</v>
+        <v>1.9026162780542897</v>
       </c>
       <c r="J484" t="n">
-        <v>2.1020624237694747</v>
+        <v>2.0463390903482153</v>
       </c>
       <c r="K484" t="n">
-        <v>2.114002186286184</v>
+        <v>1.9273255806049656</v>
       </c>
       <c r="L484" t="n">
-        <v>1.9290576328662465</v>
+        <v>1.9985909783809725</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.92844640539598</v>
+        <v>2.9876069388383226</v>
       </c>
       <c r="C485" t="n">
-        <v>2.49079603486296</v>
+        <v>2.5213880211911897</v>
       </c>
       <c r="D485" t="n">
-        <v>2.8675194133950304</v>
+        <v>2.8912325225584024</v>
       </c>
       <c r="E485" t="n">
-        <v>2.883806989073489</v>
+        <v>2.9504938101868987</v>
       </c>
       <c r="F485" t="n">
-        <v>2.631515672061914</v>
+        <v>2.634661693109553</v>
       </c>
       <c r="G485" t="n">
-        <v>2.49829354134827</v>
+        <v>2.5718976913041005</v>
       </c>
       <c r="H485" t="n">
-        <v>2.92844640539598</v>
+        <v>2.8513175473800225</v>
       </c>
       <c r="I485" t="n">
-        <v>2.49079603486296</v>
+        <v>2.6478790603521194</v>
       </c>
       <c r="J485" t="n">
-        <v>2.8675194133950304</v>
+        <v>2.847898701494465</v>
       </c>
       <c r="K485" t="n">
-        <v>2.883806989073489</v>
+        <v>2.6822671004285707</v>
       </c>
       <c r="L485" t="n">
-        <v>2.631515672061914</v>
+        <v>2.781447453648154</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.913750278225466</v>
+        <v>1.9332783422889914</v>
       </c>
       <c r="C486" t="n">
-        <v>1.6277441840624443</v>
+        <v>1.6315884096089301</v>
       </c>
       <c r="D486" t="n">
-        <v>1.8739342694098662</v>
+        <v>1.8709145255088766</v>
       </c>
       <c r="E486" t="n">
-        <v>1.88457825880603</v>
+        <v>1.9092624629229187</v>
       </c>
       <c r="F486" t="n">
-        <v>1.719704974037998</v>
+        <v>1.7048877227898236</v>
       </c>
       <c r="G486" t="n">
-        <v>1.632643831566944</v>
+        <v>1.6642731815031278</v>
       </c>
       <c r="H486" t="n">
-        <v>1.913750278225466</v>
+        <v>1.8450855732319853</v>
       </c>
       <c r="I486" t="n">
-        <v>1.6277441840624443</v>
+        <v>1.713440671807297</v>
       </c>
       <c r="J486" t="n">
-        <v>1.8739342694098662</v>
+        <v>1.8428732404715242</v>
       </c>
       <c r="K486" t="n">
-        <v>1.88457825880603</v>
+        <v>1.7356931482791247</v>
       </c>
       <c r="L486" t="n">
-        <v>1.719704974037998</v>
+        <v>1.7998726848732354</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>1.8815036607204336</v>
       </c>
       <c r="C491" t="n">
-        <v>1.6003167580828261</v>
+        <v>1.5878932165730253</v>
       </c>
       <c r="D491" t="n">
-        <v>1.8423585500995785</v>
+        <v>1.8208099949395626</v>
       </c>
       <c r="E491" t="n">
-        <v>1.852823188689793</v>
+        <v>1.8581309450828158</v>
       </c>
       <c r="F491" t="n">
-        <v>1.6907280123360118</v>
+        <v>1.6592295177467384</v>
       </c>
       <c r="G491" t="n">
-        <v>1.6051338467180811</v>
+        <v>1.619702665126581</v>
       </c>
       <c r="H491" t="n">
-        <v>1.8815036607204336</v>
+        <v>1.7956727618787476</v>
       </c>
       <c r="I491" t="n">
-        <v>1.6003167580828261</v>
+        <v>1.6675534122084525</v>
       </c>
       <c r="J491" t="n">
-        <v>1.8423585500995785</v>
+        <v>1.7935196770918924</v>
       </c>
       <c r="K491" t="n">
-        <v>1.852823188689793</v>
+        <v>1.689209950238185</v>
       </c>
       <c r="L491" t="n">
-        <v>1.6907280123360118</v>
+        <v>1.7516707094593262</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>1.3923357563252827</v>
       </c>
       <c r="C494" t="n">
-        <v>1.3898215749987148</v>
+        <v>1.4061726330251523</v>
       </c>
       <c r="D494" t="n">
-        <v>1.4134034227924053</v>
+        <v>1.4238603386069741</v>
       </c>
       <c r="E494" t="n">
-        <v>1.3654566584967989</v>
+        <v>1.357276941860695</v>
       </c>
       <c r="F494" t="n">
-        <v>1.3243966164297503</v>
+        <v>1.3256070139898974</v>
       </c>
       <c r="G494" t="n">
-        <v>1.239530136175603</v>
+        <v>1.248724731769226</v>
       </c>
       <c r="H494" t="n">
-        <v>1.3923357563252827</v>
+        <v>1.2556505481689815</v>
       </c>
       <c r="I494" t="n">
-        <v>1.3898215749987148</v>
+        <v>1.3829798039214363</v>
       </c>
       <c r="J494" t="n">
-        <v>1.4134034227924053</v>
+        <v>1.3779293604674159</v>
       </c>
       <c r="K494" t="n">
-        <v>1.3654566584967989</v>
+        <v>1.3116674037582</v>
       </c>
       <c r="L494" t="n">
-        <v>1.3243966164297503</v>
+        <v>1.2016655721815948</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>6.21680411007426</v>
+        <v>6.155855050171571</v>
       </c>
       <c r="C496" t="n">
-        <v>6.205578245383597</v>
+        <v>6.217031247740683</v>
       </c>
       <c r="D496" t="n">
-        <v>6.310871618494896</v>
+        <v>6.295232896471714</v>
       </c>
       <c r="E496" t="n">
-        <v>6.096788456453305</v>
+        <v>6.000851503724947</v>
       </c>
       <c r="F496" t="n">
-        <v>5.913454632609011</v>
+        <v>5.860831049221535</v>
       </c>
       <c r="G496" t="n">
-        <v>5.534524277014337</v>
+        <v>5.520915778693737</v>
       </c>
       <c r="H496" t="n">
-        <v>6.21680411007426</v>
+        <v>5.551536497631184</v>
       </c>
       <c r="I496" t="n">
-        <v>6.205578245383597</v>
+        <v>6.114490108854264</v>
       </c>
       <c r="J496" t="n">
-        <v>6.310871618494896</v>
+        <v>6.092160869875234</v>
       </c>
       <c r="K496" t="n">
-        <v>6.096788456453305</v>
+        <v>5.79920064171933</v>
       </c>
       <c r="L496" t="n">
-        <v>5.913454632609011</v>
+        <v>5.312855787496705</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>4.62683654348557</v>
+        <v>4.581915800344933</v>
       </c>
       <c r="C505" t="n">
-        <v>4.618481729651431</v>
+        <v>4.62745036604903</v>
       </c>
       <c r="D505" t="n">
-        <v>4.696845985283799</v>
+        <v>4.685657287266864</v>
       </c>
       <c r="E505" t="n">
-        <v>4.537515277746491</v>
+        <v>4.46654381825879</v>
       </c>
       <c r="F505" t="n">
-        <v>4.401069666657486</v>
+        <v>4.362324026266973</v>
       </c>
       <c r="G505" t="n">
-        <v>4.119051963403767</v>
+        <v>4.109318857023029</v>
       </c>
       <c r="H505" t="n">
-        <v>4.62683654348557</v>
+        <v>4.132110419653065</v>
       </c>
       <c r="I505" t="n">
-        <v>4.618481729651431</v>
+        <v>4.551127115969263</v>
       </c>
       <c r="J505" t="n">
-        <v>4.696845985283799</v>
+        <v>4.534507053922018</v>
       </c>
       <c r="K505" t="n">
-        <v>4.537515277746491</v>
+        <v>4.31645138378034</v>
       </c>
       <c r="L505" t="n">
-        <v>4.401069666657486</v>
+        <v>3.9544559901563483</v>
       </c>
     </row>
     <row r="506">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>0.798598509552785</v>
+        <v>0.8070048096533406</v>
       </c>
       <c r="C508" t="n">
-        <v>0.7971564569077809</v>
+        <v>0.8150247330063443</v>
       </c>
       <c r="D508" t="n">
-        <v>0.810682237894865</v>
+        <v>0.825276616154081</v>
       </c>
       <c r="E508" t="n">
-        <v>0.7831815331759061</v>
+        <v>0.7866845443975393</v>
       </c>
       <c r="F508" t="n">
-        <v>0.7596308283635398</v>
+        <v>0.768328494862073</v>
       </c>
       <c r="G508" t="n">
-        <v>0.7109541752401395</v>
+        <v>0.7237671372675818</v>
       </c>
       <c r="H508" t="n">
-        <v>0.798598509552785</v>
+        <v>0.7277813752988809</v>
       </c>
       <c r="I508" t="n">
-        <v>0.7971564569077809</v>
+        <v>0.8015820525672777</v>
       </c>
       <c r="J508" t="n">
-        <v>0.810682237894865</v>
+        <v>0.7986547901309287</v>
       </c>
       <c r="K508" t="n">
-        <v>0.7831815331759061</v>
+        <v>0.7602490266371367</v>
       </c>
       <c r="L508" t="n">
-        <v>0.7596308283635398</v>
+        <v>0.696491411600884</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.8581486250825714</v>
+        <v>2.82985012384413</v>
       </c>
       <c r="C510" t="n">
-        <v>2.7791654091511417</v>
+        <v>2.7814766158648885</v>
       </c>
       <c r="D510" t="n">
-        <v>2.4399779668479806</v>
+        <v>2.4182901788819606</v>
       </c>
       <c r="E510" t="n">
-        <v>2.814992589612022</v>
+        <v>2.802004120925908</v>
       </c>
       <c r="F510" t="n">
-        <v>2.736429748019126</v>
+        <v>2.7347291110097873</v>
       </c>
       <c r="G510" t="n">
-        <v>2.5042596002385236</v>
+        <v>2.5396090854320668</v>
       </c>
       <c r="H510" t="n">
-        <v>2.8581486250825714</v>
+        <v>2.7314500594085787</v>
       </c>
       <c r="I510" t="n">
-        <v>2.7791654091511417</v>
+        <v>2.585731383076503</v>
       </c>
       <c r="J510" t="n">
-        <v>2.4399779668479806</v>
+        <v>2.5725910219245676</v>
       </c>
       <c r="K510" t="n">
-        <v>2.814992589612022</v>
+        <v>2.7696405469285934</v>
       </c>
       <c r="L510" t="n">
-        <v>2.736429748019126</v>
+        <v>2.466734542917177</v>
       </c>
     </row>
     <row r="511">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>0.973757706449452</v>
+        <v>0.9836940095764872</v>
       </c>
       <c r="C514" t="n">
-        <v>0.9869706007017724</v>
+        <v>0.9903487664337098</v>
       </c>
       <c r="D514" t="n">
-        <v>0.8737643771720166</v>
+        <v>0.8931265075982459</v>
       </c>
       <c r="E514" t="n">
-        <v>0.8786631815901691</v>
+        <v>0.8882002721719962</v>
       </c>
       <c r="F514" t="n">
-        <v>0.8596195553879179</v>
+        <v>0.8547277563400248</v>
       </c>
       <c r="G514" t="n">
-        <v>0.8878618414517372</v>
+        <v>0.8931265075982459</v>
       </c>
       <c r="H514" t="n">
-        <v>0.973757706449452</v>
+        <v>0.9903487664337098</v>
       </c>
       <c r="I514" t="n">
-        <v>0.9869706007017724</v>
+        <v>0.9428855540890555</v>
       </c>
       <c r="J514" t="n">
-        <v>0.8737643771720166</v>
+        <v>0.9789100874730824</v>
       </c>
       <c r="K514" t="n">
-        <v>0.8786631815901691</v>
+        <v>0.8976070756635387</v>
       </c>
       <c r="L514" t="n">
-        <v>0.8596195553879179</v>
+        <v>0.9654119266665055</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.472339555839649</v>
+        <v>0.47731155116427687</v>
       </c>
       <c r="C517" t="n">
-        <v>0.47874871959893084</v>
+        <v>0.48054059626084056</v>
       </c>
       <c r="D517" t="n">
-        <v>0.4238359040328292</v>
+        <v>0.43336606157761204</v>
       </c>
       <c r="E517" t="n">
-        <v>0.42621216158405567</v>
+        <v>0.4309757358769239</v>
       </c>
       <c r="F517" t="n">
-        <v>0.4169746912335044</v>
+        <v>0.41473408115747756</v>
       </c>
       <c r="G517" t="n">
-        <v>0.430674145180751</v>
+        <v>0.43336606157761204</v>
       </c>
       <c r="H517" t="n">
-        <v>0.472339555839649</v>
+        <v>0.48054059626084056</v>
       </c>
       <c r="I517" t="n">
-        <v>0.47874871959893084</v>
+        <v>0.45751032537688957</v>
       </c>
       <c r="J517" t="n">
-        <v>0.4238359040328292</v>
+        <v>0.47499027924679477</v>
       </c>
       <c r="K517" t="n">
-        <v>0.42621216158405567</v>
+        <v>0.4355401389558638</v>
       </c>
       <c r="L517" t="n">
-        <v>0.4169746912335044</v>
+        <v>0.4684406530320068</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.44148702166549214</v>
+        <v>0.4459464865308001</v>
       </c>
       <c r="C518" t="n">
-        <v>0.44876083853382404</v>
+        <v>0.45066944271305936</v>
       </c>
       <c r="D518" t="n">
-        <v>0.4939203269998644</v>
+        <v>0.5021745218939251</v>
       </c>
       <c r="E518" t="n">
-        <v>0.48525091360922296</v>
+        <v>0.49389186328360213</v>
       </c>
       <c r="F518" t="n">
-        <v>0.4870197505709373</v>
+        <v>0.49148995763158804</v>
       </c>
       <c r="G518" t="n">
-        <v>0.453701098979961</v>
+        <v>0.4588541315674575</v>
       </c>
       <c r="H518" t="n">
-        <v>0.44148702166549214</v>
+        <v>0.49723307531896666</v>
       </c>
       <c r="I518" t="n">
-        <v>0.44876083853382404</v>
+        <v>0.4920882411910439</v>
       </c>
       <c r="J518" t="n">
-        <v>0.4939203269998644</v>
+        <v>0.5084911823702728</v>
       </c>
       <c r="K518" t="n">
-        <v>0.48525091360922296</v>
+        <v>0.49359034175055794</v>
       </c>
       <c r="L518" t="n">
-        <v>0.4870197505709373</v>
+        <v>0.4484198446787182</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.5744246916274536</v>
+        <v>2.5489353382450037</v>
       </c>
       <c r="C521" t="n">
-        <v>2.6093569966410537</v>
+        <v>2.566179059113148</v>
       </c>
       <c r="D521" t="n">
-        <v>2.310061910018775</v>
+        <v>2.3142579852861274</v>
       </c>
       <c r="E521" t="n">
-        <v>2.323013389601443</v>
+        <v>2.3014931870457795</v>
       </c>
       <c r="F521" t="n">
-        <v>2.2726657711040645</v>
+        <v>2.2147596320647853</v>
       </c>
       <c r="G521" t="n">
-        <v>2.3473328449656017</v>
+        <v>2.3142579852861274</v>
       </c>
       <c r="H521" t="n">
-        <v>2.5744246916274536</v>
+        <v>2.566179059113148</v>
       </c>
       <c r="I521" t="n">
-        <v>2.6093569966410537</v>
+        <v>2.443192990239961</v>
       </c>
       <c r="J521" t="n">
-        <v>2.310061910018775</v>
+        <v>2.536539300466925</v>
       </c>
       <c r="K521" t="n">
-        <v>2.323013389601443</v>
+        <v>2.325867975959908</v>
       </c>
       <c r="L521" t="n">
-        <v>2.2726657711040645</v>
+        <v>2.501563038797902</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.267943275862779</v>
+        <v>1.2552638431041514</v>
       </c>
       <c r="C522" t="n">
-        <v>1.2851479668356514</v>
+        <v>1.2637557883495203</v>
       </c>
       <c r="D522" t="n">
-        <v>1.1377405892511907</v>
+        <v>1.139693239352589</v>
       </c>
       <c r="E522" t="n">
-        <v>1.1441193897275554</v>
+        <v>1.1334070109594196</v>
       </c>
       <c r="F522" t="n">
-        <v>1.1193224226470775</v>
+        <v>1.0906936890802976</v>
       </c>
       <c r="G522" t="n">
-        <v>1.1560970909988002</v>
+        <v>1.139693239352589</v>
       </c>
       <c r="H522" t="n">
-        <v>1.267943275862779</v>
+        <v>1.2637557883495203</v>
       </c>
       <c r="I522" t="n">
-        <v>1.2851479668356514</v>
+        <v>1.2031893380572494</v>
       </c>
       <c r="J522" t="n">
-        <v>1.1377405892511907</v>
+        <v>1.2491592166795011</v>
       </c>
       <c r="K522" t="n">
-        <v>1.1441193897275554</v>
+        <v>1.1454107643493616</v>
       </c>
       <c r="L522" t="n">
-        <v>1.1193224226470775</v>
+        <v>1.231934599019995</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>10.532497369940222</v>
+        <v>10.43122335676772</v>
       </c>
       <c r="C523" t="n">
-        <v>11.615814512508914</v>
+        <v>11.559632426392222</v>
       </c>
       <c r="D523" t="n">
-        <v>11.146150886167469</v>
+        <v>11.220888616508944</v>
       </c>
       <c r="E523" t="n">
-        <v>11.499194247328948</v>
+        <v>11.303699612132899</v>
       </c>
       <c r="F523" t="n">
-        <v>10.852951360989632</v>
+        <v>10.648792330263955</v>
       </c>
       <c r="G523" t="n">
-        <v>11.059416209211795</v>
+        <v>11.227743166226771</v>
       </c>
       <c r="H523" t="n">
-        <v>10.532497369940222</v>
+        <v>10.19401861212867</v>
       </c>
       <c r="I523" t="n">
-        <v>11.615814512508914</v>
+        <v>10.378213193739361</v>
       </c>
       <c r="J523" t="n">
-        <v>11.146150886167469</v>
+        <v>9.951172479644267</v>
       </c>
       <c r="K523" t="n">
-        <v>11.499194247328948</v>
+        <v>10.137791263376068</v>
       </c>
       <c r="L523" t="n">
-        <v>10.852951360989632</v>
+        <v>11.303699612132899</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>3.7567454486927914</v>
+        <v>3.6823544497087757</v>
       </c>
       <c r="C524" t="n">
-        <v>3.458239397831018</v>
+        <v>3.4162102547983793</v>
       </c>
       <c r="D524" t="n">
-        <v>3.828737720833828</v>
+        <v>3.7208538513569756</v>
       </c>
       <c r="E524" t="n">
-        <v>3.641667685670645</v>
+        <v>3.5425291212860346</v>
       </c>
       <c r="F524" t="n">
-        <v>3.7887408774826654</v>
+        <v>3.6271632855347935</v>
       </c>
       <c r="G524" t="n">
-        <v>3.7977879910556</v>
+        <v>3.631517623091986</v>
       </c>
       <c r="H524" t="n">
-        <v>3.7567454486927914</v>
+        <v>3.7578312799158335</v>
       </c>
       <c r="I524" t="n">
-        <v>3.458239397831018</v>
+        <v>3.677877423145374</v>
       </c>
       <c r="J524" t="n">
-        <v>3.828737720833828</v>
+        <v>3.7208538513569756</v>
       </c>
       <c r="K524" t="n">
-        <v>3.641667685670645</v>
+        <v>3.2756406943669036</v>
       </c>
       <c r="L524" t="n">
-        <v>3.7887408774826654</v>
+        <v>3.4336596807414943</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.361635674639609</v>
       </c>
       <c r="C531" t="n">
-        <v>2.6045410674423217</v>
+        <v>2.617108213503725</v>
       </c>
       <c r="D531" t="n">
-        <v>2.499231344962433</v>
+        <v>2.540416397153665</v>
       </c>
       <c r="E531" t="n">
-        <v>2.5783920384930266</v>
+        <v>2.5591648598055623</v>
       </c>
       <c r="F531" t="n">
-        <v>2.4334890585771</v>
+        <v>2.4108934301233</v>
       </c>
       <c r="G531" t="n">
-        <v>2.4797833735903763</v>
+        <v>2.5419682716168563</v>
       </c>
       <c r="H531" t="n">
-        <v>2.361635674639609</v>
+        <v>2.3079323679445305</v>
       </c>
       <c r="I531" t="n">
-        <v>2.6045410674423217</v>
+        <v>2.34963413964755</v>
       </c>
       <c r="J531" t="n">
-        <v>2.499231344962433</v>
+        <v>2.252951847414182</v>
       </c>
       <c r="K531" t="n">
-        <v>2.5783920384930266</v>
+        <v>2.2952024600360406</v>
       </c>
       <c r="L531" t="n">
-        <v>2.4334890585771</v>
+        <v>2.5591648598055623</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>3.8735391015842002</v>
+        <v>3.8351872292912876</v>
       </c>
       <c r="C532" t="n">
-        <v>4.271950908752789</v>
+        <v>4.250062829709966</v>
       </c>
       <c r="D532" t="n">
-        <v>4.099222603458586</v>
+        <v>4.1255188630789625</v>
       </c>
       <c r="E532" t="n">
-        <v>4.229061445661066</v>
+        <v>4.155965500256551</v>
       </c>
       <c r="F532" t="n">
-        <v>3.9913925432694786</v>
+        <v>3.91517954851446</v>
       </c>
       <c r="G532" t="n">
-        <v>4.067324170366172</v>
+        <v>4.128039035511403</v>
       </c>
       <c r="H532" t="n">
-        <v>3.8735391015842002</v>
+        <v>3.7479755402829444</v>
       </c>
       <c r="I532" t="n">
-        <v>4.271950908752789</v>
+        <v>3.8156972909287745</v>
       </c>
       <c r="J532" t="n">
-        <v>4.099222603458586</v>
+        <v>3.6586897150127284</v>
       </c>
       <c r="K532" t="n">
-        <v>4.229061445661066</v>
+        <v>3.7273027579545923</v>
       </c>
       <c r="L532" t="n">
-        <v>3.9913925432694786</v>
+        <v>4.155965500256551</v>
       </c>
     </row>
     <row r="533">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.5376215972368998</v>
+        <v>1.553153128522121</v>
       </c>
       <c r="C534" t="n">
-        <v>1.6957732469894637</v>
+        <v>1.721167177957939</v>
       </c>
       <c r="D534" t="n">
-        <v>1.6272078431793218</v>
+        <v>1.670730044163237</v>
       </c>
       <c r="E534" t="n">
-        <v>1.6787480503890844</v>
+        <v>1.6830601566083827</v>
       </c>
       <c r="F534" t="n">
-        <v>1.5844041370516833</v>
+        <v>1.585547980046011</v>
       </c>
       <c r="G534" t="n">
-        <v>1.6145455933982744</v>
+        <v>1.671750649798332</v>
       </c>
       <c r="H534" t="n">
-        <v>1.5376215972368998</v>
+        <v>1.517834616144816</v>
       </c>
       <c r="I534" t="n">
-        <v>1.6957732469894637</v>
+        <v>1.5452601999810458</v>
       </c>
       <c r="J534" t="n">
-        <v>1.6272078431793218</v>
+        <v>1.481676131418963</v>
       </c>
       <c r="K534" t="n">
-        <v>1.6787480503890844</v>
+        <v>1.5094626659298926</v>
       </c>
       <c r="L534" t="n">
-        <v>1.5844041370516833</v>
+        <v>1.6830601566083827</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>3.985510438176385</v>
+        <v>3.946436806429558</v>
       </c>
       <c r="C537" t="n">
-        <v>4.0511745950631655</v>
+        <v>3.9882329606224554</v>
       </c>
       <c r="D537" t="n">
-        <v>4.458850480947939</v>
+        <v>4.444031013385897</v>
       </c>
       <c r="E537" t="n">
-        <v>4.380587619605105</v>
+        <v>4.3707330061537855</v>
       </c>
       <c r="F537" t="n">
-        <v>4.396555740588028</v>
+        <v>4.349477162331761</v>
       </c>
       <c r="G537" t="n">
-        <v>4.095772643497548</v>
+        <v>4.0606639771676205</v>
       </c>
       <c r="H537" t="n">
-        <v>3.985510438176385</v>
+        <v>4.40030131211136</v>
       </c>
       <c r="I537" t="n">
-        <v>4.0511745950631655</v>
+        <v>4.354771717465687</v>
       </c>
       <c r="J537" t="n">
-        <v>4.458850480947939</v>
+        <v>4.499930772999444</v>
       </c>
       <c r="K537" t="n">
-        <v>4.380587619605105</v>
+        <v>4.368064668781753</v>
       </c>
       <c r="L537" t="n">
-        <v>4.396555740588028</v>
+        <v>3.9683249744614693</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>0.4728142903022177</v>
+        <v>0.4777912828317148</v>
       </c>
       <c r="C547" t="n">
-        <v>0.4699079960989545</v>
+        <v>0.4802317601396695</v>
       </c>
       <c r="D547" t="n">
-        <v>0.46468142010266644</v>
+        <v>0.4716657535063277</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5048441399990606</v>
+        <v>0.5165863011782946</v>
       </c>
       <c r="F547" t="n">
-        <v>0.45577043036681225</v>
+        <v>0.4693113485891311</v>
       </c>
       <c r="G547" t="n">
-        <v>0.5074930054413059</v>
+        <v>0.515014219015412</v>
       </c>
       <c r="H547" t="n">
-        <v>0.4728142903022177</v>
+        <v>0.5143880619274532</v>
       </c>
       <c r="I547" t="n">
-        <v>0.4699079960989545</v>
+        <v>0.532181359446424</v>
       </c>
       <c r="J547" t="n">
-        <v>0.46468142010266644</v>
+        <v>0.5203987466439177</v>
       </c>
       <c r="K547" t="n">
-        <v>0.5048441399990606</v>
+        <v>0.4491339497729259</v>
       </c>
       <c r="L547" t="n">
-        <v>0.45577043036681225</v>
+        <v>0.5255704110642032</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>4.435951678858117</v>
       </c>
       <c r="C549" t="n">
-        <v>4.4198773406001655</v>
+        <v>4.422452132908416</v>
       </c>
       <c r="D549" t="n">
-        <v>4.429207949756626</v>
+        <v>4.438661486643203</v>
       </c>
       <c r="E549" t="n">
-        <v>4.378550309488655</v>
+        <v>4.361397871192927</v>
       </c>
       <c r="F549" t="n">
-        <v>3.904050757635538</v>
+        <v>3.933995049441857</v>
       </c>
       <c r="G549" t="n">
-        <v>4.467772891937702</v>
+        <v>4.513098667155212</v>
       </c>
       <c r="H549" t="n">
-        <v>4.435951678858117</v>
+        <v>4.254524023226667</v>
       </c>
       <c r="I549" t="n">
-        <v>4.4198773406001655</v>
+        <v>4.007771016327721</v>
       </c>
       <c r="J549" t="n">
-        <v>4.429207949756626</v>
+        <v>4.0299993629962625</v>
       </c>
       <c r="K549" t="n">
-        <v>4.378550309488655</v>
+        <v>4.356168377487145</v>
       </c>
       <c r="L549" t="n">
-        <v>3.904050757635538</v>
+        <v>4.050216752465027</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>4.802238304323069</v>
       </c>
       <c r="C550" t="n">
-        <v>5.097980722744095</v>
+        <v>5.038701103259594</v>
       </c>
       <c r="D550" t="n">
-        <v>4.8850357293509274</v>
+        <v>4.853273597271717</v>
       </c>
       <c r="E550" t="n">
-        <v>4.610320425897348</v>
+        <v>4.59715103233055</v>
       </c>
       <c r="F550" t="n">
-        <v>5.306794756140269</v>
+        <v>5.212995793349249</v>
       </c>
       <c r="G550" t="n">
-        <v>5.244888363463324</v>
+        <v>5.097578915467581</v>
       </c>
       <c r="H550" t="n">
-        <v>4.802238304323069</v>
+        <v>5.063325176388268</v>
       </c>
       <c r="I550" t="n">
-        <v>5.097980722744095</v>
+        <v>4.487635796864934</v>
       </c>
       <c r="J550" t="n">
-        <v>4.8850357293509274</v>
+        <v>4.571794436055978</v>
       </c>
       <c r="K550" t="n">
-        <v>4.610320425897348</v>
+        <v>5.097578915467581</v>
       </c>
       <c r="L550" t="n">
-        <v>5.306794756140269</v>
+        <v>4.59715103233055</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>3.553609513277945</v>
+        <v>3.6253996044552768</v>
       </c>
       <c r="C552" t="n">
-        <v>3.7724560187990677</v>
+        <v>3.8039147224912004</v>
       </c>
       <c r="D552" t="n">
-        <v>3.614878800349568</v>
+        <v>3.663928165335466</v>
       </c>
       <c r="E552" t="n">
-        <v>3.4115921548457715</v>
+        <v>3.4705711124807834</v>
       </c>
       <c r="F552" t="n">
-        <v>3.9269763671363376</v>
+        <v>3.9354966766688704</v>
       </c>
       <c r="G552" t="n">
-        <v>3.881166240272897</v>
+        <v>3.8483639112992347</v>
       </c>
       <c r="H552" t="n">
-        <v>3.553609513277945</v>
+        <v>3.82250440907556</v>
       </c>
       <c r="I552" t="n">
-        <v>3.7724560187990677</v>
+        <v>3.3878937303563994</v>
       </c>
       <c r="J552" t="n">
-        <v>3.614878800349568</v>
+        <v>3.4514284152053456</v>
       </c>
       <c r="K552" t="n">
-        <v>3.4115921548457715</v>
+        <v>3.8483639112992347</v>
       </c>
       <c r="L552" t="n">
-        <v>3.9269763671363376</v>
+        <v>3.4705711124807834</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>2.1779000094034524</v>
+        <v>2.199898999397427</v>
       </c>
       <c r="C554" t="n">
-        <v>1.9385688861198527</v>
+        <v>1.9593036572057645</v>
       </c>
       <c r="D554" t="n">
-        <v>2.02842097782467</v>
+        <v>2.0538217093364857</v>
       </c>
       <c r="E554" t="n">
-        <v>2.086776489494717</v>
+        <v>2.0966592429374424</v>
       </c>
       <c r="F554" t="n">
-        <v>2.029856977916451</v>
+        <v>2.0433844461393105</v>
       </c>
       <c r="G554" t="n">
-        <v>2.219560055483824</v>
+        <v>2.2093002757611155</v>
       </c>
       <c r="H554" t="n">
-        <v>2.1779000094034524</v>
+        <v>2.2025769043746624</v>
       </c>
       <c r="I554" t="n">
-        <v>1.9385688861198527</v>
+        <v>1.9208247621427565</v>
       </c>
       <c r="J554" t="n">
-        <v>2.02842097782467</v>
+        <v>2.2106498799769114</v>
       </c>
       <c r="K554" t="n">
-        <v>2.086776489494717</v>
+        <v>2.247722890536484</v>
       </c>
       <c r="L554" t="n">
-        <v>2.029856977916451</v>
+        <v>2.1721691797172236</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>0.43839545987148265</v>
+        <v>0.44291500069490003</v>
       </c>
       <c r="C557" t="n">
-        <v>0.4713696050681622</v>
+        <v>0.4790022577611682</v>
       </c>
       <c r="D557" t="n">
-        <v>0.4510956352436641</v>
+        <v>0.45372379686018643</v>
       </c>
       <c r="E557" t="n">
-        <v>0.4548750590840395</v>
+        <v>0.461922081374798</v>
       </c>
       <c r="F557" t="n">
-        <v>0.46228098062294554</v>
+        <v>0.46428150147756186</v>
       </c>
       <c r="G557" t="n">
-        <v>0.4805084730917953</v>
+        <v>0.4739652409810618</v>
       </c>
       <c r="H557" t="n">
-        <v>0.43839545987148265</v>
+        <v>0.5145056639950155</v>
       </c>
       <c r="I557" t="n">
-        <v>0.4713696050681622</v>
+        <v>0.45372379686018643</v>
       </c>
       <c r="J557" t="n">
-        <v>0.4510956352436641</v>
+        <v>0.43421656348691945</v>
       </c>
       <c r="K557" t="n">
-        <v>0.4548750590840395</v>
+        <v>0.49790870728172304</v>
       </c>
       <c r="L557" t="n">
-        <v>0.46228098062294554</v>
+        <v>0.5031143949925546</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>4.879950327540845</v>
+        <v>4.833474610135695</v>
       </c>
       <c r="C558" t="n">
-        <v>5.246998359242834</v>
+        <v>5.227290219238084</v>
       </c>
       <c r="D558" t="n">
-        <v>5.02132091788745</v>
+        <v>4.951429616737586</v>
       </c>
       <c r="E558" t="n">
-        <v>5.063391154228772</v>
+        <v>5.040896444426586</v>
       </c>
       <c r="F558" t="n">
-        <v>5.14582934656343</v>
+        <v>5.066644493473154</v>
       </c>
       <c r="G558" t="n">
-        <v>5.348726652730076</v>
+        <v>5.172321900984527</v>
       </c>
       <c r="H558" t="n">
-        <v>4.879950327540845</v>
+        <v>5.614734339070105</v>
       </c>
       <c r="I558" t="n">
-        <v>5.246998359242834</v>
+        <v>4.951429616737586</v>
       </c>
       <c r="J558" t="n">
-        <v>5.02132091788745</v>
+        <v>4.738549680235668</v>
       </c>
       <c r="K558" t="n">
-        <v>5.063391154228772</v>
+        <v>5.433613878590419</v>
       </c>
       <c r="L558" t="n">
-        <v>5.14582934656343</v>
+        <v>5.490422881083275</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>2.5459681596598336</v>
+        <v>2.571427841256432</v>
       </c>
       <c r="C562" t="n">
-        <v>2.424460477989477</v>
+        <v>2.422445925969883</v>
       </c>
       <c r="D562" t="n">
-        <v>2.52578837556798</v>
+        <v>2.5096888765535716</v>
       </c>
       <c r="E562" t="n">
-        <v>2.3249612575978307</v>
+        <v>2.318991495968083</v>
       </c>
       <c r="F562" t="n">
-        <v>2.2671107473641845</v>
+        <v>2.306200589009862</v>
       </c>
       <c r="G562" t="n">
-        <v>2.50885758278322</v>
+        <v>2.571427841256432</v>
       </c>
       <c r="H562" t="n">
-        <v>2.5459681596598336</v>
+        <v>2.2192896319364492</v>
       </c>
       <c r="I562" t="n">
-        <v>2.424460477989477</v>
+        <v>2.5066796573603183</v>
       </c>
       <c r="J562" t="n">
-        <v>2.52578837556798</v>
+        <v>2.37295213764935</v>
       </c>
       <c r="K562" t="n">
-        <v>2.3249612575978307</v>
+        <v>2.4481902205361976</v>
       </c>
       <c r="L562" t="n">
-        <v>2.2671107473641845</v>
+        <v>2.360893093817864</v>
       </c>
     </row>
     <row r="563">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.280803579963804</v>
+        <v>2.3040770858818016</v>
       </c>
       <c r="C568" t="n">
-        <v>2.531690724460771</v>
+        <v>2.5377220446399718</v>
       </c>
       <c r="D568" t="n">
-        <v>2.266093616928605</v>
+        <v>2.2913684426283343</v>
       </c>
       <c r="E568" t="n">
-        <v>2.304005073748606</v>
+        <v>2.3156360018059705</v>
       </c>
       <c r="F568" t="n">
-        <v>2.520477997662124</v>
+        <v>2.5548899068144735</v>
       </c>
       <c r="G568" t="n">
-        <v>2.4885791717360397</v>
+        <v>2.4905581457334707</v>
       </c>
       <c r="H568" t="n">
-        <v>2.280803579963804</v>
+        <v>2.249188407477134</v>
       </c>
       <c r="I568" t="n">
-        <v>2.531690724460771</v>
+        <v>2.493548011371885</v>
       </c>
       <c r="J568" t="n">
-        <v>2.266093616928605</v>
+        <v>2.406866156913131</v>
       </c>
       <c r="K568" t="n">
-        <v>2.304005073748606</v>
+        <v>2.3040770858818016</v>
       </c>
       <c r="L568" t="n">
-        <v>2.520477997662124</v>
+        <v>2.536172762503083</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.7235818816604844</v>
+        <v>0.7309653702488568</v>
       </c>
       <c r="C576" t="n">
-        <v>0.7191341695853862</v>
+        <v>0.7346990181053443</v>
       </c>
       <c r="D576" t="n">
-        <v>0.7111355625813164</v>
+        <v>0.721594019259017</v>
       </c>
       <c r="E576" t="n">
-        <v>0.772599475646762</v>
+        <v>0.7903172587585242</v>
       </c>
       <c r="F576" t="n">
-        <v>0.6974984309362359</v>
+        <v>0.7179920521996462</v>
       </c>
       <c r="G576" t="n">
-        <v>0.7766532258829069</v>
+        <v>0.7879121549788098</v>
       </c>
       <c r="H576" t="n">
-        <v>0.7235818816604844</v>
+        <v>0.7869542070963766</v>
       </c>
       <c r="I576" t="n">
-        <v>0.7191341695853862</v>
+        <v>0.8141758931677893</v>
       </c>
       <c r="J576" t="n">
-        <v>0.7111355625813164</v>
+        <v>0.7961498591249783</v>
       </c>
       <c r="K576" t="n">
-        <v>0.772599475646762</v>
+        <v>0.6871229670440239</v>
       </c>
       <c r="L576" t="n">
-        <v>0.6974984309362359</v>
+        <v>0.8040619071962032</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>4.523482359411497</v>
+        <v>4.47956505495119</v>
       </c>
       <c r="C577" t="n">
-        <v>4.495677424515561</v>
+        <v>4.502445917911526</v>
       </c>
       <c r="D577" t="n">
-        <v>4.445674019787204</v>
+        <v>4.422134733187143</v>
       </c>
       <c r="E577" t="n">
-        <v>4.829916540970731</v>
+        <v>4.843290419427417</v>
       </c>
       <c r="F577" t="n">
-        <v>4.360421298577639</v>
+        <v>4.400060847850072</v>
       </c>
       <c r="G577" t="n">
-        <v>4.855258617862681</v>
+        <v>4.828551254914779</v>
       </c>
       <c r="H577" t="n">
-        <v>4.523482359411497</v>
+        <v>4.822680676042962</v>
       </c>
       <c r="I577" t="n">
-        <v>4.495677424515561</v>
+        <v>4.989502961510244</v>
       </c>
       <c r="J577" t="n">
-        <v>4.445674019787204</v>
+        <v>4.87903426427217</v>
       </c>
       <c r="K577" t="n">
-        <v>4.829916540970731</v>
+        <v>4.210886256590897</v>
       </c>
       <c r="L577" t="n">
-        <v>4.360421298577639</v>
+        <v>4.927521559971127</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.104319394963563</v>
+        <v>6.2276389787002</v>
       </c>
       <c r="C578" t="n">
-        <v>6.2887241402688145</v>
+        <v>6.376422800133952</v>
       </c>
       <c r="D578" t="n">
-        <v>5.892184986982542</v>
+        <v>6.005574947678723</v>
       </c>
       <c r="E578" t="n">
-        <v>6.349342637887986</v>
+        <v>6.473446884770117</v>
       </c>
       <c r="F578" t="n">
-        <v>6.410265901689846</v>
+        <v>6.493207097215069</v>
       </c>
       <c r="G578" t="n">
-        <v>6.384555905018517</v>
+        <v>6.465576432847113</v>
       </c>
       <c r="H578" t="n">
-        <v>6.104319394963563</v>
+        <v>6.036250411856653</v>
       </c>
       <c r="I578" t="n">
-        <v>6.2887241402688145</v>
+        <v>6.541127450307408</v>
       </c>
       <c r="J578" t="n">
-        <v>5.892184986982542</v>
+        <v>6.606132441809539</v>
       </c>
       <c r="K578" t="n">
-        <v>6.349342637887986</v>
+        <v>6.384077569189951</v>
       </c>
       <c r="L578" t="n">
-        <v>6.410265901689846</v>
+        <v>6.68922844504626</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>4.800925941958385</v>
+        <v>4.753858040566637</v>
       </c>
       <c r="C584" t="n">
-        <v>5.329025165890009</v>
+        <v>5.235923060281592</v>
       </c>
       <c r="D584" t="n">
-        <v>4.769962537761144</v>
+        <v>4.727637092367733</v>
       </c>
       <c r="E584" t="n">
-        <v>4.849763401870392</v>
+        <v>4.77770682832771</v>
       </c>
       <c r="F584" t="n">
-        <v>5.305423190059819</v>
+        <v>5.271344435780564</v>
       </c>
       <c r="G584" t="n">
-        <v>5.238278477445423</v>
+        <v>5.138612739626528</v>
       </c>
       <c r="H584" t="n">
-        <v>4.800925941958385</v>
+        <v>4.6406096658620895</v>
       </c>
       <c r="I584" t="n">
-        <v>5.329025165890009</v>
+        <v>5.144781542264463</v>
       </c>
       <c r="J584" t="n">
-        <v>4.769962537761144</v>
+        <v>4.9659362973223775</v>
       </c>
       <c r="K584" t="n">
-        <v>4.849763401870392</v>
+        <v>4.753858040566637</v>
       </c>
       <c r="L584" t="n">
-        <v>5.305423190059819</v>
+        <v>5.232726523417143</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>7.362574693911735</v>
+        <v>7.290392589069462</v>
       </c>
       <c r="C585" t="n">
-        <v>7.159114376363093</v>
+        <v>7.1657704894368175</v>
       </c>
       <c r="D585" t="n">
-        <v>6.285369443269646</v>
+        <v>6.230112559597731</v>
       </c>
       <c r="E585" t="n">
-        <v>7.251404990609184</v>
+        <v>7.218654410570298</v>
       </c>
       <c r="F585" t="n">
-        <v>7.0490275549791725</v>
+        <v>7.045337375300668</v>
       </c>
       <c r="G585" t="n">
-        <v>6.450958567337976</v>
+        <v>6.542660015653612</v>
       </c>
       <c r="H585" t="n">
-        <v>7.362574693911735</v>
+        <v>7.036889728801228</v>
       </c>
       <c r="I585" t="n">
-        <v>7.159114376363093</v>
+        <v>6.661482441655837</v>
       </c>
       <c r="J585" t="n">
-        <v>6.285369443269646</v>
+        <v>6.6276296270659145</v>
       </c>
       <c r="K585" t="n">
-        <v>7.251404990609184</v>
+        <v>7.135277853614937</v>
       </c>
       <c r="L585" t="n">
-        <v>7.0490275549791725</v>
+        <v>6.354917201924428</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>4.209444543404311</v>
+        <v>4.126089205911156</v>
       </c>
       <c r="C586" t="n">
-        <v>4.6724811374760415</v>
+        <v>4.544495320990717</v>
       </c>
       <c r="D586" t="n">
-        <v>4.182295877830408</v>
+        <v>4.103330854608061</v>
       </c>
       <c r="E586" t="n">
-        <v>4.252265153766916</v>
+        <v>4.146788651480485</v>
       </c>
       <c r="F586" t="n">
-        <v>4.651786961066516</v>
+        <v>4.575239140822454</v>
       </c>
       <c r="G586" t="n">
-        <v>4.592914579457184</v>
+        <v>4.460035276064607</v>
       </c>
       <c r="H586" t="n">
-        <v>4.209444543404311</v>
+        <v>4.02779580033026</v>
       </c>
       <c r="I586" t="n">
-        <v>4.6724811374760415</v>
+        <v>4.465389459921292</v>
       </c>
       <c r="J586" t="n">
-        <v>4.182295877830408</v>
+        <v>4.310161552737906</v>
       </c>
       <c r="K586" t="n">
-        <v>4.252265153766916</v>
+        <v>4.126089205911156</v>
       </c>
       <c r="L586" t="n">
-        <v>4.651786961066516</v>
+        <v>4.541720901531796</v>
       </c>
     </row>
     <row r="587">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.513022380076966</v>
+        <v>0.5183112705932233</v>
       </c>
       <c r="C596" t="n">
-        <v>0.4794087951193821</v>
+        <v>0.47892766310567025</v>
       </c>
       <c r="D596" t="n">
-        <v>0.5269029238458707</v>
+        <v>0.5310618555518632</v>
       </c>
       <c r="E596" t="n">
-        <v>0.4608695946606547</v>
+        <v>0.45833682401420733</v>
       </c>
       <c r="F596" t="n">
-        <v>0.47359802492585645</v>
+        <v>0.48133031040663005</v>
       </c>
       <c r="G596" t="n">
-        <v>0.5010736833992168</v>
+        <v>0.5056103151728393</v>
       </c>
       <c r="H596" t="n">
-        <v>0.513022380076966</v>
+        <v>0.47628603238423217</v>
       </c>
       <c r="I596" t="n">
-        <v>0.4794087951193821</v>
+        <v>0.5002934975577743</v>
       </c>
       <c r="J596" t="n">
-        <v>0.5269029238458707</v>
+        <v>0.5271712920633439</v>
       </c>
       <c r="K596" t="n">
-        <v>0.4608695946606547</v>
+        <v>0.5430858972285616</v>
       </c>
       <c r="L596" t="n">
-        <v>0.47359802492585645</v>
+        <v>0.5274933273276404</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.7387218380571577</v>
+        <v>0.7461836748052099</v>
       </c>
       <c r="C598" t="n">
-        <v>0.7487455364201916</v>
+        <v>0.7512316580991159</v>
       </c>
       <c r="D598" t="n">
-        <v>0.6628638956675472</v>
+        <v>0.6774834582885436</v>
       </c>
       <c r="E598" t="n">
-        <v>0.6665802758102579</v>
+        <v>0.67374664946636</v>
       </c>
       <c r="F598" t="n">
-        <v>0.652133209093122</v>
+        <v>0.6483559846607166</v>
       </c>
       <c r="G598" t="n">
-        <v>0.6735586554170055</v>
+        <v>0.6774834582885436</v>
       </c>
       <c r="H598" t="n">
-        <v>0.7387218380571577</v>
+        <v>0.7512316580991159</v>
       </c>
       <c r="I598" t="n">
-        <v>0.7487455364201916</v>
+        <v>0.7152283137048139</v>
       </c>
       <c r="J598" t="n">
-        <v>0.6628638956675472</v>
+        <v>0.7425548181278806</v>
       </c>
       <c r="K598" t="n">
-        <v>0.6665802758102579</v>
+        <v>0.6808822049634516</v>
       </c>
       <c r="L598" t="n">
-        <v>0.652133209093122</v>
+        <v>0.7323157527928181</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.074336475985678</v>
+        <v>1.0852990930875726</v>
       </c>
       <c r="C606" t="n">
-        <v>0.9137790705553083</v>
+        <v>0.9159371325415019</v>
       </c>
       <c r="D606" t="n">
-        <v>1.0519846618093631</v>
+        <v>1.0502894453237637</v>
       </c>
       <c r="E606" t="n">
-        <v>1.0579599586850386</v>
+        <v>1.0718171171477608</v>
       </c>
       <c r="F606" t="n">
-        <v>0.9654037951368275</v>
+        <v>0.957085722674145</v>
       </c>
       <c r="G606" t="n">
-        <v>0.9165296227529739</v>
+        <v>0.9342856302816396</v>
       </c>
       <c r="H606" t="n">
-        <v>1.074336475985678</v>
+        <v>1.035789650923583</v>
       </c>
       <c r="I606" t="n">
-        <v>0.9137790705553083</v>
+        <v>0.9618871563884945</v>
       </c>
       <c r="J606" t="n">
-        <v>1.0519846618093631</v>
+        <v>1.034547696940023</v>
       </c>
       <c r="K606" t="n">
-        <v>1.0579599586850386</v>
+        <v>0.9743791975010191</v>
       </c>
       <c r="L606" t="n">
-        <v>0.9654037951368275</v>
+        <v>1.0104081496372639</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.59250041502278</v>
+        <v>4.547475901150008</v>
       </c>
       <c r="C607" t="n">
-        <v>3.9061605507847696</v>
+        <v>3.8378379413838055</v>
       </c>
       <c r="D607" t="n">
-        <v>4.4969524017366655</v>
+        <v>4.400783131822479</v>
       </c>
       <c r="E607" t="n">
-        <v>4.522495193957554</v>
+        <v>4.490985518842805</v>
       </c>
       <c r="F607" t="n">
-        <v>4.126842408252694</v>
+        <v>4.010253290467116</v>
       </c>
       <c r="G607" t="n">
-        <v>3.917918424031819</v>
+        <v>3.91471937602889</v>
       </c>
       <c r="H607" t="n">
-        <v>4.59250041502278</v>
+        <v>4.340028021985554</v>
       </c>
       <c r="I607" t="n">
-        <v>3.9061605507847696</v>
+        <v>4.030371619364689</v>
       </c>
       <c r="J607" t="n">
-        <v>4.4969524017366655</v>
+        <v>4.334824151599456</v>
       </c>
       <c r="K607" t="n">
-        <v>4.522495193957554</v>
+        <v>4.0827141084326275</v>
       </c>
       <c r="L607" t="n">
-        <v>4.126842408252694</v>
+        <v>4.233677831360977</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>2.341010603391186</v>
       </c>
       <c r="C608" t="n">
-        <v>2.4177692937789126</v>
+        <v>2.432688349788896</v>
       </c>
       <c r="D608" t="n">
-        <v>2.3497380481429566</v>
+        <v>2.3879068654160425</v>
       </c>
       <c r="E608" t="n">
-        <v>2.6650718913006597</v>
+        <v>2.6811331181684794</v>
       </c>
       <c r="F608" t="n">
-        <v>2.6314430922694103</v>
+        <v>2.6942357842358877</v>
       </c>
       <c r="G608" t="n">
-        <v>2.46718560754125</v>
+        <v>2.490380564378227</v>
       </c>
       <c r="H608" t="n">
-        <v>2.341010603391186</v>
+        <v>2.555309373427321</v>
       </c>
       <c r="I608" t="n">
-        <v>2.4177692937789126</v>
+        <v>2.69259095028652</v>
       </c>
       <c r="J608" t="n">
-        <v>2.3497380481429566</v>
+        <v>2.446180797275373</v>
       </c>
       <c r="K608" t="n">
-        <v>2.6650718913006597</v>
+        <v>2.7124624725002975</v>
       </c>
       <c r="L608" t="n">
-        <v>2.6314430922694103</v>
+        <v>2.684396822422057</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.671141916232244</v>
+        <v>3.6351503288182023</v>
       </c>
       <c r="C609" t="n">
-        <v>3.6645128280895016</v>
+        <v>3.6712760453753206</v>
       </c>
       <c r="D609" t="n">
-        <v>3.726690581913846</v>
+        <v>3.717455616983462</v>
       </c>
       <c r="E609" t="n">
-        <v>3.6002703737466244</v>
+        <v>3.5436177653901977</v>
       </c>
       <c r="F609" t="n">
-        <v>3.4920082388198925</v>
+        <v>3.4609330047710913</v>
       </c>
       <c r="G609" t="n">
-        <v>3.2682426050431865</v>
+        <v>3.260206526100185</v>
       </c>
       <c r="H609" t="n">
-        <v>3.671141916232244</v>
+        <v>3.2782886472038992</v>
       </c>
       <c r="I609" t="n">
-        <v>3.6645128280895016</v>
+        <v>3.610723538582626</v>
       </c>
       <c r="J609" t="n">
-        <v>3.726690581913846</v>
+        <v>3.5975376952261255</v>
       </c>
       <c r="K609" t="n">
-        <v>3.6002703737466244</v>
+        <v>3.424539068547626</v>
       </c>
       <c r="L609" t="n">
-        <v>3.4920082388198925</v>
+        <v>3.137343115696667</v>
       </c>
     </row>
     <row r="610">
@@ -23286,34 +23286,34 @@
         <v>2.6497142548991257</v>
       </c>
       <c r="C611" t="n">
-        <v>2.35853509779022</v>
+        <v>2.359924174517162</v>
       </c>
       <c r="D611" t="n">
-        <v>2.467852498586766</v>
+        <v>2.4737684147048573</v>
       </c>
       <c r="E611" t="n">
-        <v>2.5388499872026045</v>
+        <v>2.5253649759371073</v>
       </c>
       <c r="F611" t="n">
-        <v>2.4695995897740564</v>
+        <v>2.4611970352536803</v>
       </c>
       <c r="G611" t="n">
-        <v>2.700399418351212</v>
+        <v>2.6610378183908745</v>
       </c>
       <c r="H611" t="n">
-        <v>2.6497142548991257</v>
+        <v>2.6529397134285353</v>
       </c>
       <c r="I611" t="n">
-        <v>2.35853509779022</v>
+        <v>2.3135774664232236</v>
       </c>
       <c r="J611" t="n">
-        <v>2.467852498586766</v>
+        <v>2.6626633773506474</v>
       </c>
       <c r="K611" t="n">
-        <v>2.5388499872026045</v>
+        <v>2.7073167385179704</v>
       </c>
       <c r="L611" t="n">
-        <v>2.4695995897740564</v>
+        <v>2.6163144949498993</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.7393706521782917</v>
+        <v>1.75711933230256</v>
       </c>
       <c r="C616" t="n">
-        <v>1.6254058711857906</v>
+        <v>1.6236055501056343</v>
       </c>
       <c r="D616" t="n">
-        <v>1.7864317773952598</v>
+        <v>1.8003449007980126</v>
       </c>
       <c r="E616" t="n">
-        <v>1.5625498585730018</v>
+        <v>1.5538008526416356</v>
       </c>
       <c r="F616" t="n">
-        <v>1.6057048142072343</v>
+        <v>1.631750728998598</v>
       </c>
       <c r="G616" t="n">
-        <v>1.6988593350502958</v>
+        <v>1.714062012166868</v>
       </c>
       <c r="H616" t="n">
-        <v>1.7393706521782917</v>
+        <v>1.6146501970720593</v>
       </c>
       <c r="I616" t="n">
-        <v>1.6254058711857906</v>
+        <v>1.696037547819286</v>
       </c>
       <c r="J616" t="n">
-        <v>1.7864317773952598</v>
+        <v>1.787155559359607</v>
       </c>
       <c r="K616" t="n">
-        <v>1.5625498585730018</v>
+        <v>1.8411074257154372</v>
       </c>
       <c r="L616" t="n">
-        <v>1.6057048142072343</v>
+        <v>1.7882472863211507</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>3.3916372558710877</v>
+        <v>3.324476122091462</v>
       </c>
       <c r="C617" t="n">
-        <v>3.437658297971442</v>
+        <v>3.3469664290921988</v>
       </c>
       <c r="D617" t="n">
-        <v>3.043356468289418</v>
+        <v>3.018395679562628</v>
       </c>
       <c r="E617" t="n">
-        <v>3.0604192011066136</v>
+        <v>3.001747055206951</v>
       </c>
       <c r="F617" t="n">
-        <v>2.9940894851139723</v>
+        <v>2.8886238903341406</v>
       </c>
       <c r="G617" t="n">
-        <v>3.0924585033724075</v>
+        <v>3.018395679562628</v>
       </c>
       <c r="H617" t="n">
-        <v>3.3916372558710877</v>
+        <v>3.3469664290921988</v>
       </c>
       <c r="I617" t="n">
-        <v>3.437658297971442</v>
+        <v>3.186560536018301</v>
       </c>
       <c r="J617" t="n">
-        <v>3.043356468289418</v>
+        <v>3.3083084575048267</v>
       </c>
       <c r="K617" t="n">
-        <v>3.0604192011066136</v>
+        <v>3.0335381338232614</v>
       </c>
       <c r="L617" t="n">
-        <v>2.9940894851139723</v>
+        <v>3.26269029488845</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>3.0504639132013116</v>
+        <v>3.112089446801338</v>
       </c>
       <c r="C618" t="n">
-        <v>3.1426150580842065</v>
+        <v>3.186440025266532</v>
       </c>
       <c r="D618" t="n">
-        <v>2.944455640300596</v>
+        <v>3.0011191208367545</v>
       </c>
       <c r="E618" t="n">
-        <v>3.1729074670319304</v>
+        <v>3.2349251142247217</v>
       </c>
       <c r="F618" t="n">
-        <v>3.203352174406737</v>
+        <v>3.244799731046091</v>
       </c>
       <c r="G618" t="n">
-        <v>3.190504318326479</v>
+        <v>3.230992074680376</v>
       </c>
       <c r="H618" t="n">
-        <v>3.0504639132013116</v>
+        <v>3.0164483312598986</v>
       </c>
       <c r="I618" t="n">
-        <v>3.1426150580842065</v>
+        <v>3.268746595284003</v>
       </c>
       <c r="J618" t="n">
-        <v>2.944455640300596</v>
+        <v>3.301231032602079</v>
       </c>
       <c r="K618" t="n">
-        <v>3.1729074670319304</v>
+        <v>3.1902652832942295</v>
       </c>
       <c r="L618" t="n">
-        <v>3.203352174406737</v>
+        <v>3.3427559500914907</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>1.1217769454538142</v>
+        <v>1.1335851238270125</v>
       </c>
       <c r="C622" t="n">
-        <v>1.2371570070351026</v>
+        <v>1.256211942481788</v>
       </c>
       <c r="D622" t="n">
-        <v>1.1871348888571553</v>
+        <v>1.2193998706337592</v>
       </c>
       <c r="E622" t="n">
-        <v>1.2247362182841874</v>
+        <v>1.22839913270667</v>
       </c>
       <c r="F622" t="n">
-        <v>1.1559073028241222</v>
+        <v>1.157228846459184</v>
       </c>
       <c r="G622" t="n">
-        <v>1.1778971024554286</v>
+        <v>1.220144770376091</v>
       </c>
       <c r="H622" t="n">
-        <v>1.1217769454538142</v>
+        <v>1.1078075366133748</v>
       </c>
       <c r="I622" t="n">
-        <v>1.2371570070351026</v>
+        <v>1.127824387030824</v>
       </c>
       <c r="J622" t="n">
-        <v>1.1871348888571553</v>
+        <v>1.0814168867588074</v>
       </c>
       <c r="K622" t="n">
-        <v>1.2247362182841874</v>
+        <v>1.1016971808172995</v>
       </c>
       <c r="L622" t="n">
-        <v>1.1559073028241222</v>
+        <v>1.22839913270667</v>
       </c>
     </row>
     <row r="623">
